--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24BCA67-8773-40BC-921C-160AB6060A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3179D0-8062-4663-A2E4-EE20D790C830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Up untill 2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="zt5VEtdFQn/DbdUmDWlfVAnffxhstJbwJwC9e/aXKFI="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -65,6 +60,72 @@
   <si>
     <t xml:space="preserve">Daily Cash Book </t>
   </si>
+  <si>
+    <t xml:space="preserve">Petrol For Yasir Bike </t>
+  </si>
+  <si>
+    <t>Paid To Bao Usman Advance 22</t>
+  </si>
+  <si>
+    <t>Burf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 KG Laffay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Neddel Bundel Rabbar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol For Ali Designer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elec. Itms </t>
+  </si>
+  <si>
+    <t>Freight For Riksha Thread Recev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasir Elecrtion Advance </t>
+  </si>
+  <si>
+    <t>Debit to Empolyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bao Yasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasir Ele </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid To Yasir Hisab Pending </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid to Nasir Ele Hissab Pending </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freight For Riksya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafogar Shakeel For Machine Repairng + Petrol </t>
+  </si>
+  <si>
+    <t>Checker Yasir Adavnce 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottel Entertaiment C/O MianTahir Sahb </t>
+  </si>
+  <si>
+    <t>Misc Exp.</t>
+  </si>
+  <si>
+    <t>Receivd Via abu Bakar (anjum Sahb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Paid AA Baban C/O Yasir </t>
+  </si>
 </sst>
 </file>
 
@@ -73,18 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +145,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -133,6 +204,14 @@
       <color theme="1"/>
       <name val="Centaur"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -265,78 +344,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,450 +645,608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V1002"/>
+  <dimension ref="B3:V1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="22" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="22" width="8.7109375" style="1" customWidth="1"/>
     <col min="23" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="2:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="2:11" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
         <v>45862</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>6530</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19">
+      <c r="E6" s="16"/>
+      <c r="F6" s="18">
         <f>D6</f>
         <v>6530</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
         <v>45864</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>500000</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19">
+      <c r="E7" s="20"/>
+      <c r="F7" s="18">
         <f>F6+D7-E7</f>
         <v>506530</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
         <v>45864</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="20">
+        <v>600</v>
+      </c>
+      <c r="F8" s="18">
+        <f>F7+D8-E8</f>
+        <v>505930</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>45864</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21">
+      <c r="D9" s="21"/>
+      <c r="E9" s="20">
         <v>356230</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" ref="F8:F39" si="0">F7+D8-E8</f>
-        <v>150300</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="F9" s="18">
+        <f t="shared" ref="F9:F31" si="0">F8+D9-E9</f>
+        <v>149700</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <v>45864</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21">
+      <c r="D10" s="21"/>
+      <c r="E10" s="20">
         <v>5710</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F10" s="18">
         <f t="shared" si="0"/>
-        <v>144590</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+        <v>143990</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
         <v>45864</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21">
+      <c r="D11" s="21"/>
+      <c r="E11" s="20">
         <v>4280</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
-        <v>140310</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+        <v>139710</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="27">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
         <v>45864</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21">
+      <c r="D12" s="21"/>
+      <c r="E12" s="20">
         <v>300</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
-        <v>140010</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+        <v>139410</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="27">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
         <v>45864</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21">
+      <c r="D13" s="21"/>
+      <c r="E13" s="20">
         <v>8010</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+        <v>131400</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="27">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
         <v>45864</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
         <v>225</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19">
+        <v>131175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>45864</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
+        <v>300</v>
+      </c>
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="19">
+        <v>130875</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <v>45864</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="26">
+        <v>50000</v>
+      </c>
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="19">
+        <v>80875</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>45864</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19">
+        <v>70875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <v>45864</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
+        <v>5000</v>
+      </c>
+      <c r="F18" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19">
+        <v>65875</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <v>45864</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
+        <v>100</v>
+      </c>
+      <c r="F19" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19">
+        <v>65775</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19">
+        <v>64775</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
+        <v>400</v>
+      </c>
+      <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19">
+        <v>64375</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
+        <v>200</v>
+      </c>
+      <c r="F22" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19">
+        <v>64175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18">
+        <v>420</v>
+      </c>
+      <c r="F23" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19">
+        <v>63755</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
+        <v>320</v>
+      </c>
+      <c r="F24" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19">
+        <v>63435</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19">
+        <v>62435</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19">
+        <v>57435</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="24">
+        <v>35000</v>
+      </c>
+      <c r="F27" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19">
+        <v>22435</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18">
+        <v>1100</v>
+      </c>
+      <c r="F28" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19">
+        <v>21335</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18">
+        <v>200</v>
+      </c>
+      <c r="F29" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19">
+        <v>21135</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
+        <v>6300</v>
+      </c>
+      <c r="F30" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19">
+        <v>14835</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="18">
         <f t="shared" si="0"/>
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19">
-        <f t="shared" si="0"/>
-        <v>131775</v>
+        <v>13835</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19">
-        <f t="shared" si="0"/>
-        <v>131775</v>
+      <c r="B32" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18">
+        <v>480</v>
+      </c>
+      <c r="F32" s="18">
+        <f t="shared" ref="F32:F40" si="1">F31+D32-E32</f>
+        <v>13355</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19">
-        <f t="shared" si="0"/>
-        <v>131775</v>
+      <c r="B33" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18">
+        <v>80</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="1"/>
+        <v>13275</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19">
-        <f t="shared" si="0"/>
-        <v>131775</v>
+      <c r="B34" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="18">
+        <v>94500</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18">
+        <f t="shared" si="1"/>
+        <v>107775</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19">
-        <f t="shared" si="0"/>
-        <v>131775</v>
+      <c r="B35" s="15">
+        <v>45865</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18">
+        <v>94500</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="1"/>
+        <v>13275</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19">
-        <f t="shared" si="0"/>
-        <v>131775</v>
+      <c r="B36" s="22"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18">
+        <f t="shared" si="1"/>
+        <v>13275</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19">
-        <f t="shared" si="0"/>
-        <v>131775</v>
+      <c r="B37" s="22"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18">
+        <f t="shared" si="1"/>
+        <v>13275</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19">
-        <f t="shared" si="0"/>
-        <v>131775</v>
+      <c r="B38" s="22"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18">
+        <f t="shared" si="1"/>
+        <v>13275</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="24">
-        <f t="shared" si="0"/>
-        <v>131775</v>
+      <c r="B39" s="22"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18">
+        <f t="shared" si="1"/>
+        <v>13275</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="23">
+        <f t="shared" si="1"/>
+        <v>13275</v>
+      </c>
     </row>
     <row r="41" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
@@ -1357,13 +1606,13 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -1384,18 +1633,18 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="7"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
@@ -1404,15 +1653,17 @@
       <c r="E98" s="6"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="7"/>
+    </row>
     <row r="100" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="8"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-    </row>
+    <row r="103" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="D104" s="9"/>
@@ -1858,106 +2109,90 @@
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
     </row>
-    <row r="193" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="8"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
     </row>
-    <row r="194" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="8"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
     </row>
-    <row r="195" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="8"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
     </row>
-    <row r="196" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="8"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
     </row>
-    <row r="197" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="8"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
     </row>
-    <row r="198" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="8"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
     </row>
-    <row r="199" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="8"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
     </row>
-    <row r="200" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="8"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
     </row>
-    <row r="201" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="8"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
     </row>
-    <row r="202" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
     </row>
-    <row r="203" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="8"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
     </row>
-    <row r="204" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="8"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
-      <c r="G204" s="10"/>
-    </row>
-    <row r="205" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="8"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="G205" s="10"/>
     </row>
-    <row r="206" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="G206" s="10"/>
     </row>
-    <row r="207" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="G207" s="10"/>
-      <c r="H207" s="10"/>
-    </row>
-    <row r="208" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="8"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
-      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
       <c r="H208" s="10"/>
-      <c r="I208" s="10"/>
-      <c r="J208" s="10"/>
-      <c r="K208" s="10"/>
-      <c r="L208" s="10"/>
-      <c r="M208" s="10"/>
-      <c r="N208" s="10"/>
-      <c r="O208" s="10"/>
-      <c r="P208" s="10"/>
-      <c r="Q208" s="10"/>
-      <c r="R208" s="10"/>
-      <c r="S208" s="10"/>
-      <c r="T208" s="10"/>
-      <c r="U208" s="10"/>
-      <c r="V208" s="10"/>
     </row>
     <row r="209" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="8"/>
@@ -2006,6 +2241,7 @@
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
       <c r="F211" s="10"/>
+      <c r="H211" s="10"/>
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
       <c r="K211" s="10"/>
@@ -2025,6 +2261,21 @@
       <c r="B212" s="8"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
+      <c r="F212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
+      <c r="K212" s="10"/>
+      <c r="L212" s="10"/>
+      <c r="M212" s="10"/>
+      <c r="N212" s="10"/>
+      <c r="O212" s="10"/>
+      <c r="P212" s="10"/>
+      <c r="Q212" s="10"/>
+      <c r="R212" s="10"/>
+      <c r="S212" s="10"/>
+      <c r="T212" s="10"/>
+      <c r="U212" s="10"/>
+      <c r="V212" s="10"/>
     </row>
     <row r="213" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
@@ -5341,7 +5592,11 @@
       <c r="D875" s="9"/>
       <c r="E875" s="9"/>
     </row>
-    <row r="876" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B876" s="8"/>
+      <c r="D876" s="9"/>
+      <c r="E876" s="9"/>
+    </row>
     <row r="877" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="878" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="879" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5468,6 +5723,7 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3179D0-8062-4663-A2E4-EE20D790C830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764890D-9A84-4465-8AD2-870106CD70F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -91,18 +91,6 @@
     <t xml:space="preserve">Nasir Elecrtion Advance </t>
   </si>
   <si>
-    <t>Debit to Empolyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bao Yasir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasir Ele </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid To Yasir Hisab Pending </t>
-  </si>
-  <si>
     <t xml:space="preserve">Paid to Nasir Ele Hissab Pending </t>
   </si>
   <si>
@@ -125,6 +113,48 @@
   </si>
   <si>
     <t xml:space="preserve">Bill Paid AA Baban C/O Yasir </t>
+  </si>
+  <si>
+    <t>Receivd Umar Farooq Parti Via Abu bakar Ac</t>
+  </si>
+  <si>
+    <t>Cash Paid For Thread Ploster via Abu Bakar Ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Recevid From Arshad Sahb Via Basit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Recevid From Arshad Sahb Via Basit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Fan Purchased Made By Arsahd Sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid To Yasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp. Made By Basit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recevid From Yasir Remaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance to Shahbaz Sweeper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Recevid From Arshad Sahb Via Waheed ali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol Yasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Itms C/O Yasir </t>
+  </si>
+  <si>
+    <t>Recevid From Nasir Elec.</t>
   </si>
 </sst>
 </file>
@@ -344,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,9 +449,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -645,16 +672,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V1003"/>
+  <dimension ref="B3:V1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1"/>
-    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
@@ -665,20 +692,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="2:11" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
@@ -760,9 +787,7 @@
         <f t="shared" ref="F9:F31" si="0">F8+D9-E9</f>
         <v>149700</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
@@ -795,12 +820,8 @@
         <f t="shared" si="0"/>
         <v>139710</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="27">
-        <v>20000</v>
-      </c>
+      <c r="I11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
@@ -817,12 +838,8 @@
         <f t="shared" si="0"/>
         <v>139410</v>
       </c>
-      <c r="I12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="27">
-        <v>50000</v>
-      </c>
+      <c r="I12" s="25"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
@@ -839,12 +856,8 @@
         <f t="shared" si="0"/>
         <v>131400</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="27">
-        <v>35000</v>
-      </c>
+      <c r="I13" s="25"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
@@ -882,11 +895,11 @@
       <c r="B16" s="15">
         <v>45864</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>26</v>
+      <c r="C16" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="26">
+      <c r="E16" s="20">
         <v>50000</v>
       </c>
       <c r="F16" s="18">
@@ -1059,7 +1072,7 @@
         <v>45865</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="24">
@@ -1075,7 +1088,7 @@
         <v>45865</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18">
@@ -1107,7 +1120,7 @@
         <v>45865</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18">
@@ -1123,7 +1136,7 @@
         <v>45865</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18">
@@ -1139,14 +1152,14 @@
         <v>45865</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18">
         <v>480</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" ref="F32:F40" si="1">F31+D32-E32</f>
+        <f t="shared" ref="F32:F69" si="1">F31+D32-E32</f>
         <v>13355</v>
       </c>
     </row>
@@ -1155,7 +1168,7 @@
         <v>45865</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18">
@@ -1171,7 +1184,7 @@
         <v>45865</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="18">
         <v>94500</v>
@@ -1187,7 +1200,7 @@
         <v>45865</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18">
@@ -1199,264 +1212,492 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="15">
+        <v>45866</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="18">
+        <v>300000</v>
+      </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18">
         <f t="shared" si="1"/>
-        <v>13275</v>
+        <v>313275</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="15">
+        <v>45866</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="18">
+        <v>32500</v>
+      </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18">
         <f t="shared" si="1"/>
-        <v>13275</v>
+        <v>345775</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="15">
+        <v>45866</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="18">
+        <v>300000</v>
+      </c>
       <c r="F38" s="18">
         <f t="shared" si="1"/>
-        <v>13275</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="15">
+        <v>45866</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="E39" s="18">
+        <v>32500</v>
+      </c>
       <c r="F39" s="18">
         <f t="shared" si="1"/>
         <v>13275</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="15">
+        <v>45867</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="18">
+        <v>14750</v>
+      </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="23">
+      <c r="F40" s="18">
+        <f t="shared" si="1"/>
+        <v>28025</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="15">
+        <v>45867</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18">
+        <v>14750</v>
+      </c>
+      <c r="F41" s="18">
         <f t="shared" si="1"/>
         <v>13275</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
     <row r="42" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="B42" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="18">
+        <v>55000</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18">
+        <f t="shared" si="1"/>
+        <v>68275</v>
+      </c>
     </row>
     <row r="43" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18">
+        <v>37730</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="1"/>
+        <v>30545</v>
+      </c>
     </row>
     <row r="44" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="18">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18">
+        <f t="shared" si="1"/>
+        <v>33245</v>
+      </c>
     </row>
     <row r="45" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="B45" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="18">
+        <f t="shared" si="1"/>
+        <v>32245</v>
+      </c>
     </row>
     <row r="46" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="B46" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18">
+        <v>100</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" si="1"/>
+        <v>32145</v>
+      </c>
     </row>
     <row r="47" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="B47" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18">
+        <v>100</v>
+      </c>
+      <c r="F47" s="18">
+        <f t="shared" si="1"/>
+        <v>32045</v>
+      </c>
     </row>
     <row r="48" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="B48" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18">
+        <v>150</v>
+      </c>
+      <c r="F48" s="18">
+        <f t="shared" si="1"/>
+        <v>31895</v>
+      </c>
     </row>
     <row r="49" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="B49" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18">
+        <v>380</v>
+      </c>
+      <c r="F49" s="18">
+        <f t="shared" si="1"/>
+        <v>31515</v>
+      </c>
     </row>
     <row r="50" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="B50" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18">
+        <v>1200</v>
+      </c>
+      <c r="F50" s="18">
+        <f t="shared" si="1"/>
+        <v>30315</v>
+      </c>
     </row>
     <row r="51" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="B51" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F51" s="18">
+        <f t="shared" si="1"/>
+        <v>29315</v>
+      </c>
     </row>
     <row r="52" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="B52" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18">
+        <f t="shared" si="1"/>
+        <v>30315</v>
+      </c>
     </row>
     <row r="53" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="B53" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="18">
+        <v>20000</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18">
+        <f t="shared" si="1"/>
+        <v>50315</v>
+      </c>
     </row>
     <row r="54" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="B54" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="18">
+        <f t="shared" si="1"/>
+        <v>49215</v>
+      </c>
     </row>
     <row r="55" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="B55" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18">
+        <v>100</v>
+      </c>
+      <c r="F55" s="18">
+        <f t="shared" si="1"/>
+        <v>49115</v>
+      </c>
     </row>
     <row r="56" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="B56" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18">
+        <v>100</v>
+      </c>
+      <c r="F56" s="18">
+        <f t="shared" si="1"/>
+        <v>49015</v>
+      </c>
     </row>
     <row r="57" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="B57" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18">
+        <v>300</v>
+      </c>
+      <c r="F57" s="18">
+        <f t="shared" si="1"/>
+        <v>48715</v>
+      </c>
     </row>
     <row r="58" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="B58" s="15">
+        <v>45868</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18">
+        <v>29300</v>
+      </c>
+      <c r="F58" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="59" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="60" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="61" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="62" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="63" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="64" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="65" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="66" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="67" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="68" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="69" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18">
+        <f t="shared" si="1"/>
+        <v>19415</v>
+      </c>
     </row>
     <row r="70" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="23">
+        <f>F69</f>
+        <v>19415</v>
+      </c>
     </row>
     <row r="71" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
@@ -1613,6 +1854,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -1640,231 +1882,290 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="7"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
     </row>
     <row r="99" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
     <row r="104" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="8"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="8"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="8"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="8"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="8"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="8"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="8"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="8"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="8"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="8"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-    </row>
-    <row r="114" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="8"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-    </row>
-    <row r="115" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="8"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-    </row>
-    <row r="116" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="8"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-    </row>
-    <row r="117" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="8"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-    </row>
-    <row r="118" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="8"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="8"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-    </row>
-    <row r="120" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="8"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-    </row>
-    <row r="121" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="8"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-    </row>
-    <row r="122" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="8"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="123" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="8"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-    </row>
-    <row r="124" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="8"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-    </row>
-    <row r="125" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="8"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-    </row>
-    <row r="126" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="8"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-    </row>
-    <row r="127" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="8"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-    </row>
-    <row r="128" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="8"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-    </row>
-    <row r="129" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="8"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-    </row>
-    <row r="130" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="8"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-    </row>
-    <row r="131" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="8"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-    </row>
-    <row r="132" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="8"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-    </row>
-    <row r="133" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="8"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-    </row>
-    <row r="134" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="3"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
     </row>
-    <row r="135" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
     </row>
-    <row r="136" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
     </row>
-    <row r="137" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
     </row>
-    <row r="138" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
     </row>
-    <row r="139" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
     </row>
-    <row r="140" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
     </row>
-    <row r="141" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
     </row>
-    <row r="142" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
     </row>
-    <row r="144" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -2109,390 +2410,390 @@
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
     </row>
-    <row r="193" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="8"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
     </row>
-    <row r="194" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="8"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
     </row>
-    <row r="195" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="8"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
     </row>
-    <row r="196" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="8"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
     </row>
-    <row r="197" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="8"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
     </row>
-    <row r="198" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="8"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
     </row>
-    <row r="199" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="8"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
     </row>
-    <row r="200" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="8"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
     </row>
-    <row r="201" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="8"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
     </row>
-    <row r="202" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
     </row>
-    <row r="203" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="8"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
     </row>
-    <row r="204" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="8"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
     </row>
-    <row r="205" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="8"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
-      <c r="G205" s="10"/>
-    </row>
-    <row r="206" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
-      <c r="G206" s="10"/>
-    </row>
-    <row r="207" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
-      <c r="G207" s="10"/>
-    </row>
-    <row r="208" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="8"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="10"/>
-    </row>
-    <row r="209" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="8"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
-      <c r="F209" s="10"/>
-      <c r="H209" s="10"/>
-      <c r="I209" s="10"/>
-      <c r="J209" s="10"/>
-      <c r="K209" s="10"/>
-      <c r="L209" s="10"/>
-      <c r="M209" s="10"/>
-      <c r="N209" s="10"/>
-      <c r="O209" s="10"/>
-      <c r="P209" s="10"/>
-      <c r="Q209" s="10"/>
-      <c r="R209" s="10"/>
-      <c r="S209" s="10"/>
-      <c r="T209" s="10"/>
-      <c r="U209" s="10"/>
-      <c r="V209" s="10"/>
-    </row>
-    <row r="210" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="8"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
-      <c r="F210" s="10"/>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-      <c r="K210" s="10"/>
-      <c r="L210" s="10"/>
-      <c r="M210" s="10"/>
-      <c r="N210" s="10"/>
-      <c r="O210" s="10"/>
-      <c r="P210" s="10"/>
-      <c r="Q210" s="10"/>
-      <c r="R210" s="10"/>
-      <c r="S210" s="10"/>
-      <c r="T210" s="10"/>
-      <c r="U210" s="10"/>
-      <c r="V210" s="10"/>
-    </row>
-    <row r="211" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="8"/>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
-      <c r="F211" s="10"/>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-      <c r="K211" s="10"/>
-      <c r="L211" s="10"/>
-      <c r="M211" s="10"/>
-      <c r="N211" s="10"/>
-      <c r="O211" s="10"/>
-      <c r="P211" s="10"/>
-      <c r="Q211" s="10"/>
-      <c r="R211" s="10"/>
-      <c r="S211" s="10"/>
-      <c r="T211" s="10"/>
-      <c r="U211" s="10"/>
-      <c r="V211" s="10"/>
-    </row>
-    <row r="212" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="8"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
-      <c r="F212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
-      <c r="K212" s="10"/>
-      <c r="L212" s="10"/>
-      <c r="M212" s="10"/>
-      <c r="N212" s="10"/>
-      <c r="O212" s="10"/>
-      <c r="P212" s="10"/>
-      <c r="Q212" s="10"/>
-      <c r="R212" s="10"/>
-      <c r="S212" s="10"/>
-      <c r="T212" s="10"/>
-      <c r="U212" s="10"/>
-      <c r="V212" s="10"/>
-    </row>
-    <row r="213" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
     </row>
-    <row r="214" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="8"/>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="8"/>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
     </row>
-    <row r="216" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="8"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
     </row>
-    <row r="217" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="8"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="8"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="8"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
     </row>
-    <row r="220" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="8"/>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
     </row>
-    <row r="221" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="8"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
     </row>
-    <row r="222" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="8"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
     </row>
-    <row r="223" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="8"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
     </row>
-    <row r="224" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="8"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
     </row>
-    <row r="225" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="8"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
     </row>
-    <row r="226" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="8"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
     </row>
-    <row r="227" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="8"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
     </row>
-    <row r="228" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="8"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
     </row>
-    <row r="229" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="8"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
     </row>
-    <row r="230" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="8"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
     </row>
-    <row r="231" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="8"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
     </row>
-    <row r="232" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="8"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
     </row>
-    <row r="233" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="8"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
     </row>
-    <row r="234" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="8"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
     </row>
-    <row r="235" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="8"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
-    </row>
-    <row r="236" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G235" s="10"/>
+    </row>
+    <row r="236" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="8"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
-    </row>
-    <row r="237" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G236" s="10"/>
+    </row>
+    <row r="237" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="8"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
-    </row>
-    <row r="238" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G237" s="10"/>
+    </row>
+    <row r="238" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="8"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
-    </row>
-    <row r="239" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G238" s="10"/>
+      <c r="H238" s="10"/>
+    </row>
+    <row r="239" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="8"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
-    </row>
-    <row r="240" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F239" s="10"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="10"/>
+      <c r="K239" s="10"/>
+      <c r="L239" s="10"/>
+      <c r="M239" s="10"/>
+      <c r="N239" s="10"/>
+      <c r="O239" s="10"/>
+      <c r="P239" s="10"/>
+      <c r="Q239" s="10"/>
+      <c r="R239" s="10"/>
+      <c r="S239" s="10"/>
+      <c r="T239" s="10"/>
+      <c r="U239" s="10"/>
+      <c r="V239" s="10"/>
+    </row>
+    <row r="240" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="8"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
-    </row>
-    <row r="241" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F240" s="10"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
+      <c r="L240" s="10"/>
+      <c r="M240" s="10"/>
+      <c r="N240" s="10"/>
+      <c r="O240" s="10"/>
+      <c r="P240" s="10"/>
+      <c r="Q240" s="10"/>
+      <c r="R240" s="10"/>
+      <c r="S240" s="10"/>
+      <c r="T240" s="10"/>
+      <c r="U240" s="10"/>
+      <c r="V240" s="10"/>
+    </row>
+    <row r="241" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="8"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
-    </row>
-    <row r="242" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="10"/>
+      <c r="M241" s="10"/>
+      <c r="N241" s="10"/>
+      <c r="O241" s="10"/>
+      <c r="P241" s="10"/>
+      <c r="Q241" s="10"/>
+      <c r="R241" s="10"/>
+      <c r="S241" s="10"/>
+      <c r="T241" s="10"/>
+      <c r="U241" s="10"/>
+      <c r="V241" s="10"/>
+    </row>
+    <row r="242" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="8"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
-    </row>
-    <row r="243" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F242" s="10"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="10"/>
+      <c r="K242" s="10"/>
+      <c r="L242" s="10"/>
+      <c r="M242" s="10"/>
+      <c r="N242" s="10"/>
+      <c r="O242" s="10"/>
+      <c r="P242" s="10"/>
+      <c r="Q242" s="10"/>
+      <c r="R242" s="10"/>
+      <c r="S242" s="10"/>
+      <c r="T242" s="10"/>
+      <c r="U242" s="10"/>
+      <c r="V242" s="10"/>
+    </row>
+    <row r="243" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="8"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
     </row>
-    <row r="244" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="8"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
     </row>
-    <row r="245" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="8"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
     </row>
-    <row r="246" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="8"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
     </row>
-    <row r="247" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="8"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
     </row>
-    <row r="248" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="8"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
     </row>
-    <row r="249" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="8"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
     </row>
-    <row r="250" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="8"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
     </row>
-    <row r="251" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="8"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
     </row>
-    <row r="252" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="8"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
     </row>
-    <row r="253" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="8"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
     </row>
-    <row r="254" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="8"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
     </row>
-    <row r="255" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="8"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
     </row>
-    <row r="256" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="8"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -5597,42 +5898,162 @@
       <c r="D876" s="9"/>
       <c r="E876" s="9"/>
     </row>
-    <row r="877" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B877" s="8"/>
+      <c r="D877" s="9"/>
+      <c r="E877" s="9"/>
+    </row>
+    <row r="878" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B878" s="8"/>
+      <c r="D878" s="9"/>
+      <c r="E878" s="9"/>
+    </row>
+    <row r="879" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B879" s="8"/>
+      <c r="D879" s="9"/>
+      <c r="E879" s="9"/>
+    </row>
+    <row r="880" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B880" s="8"/>
+      <c r="D880" s="9"/>
+      <c r="E880" s="9"/>
+    </row>
+    <row r="881" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B881" s="8"/>
+      <c r="D881" s="9"/>
+      <c r="E881" s="9"/>
+    </row>
+    <row r="882" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B882" s="8"/>
+      <c r="D882" s="9"/>
+      <c r="E882" s="9"/>
+    </row>
+    <row r="883" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B883" s="8"/>
+      <c r="D883" s="9"/>
+      <c r="E883" s="9"/>
+    </row>
+    <row r="884" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B884" s="8"/>
+      <c r="D884" s="9"/>
+      <c r="E884" s="9"/>
+    </row>
+    <row r="885" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B885" s="8"/>
+      <c r="D885" s="9"/>
+      <c r="E885" s="9"/>
+    </row>
+    <row r="886" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B886" s="8"/>
+      <c r="D886" s="9"/>
+      <c r="E886" s="9"/>
+    </row>
+    <row r="887" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="8"/>
+      <c r="D887" s="9"/>
+      <c r="E887" s="9"/>
+    </row>
+    <row r="888" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B888" s="8"/>
+      <c r="D888" s="9"/>
+      <c r="E888" s="9"/>
+    </row>
+    <row r="889" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B889" s="8"/>
+      <c r="D889" s="9"/>
+      <c r="E889" s="9"/>
+    </row>
+    <row r="890" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B890" s="8"/>
+      <c r="D890" s="9"/>
+      <c r="E890" s="9"/>
+    </row>
+    <row r="891" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B891" s="8"/>
+      <c r="D891" s="9"/>
+      <c r="E891" s="9"/>
+    </row>
+    <row r="892" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B892" s="8"/>
+      <c r="D892" s="9"/>
+      <c r="E892" s="9"/>
+    </row>
+    <row r="893" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B893" s="8"/>
+      <c r="D893" s="9"/>
+      <c r="E893" s="9"/>
+    </row>
+    <row r="894" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B894" s="8"/>
+      <c r="D894" s="9"/>
+      <c r="E894" s="9"/>
+    </row>
+    <row r="895" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B895" s="8"/>
+      <c r="D895" s="9"/>
+      <c r="E895" s="9"/>
+    </row>
+    <row r="896" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B896" s="8"/>
+      <c r="D896" s="9"/>
+      <c r="E896" s="9"/>
+    </row>
+    <row r="897" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B897" s="8"/>
+      <c r="D897" s="9"/>
+      <c r="E897" s="9"/>
+    </row>
+    <row r="898" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B898" s="8"/>
+      <c r="D898" s="9"/>
+      <c r="E898" s="9"/>
+    </row>
+    <row r="899" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B899" s="8"/>
+      <c r="D899" s="9"/>
+      <c r="E899" s="9"/>
+    </row>
+    <row r="900" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B900" s="8"/>
+      <c r="D900" s="9"/>
+      <c r="E900" s="9"/>
+    </row>
+    <row r="901" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B901" s="8"/>
+      <c r="D901" s="9"/>
+      <c r="E901" s="9"/>
+    </row>
+    <row r="902" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B902" s="8"/>
+      <c r="D902" s="9"/>
+      <c r="E902" s="9"/>
+    </row>
+    <row r="903" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B903" s="8"/>
+      <c r="D903" s="9"/>
+      <c r="E903" s="9"/>
+    </row>
+    <row r="904" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B904" s="8"/>
+      <c r="D904" s="9"/>
+      <c r="E904" s="9"/>
+    </row>
+    <row r="905" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B905" s="8"/>
+      <c r="D905" s="9"/>
+      <c r="E905" s="9"/>
+    </row>
+    <row r="906" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B906" s="8"/>
+      <c r="D906" s="9"/>
+      <c r="E906" s="9"/>
+    </row>
+    <row r="907" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5724,6 +6145,36 @@
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764890D-9A84-4465-8AD2-870106CD70F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DAB8E5-5B5E-4241-B659-E1E91BA802B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -155,6 +155,39 @@
   </si>
   <si>
     <t>Recevid From Nasir Elec.</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basit Petrol + Moboil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir Workshop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Bottel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weliding </t>
+  </si>
+  <si>
+    <t>Guset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottel Packet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Recevod Via Basit Arshad Sahb </t>
+  </si>
+  <si>
+    <t>Petrol Elect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Recevod Via Arshad Sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisab Clear From Basit </t>
   </si>
 </sst>
 </file>
@@ -672,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V1033"/>
+  <dimension ref="B3:V1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1192,7 @@
         <v>480</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" ref="F32:F69" si="1">F31+D32-E32</f>
+        <f t="shared" ref="F32:F74" si="1">F31+D32-E32</f>
         <v>13355</v>
       </c>
     </row>
@@ -1580,159 +1613,247 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="22"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="15">
+        <v>45869</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
+      <c r="E59" s="18">
+        <v>100</v>
+      </c>
       <c r="F59" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>19315</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="22"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="15">
+        <v>45869</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
+      <c r="E60" s="18">
+        <v>1000</v>
+      </c>
       <c r="F60" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>18315</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="22"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="15">
+        <v>45869</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
+      <c r="E61" s="18">
+        <v>3700</v>
+      </c>
       <c r="F61" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>14615</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="22"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="15">
+        <v>45869</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
+      <c r="E62" s="18">
+        <v>110</v>
+      </c>
       <c r="F62" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>14505</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="22"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="15">
+        <v>45869</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
+      <c r="E63" s="18">
+        <v>6000</v>
+      </c>
       <c r="F63" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="22"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="15">
+        <v>45869</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
+      <c r="E64" s="18">
+        <v>800</v>
+      </c>
       <c r="F64" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>7705</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="22"/>
-      <c r="C65" s="18"/>
+      <c r="B65" s="15">
+        <v>45869</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
+      <c r="E65" s="18">
+        <v>170</v>
+      </c>
       <c r="F65" s="18">
-        <f t="shared" si="1"/>
-        <v>19415</v>
+        <f>F64+D65-E65</f>
+        <v>7535</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="22"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="15">
+        <v>45869</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
+      <c r="E66" s="18">
+        <v>210</v>
+      </c>
       <c r="F66" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>7325</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="22"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+      <c r="B67" s="15">
+        <v>45840</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="18">
+        <v>50000</v>
+      </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>57325</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
-      <c r="C68" s="18"/>
+      <c r="B68" s="15">
+        <v>45840</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
+      <c r="E68" s="18">
+        <v>300</v>
+      </c>
       <c r="F68" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>57025</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="22"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="B69" s="15">
+        <v>45840</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="18">
+        <v>250000</v>
+      </c>
       <c r="E69" s="18"/>
       <c r="F69" s="18">
         <f t="shared" si="1"/>
-        <v>19415</v>
+        <v>307025</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="22"/>
-      <c r="C70" s="18"/>
+      <c r="B70" s="15">
+        <v>45840</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="23">
-        <f>F69</f>
-        <v>19415</v>
+      <c r="E70" s="18">
+        <f>7230+95</f>
+        <v>7325</v>
+      </c>
+      <c r="F70" s="18">
+        <f t="shared" si="1"/>
+        <v>299700</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
     </row>
     <row r="72" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
     </row>
     <row r="73" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
     </row>
     <row r="74" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="23">
+        <f>F74</f>
+        <v>299700</v>
+      </c>
     </row>
     <row r="76" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
@@ -2064,6 +2185,7 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -2091,55 +2213,64 @@
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="7"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
     </row>
     <row r="129" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="7"/>
+    </row>
     <row r="134" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="8"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-    </row>
-    <row r="135" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="8"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-    </row>
-    <row r="136" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="8"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-    </row>
-    <row r="137" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="8"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-    </row>
-    <row r="138" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="8"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-    </row>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="7"/>
+    </row>
+    <row r="135" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="D139" s="9"/>
@@ -2570,188 +2701,188 @@
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
     </row>
-    <row r="225" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="8"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
     </row>
-    <row r="226" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="8"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
     </row>
-    <row r="227" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="8"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
     </row>
-    <row r="228" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="8"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
     </row>
-    <row r="229" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="8"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
     </row>
-    <row r="230" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="8"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
     </row>
-    <row r="231" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="8"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
     </row>
-    <row r="232" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="8"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
     </row>
-    <row r="233" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="8"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
     </row>
-    <row r="234" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="8"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
     </row>
-    <row r="235" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="8"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
-      <c r="G235" s="10"/>
-    </row>
-    <row r="236" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="8"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
-      <c r="G236" s="10"/>
-    </row>
-    <row r="237" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="8"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
-      <c r="G237" s="10"/>
-    </row>
-    <row r="238" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="8"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
-      <c r="G238" s="10"/>
-      <c r="H238" s="10"/>
-    </row>
-    <row r="239" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="8"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
-      <c r="F239" s="10"/>
-      <c r="H239" s="10"/>
-      <c r="I239" s="10"/>
-      <c r="J239" s="10"/>
-      <c r="K239" s="10"/>
-      <c r="L239" s="10"/>
-      <c r="M239" s="10"/>
-      <c r="N239" s="10"/>
-      <c r="O239" s="10"/>
-      <c r="P239" s="10"/>
-      <c r="Q239" s="10"/>
-      <c r="R239" s="10"/>
-      <c r="S239" s="10"/>
-      <c r="T239" s="10"/>
-      <c r="U239" s="10"/>
-      <c r="V239" s="10"/>
-    </row>
-    <row r="240" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="8"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
-      <c r="F240" s="10"/>
-      <c r="H240" s="10"/>
-      <c r="I240" s="10"/>
-      <c r="J240" s="10"/>
-      <c r="K240" s="10"/>
-      <c r="L240" s="10"/>
-      <c r="M240" s="10"/>
-      <c r="N240" s="10"/>
-      <c r="O240" s="10"/>
-      <c r="P240" s="10"/>
-      <c r="Q240" s="10"/>
-      <c r="R240" s="10"/>
-      <c r="S240" s="10"/>
-      <c r="T240" s="10"/>
-      <c r="U240" s="10"/>
-      <c r="V240" s="10"/>
+      <c r="G240" s="10"/>
     </row>
     <row r="241" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="8"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
-      <c r="F241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
-      <c r="L241" s="10"/>
-      <c r="M241" s="10"/>
-      <c r="N241" s="10"/>
-      <c r="O241" s="10"/>
-      <c r="P241" s="10"/>
-      <c r="Q241" s="10"/>
-      <c r="R241" s="10"/>
-      <c r="S241" s="10"/>
-      <c r="T241" s="10"/>
-      <c r="U241" s="10"/>
-      <c r="V241" s="10"/>
+      <c r="G241" s="10"/>
     </row>
     <row r="242" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="8"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
-      <c r="F242" s="10"/>
-      <c r="I242" s="10"/>
-      <c r="J242" s="10"/>
-      <c r="K242" s="10"/>
-      <c r="L242" s="10"/>
-      <c r="M242" s="10"/>
-      <c r="N242" s="10"/>
-      <c r="O242" s="10"/>
-      <c r="P242" s="10"/>
-      <c r="Q242" s="10"/>
-      <c r="R242" s="10"/>
-      <c r="S242" s="10"/>
-      <c r="T242" s="10"/>
-      <c r="U242" s="10"/>
-      <c r="V242" s="10"/>
+      <c r="G242" s="10"/>
     </row>
     <row r="243" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="8"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
     </row>
     <row r="244" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="8"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
+      <c r="F244" s="10"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+      <c r="K244" s="10"/>
+      <c r="L244" s="10"/>
+      <c r="M244" s="10"/>
+      <c r="N244" s="10"/>
+      <c r="O244" s="10"/>
+      <c r="P244" s="10"/>
+      <c r="Q244" s="10"/>
+      <c r="R244" s="10"/>
+      <c r="S244" s="10"/>
+      <c r="T244" s="10"/>
+      <c r="U244" s="10"/>
+      <c r="V244" s="10"/>
     </row>
     <row r="245" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="8"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
+      <c r="F245" s="10"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="10"/>
+      <c r="K245" s="10"/>
+      <c r="L245" s="10"/>
+      <c r="M245" s="10"/>
+      <c r="N245" s="10"/>
+      <c r="O245" s="10"/>
+      <c r="P245" s="10"/>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
+      <c r="S245" s="10"/>
+      <c r="T245" s="10"/>
+      <c r="U245" s="10"/>
+      <c r="V245" s="10"/>
     </row>
     <row r="246" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="8"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
+      <c r="F246" s="10"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="10"/>
+      <c r="K246" s="10"/>
+      <c r="L246" s="10"/>
+      <c r="M246" s="10"/>
+      <c r="N246" s="10"/>
+      <c r="O246" s="10"/>
+      <c r="P246" s="10"/>
+      <c r="Q246" s="10"/>
+      <c r="R246" s="10"/>
+      <c r="S246" s="10"/>
+      <c r="T246" s="10"/>
+      <c r="U246" s="10"/>
+      <c r="V246" s="10"/>
     </row>
     <row r="247" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="8"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
+      <c r="F247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="10"/>
+      <c r="K247" s="10"/>
+      <c r="L247" s="10"/>
+      <c r="M247" s="10"/>
+      <c r="N247" s="10"/>
+      <c r="O247" s="10"/>
+      <c r="P247" s="10"/>
+      <c r="Q247" s="10"/>
+      <c r="R247" s="10"/>
+      <c r="S247" s="10"/>
+      <c r="T247" s="10"/>
+      <c r="U247" s="10"/>
+      <c r="V247" s="10"/>
     </row>
     <row r="248" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="8"/>
@@ -6048,11 +6179,31 @@
       <c r="D906" s="9"/>
       <c r="E906" s="9"/>
     </row>
-    <row r="907" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B907" s="8"/>
+      <c r="D907" s="9"/>
+      <c r="E907" s="9"/>
+    </row>
+    <row r="908" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B908" s="8"/>
+      <c r="D908" s="9"/>
+      <c r="E908" s="9"/>
+    </row>
+    <row r="909" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B909" s="8"/>
+      <c r="D909" s="9"/>
+      <c r="E909" s="9"/>
+    </row>
+    <row r="910" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B910" s="8"/>
+      <c r="D910" s="9"/>
+      <c r="E910" s="9"/>
+    </row>
+    <row r="911" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B911" s="8"/>
+      <c r="D911" s="9"/>
+      <c r="E911" s="9"/>
+    </row>
     <row r="912" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6175,6 +6326,11 @@
     <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DAB8E5-5B5E-4241-B659-E1E91BA802B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63BB026-2134-4CD0-B97F-5017BBF6488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -188,6 +188,54 @@
   </si>
   <si>
     <t xml:space="preserve">Hisab Clear From Basit </t>
+  </si>
+  <si>
+    <t>Ghroi Freight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Recevid From Anjum Sahb C/O Yasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Paid To Yasir Sahb C/O Salry Labor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Recevid From Anjum Sahb C/O Ali Bhai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Paid For receving 25000 From Account </t>
+  </si>
+  <si>
+    <t>Entertainment For Guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fregiht </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Pcs Cone Chain Lock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chak Box For checker </t>
+  </si>
+  <si>
+    <t>Petrol For Ali Bike C/o Yasir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade Cutter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Paid To Yasir Bhai For Workshop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asif Dana Jucie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottel Water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chai Biscut For Tahir Sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Paid To Basit Workshop </t>
   </si>
 </sst>
 </file>
@@ -407,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,9 +524,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -705,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V1038"/>
+  <dimension ref="B3:V1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -725,20 +770,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:11" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
@@ -820,7 +865,7 @@
         <f t="shared" ref="F9:F31" si="0">F8+D9-E9</f>
         <v>149700</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
@@ -853,8 +898,8 @@
         <f t="shared" si="0"/>
         <v>139710</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="24"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
@@ -871,8 +916,8 @@
         <f t="shared" si="0"/>
         <v>139410</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="K12" s="26"/>
+      <c r="I12" s="24"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
@@ -889,8 +934,8 @@
         <f t="shared" si="0"/>
         <v>131400</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="K13" s="26"/>
+      <c r="I13" s="24"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
@@ -1104,11 +1149,11 @@
       <c r="B27" s="15">
         <v>45865</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" s="24">
+      <c r="E27" s="18">
         <v>35000</v>
       </c>
       <c r="F27" s="18">
@@ -1192,7 +1237,7 @@
         <v>480</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" ref="F32:F74" si="1">F31+D32-E32</f>
+        <f t="shared" ref="F32:F95" si="1">F31+D32-E32</f>
         <v>13355</v>
       </c>
     </row>
@@ -1742,7 +1787,7 @@
     </row>
     <row r="67" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="15">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>52</v>
@@ -1758,7 +1803,7 @@
     </row>
     <row r="68" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="15">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>53</v>
@@ -1774,7 +1819,7 @@
     </row>
     <row r="69" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="15">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>54</v>
@@ -1790,7 +1835,7 @@
     </row>
     <row r="70" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="15">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>55</v>
@@ -1806,194 +1851,380 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="15"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
+      <c r="E71" s="18">
+        <v>600</v>
+      </c>
       <c r="F71" s="18">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>299100</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="15"/>
-      <c r="C72" s="18"/>
+      <c r="B72" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="E72" s="18">
+        <v>299100</v>
+      </c>
       <c r="F72" s="18">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="15"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+      <c r="B73" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="18">
+        <v>21500</v>
+      </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="22"/>
-      <c r="C74" s="18"/>
+      <c r="B74" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
+      <c r="E74" s="18">
+        <v>21500</v>
+      </c>
       <c r="F74" s="18">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="22"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+      <c r="B75" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="18">
+        <v>25000</v>
+      </c>
       <c r="E75" s="18"/>
-      <c r="F75" s="23">
-        <f>F74</f>
-        <v>299700</v>
+      <c r="F75" s="18">
+        <f t="shared" si="1"/>
+        <v>25000</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="B76" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18">
+        <v>300</v>
+      </c>
+      <c r="F76" s="18">
+        <f t="shared" si="1"/>
+        <v>24700</v>
+      </c>
     </row>
     <row r="77" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="B77" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18">
+        <v>200</v>
+      </c>
+      <c r="F77" s="18">
+        <f t="shared" si="1"/>
+        <v>24500</v>
+      </c>
     </row>
     <row r="78" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="B78" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18">
+        <v>100</v>
+      </c>
+      <c r="F78" s="18">
+        <f t="shared" si="1"/>
+        <v>24400</v>
+      </c>
     </row>
     <row r="79" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="B79" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F79" s="18">
+        <f t="shared" si="1"/>
+        <v>23400</v>
+      </c>
     </row>
     <row r="80" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="B80" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18">
+        <v>3000</v>
+      </c>
+      <c r="F80" s="18">
+        <f t="shared" si="1"/>
+        <v>20400</v>
+      </c>
     </row>
     <row r="81" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="B81" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18">
+        <v>180</v>
+      </c>
+      <c r="F81" s="18">
+        <f t="shared" si="1"/>
+        <v>20220</v>
+      </c>
     </row>
     <row r="82" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="B82" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18">
+        <v>300</v>
+      </c>
+      <c r="F82" s="18">
+        <f t="shared" si="1"/>
+        <v>19920</v>
+      </c>
     </row>
     <row r="83" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="B83" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18">
+        <v>60</v>
+      </c>
+      <c r="F83" s="18">
+        <f t="shared" si="1"/>
+        <v>19860</v>
+      </c>
     </row>
     <row r="84" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="B84" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18">
+        <v>300</v>
+      </c>
+      <c r="F84" s="18">
+        <f t="shared" si="1"/>
+        <v>19560</v>
+      </c>
     </row>
     <row r="85" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="B85" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18">
+        <v>6200</v>
+      </c>
+      <c r="F85" s="18">
+        <f t="shared" si="1"/>
+        <v>13360</v>
+      </c>
     </row>
     <row r="86" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="B86" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18">
+        <v>120</v>
+      </c>
+      <c r="F86" s="18">
+        <f t="shared" si="1"/>
+        <v>13240</v>
+      </c>
     </row>
     <row r="87" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="B87" s="15">
+        <v>45872</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18">
+        <v>100</v>
+      </c>
+      <c r="F87" s="18">
+        <f t="shared" si="1"/>
+        <v>13140</v>
+      </c>
     </row>
     <row r="88" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="B88" s="15">
+        <v>45873</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18">
+        <v>100</v>
+      </c>
+      <c r="F88" s="18">
+        <f t="shared" si="1"/>
+        <v>13040</v>
+      </c>
     </row>
     <row r="89" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="B89" s="15">
+        <v>45873</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18">
+        <v>180</v>
+      </c>
+      <c r="F89" s="18">
+        <f t="shared" si="1"/>
+        <v>12860</v>
+      </c>
     </row>
     <row r="90" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="B90" s="15">
+        <v>45873</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18">
+        <v>100</v>
+      </c>
+      <c r="F90" s="18">
+        <f t="shared" si="1"/>
+        <v>12760</v>
+      </c>
     </row>
     <row r="91" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="B91" s="15">
+        <v>45873</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18">
+        <v>4000</v>
+      </c>
+      <c r="F91" s="18">
+        <f t="shared" si="1"/>
+        <v>8760</v>
+      </c>
     </row>
     <row r="92" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18">
+        <f t="shared" si="1"/>
+        <v>8760</v>
+      </c>
     </row>
     <row r="93" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18">
+        <f t="shared" si="1"/>
+        <v>8760</v>
+      </c>
     </row>
     <row r="94" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18">
+        <f t="shared" si="1"/>
+        <v>8760</v>
+      </c>
     </row>
     <row r="95" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="23">
+        <f t="shared" si="1"/>
+        <v>8760</v>
+      </c>
     </row>
     <row r="96" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
@@ -2220,6 +2451,7 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -2247,136 +2479,175 @@
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="4"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="7"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
     </row>
     <row r="134" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="3"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+    </row>
     <row r="139" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="8"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
     </row>
     <row r="140" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="8"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="8"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
     </row>
     <row r="142" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="8"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
     </row>
     <row r="143" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="8"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
     </row>
     <row r="144" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="8"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-    </row>
-    <row r="145" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="8"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-    </row>
-    <row r="146" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="8"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-    </row>
-    <row r="147" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="8"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-    </row>
-    <row r="148" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="8"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-    </row>
-    <row r="149" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="8"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-    </row>
-    <row r="150" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="8"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-    </row>
-    <row r="151" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="8"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-    </row>
-    <row r="152" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="8"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-    </row>
-    <row r="153" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="8"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-    </row>
-    <row r="154" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="8"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-    </row>
-    <row r="155" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="8"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-    </row>
-    <row r="156" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="8"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-    </row>
-    <row r="157" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="8"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-    </row>
-    <row r="158" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="8"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-    </row>
-    <row r="159" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="3"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="3"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="3"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="3"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="3"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="3"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="3"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="7"/>
+    </row>
+    <row r="155" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="8"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
     </row>
-    <row r="160" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="8"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -2701,310 +2972,310 @@
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
     </row>
-    <row r="225" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="8"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
     </row>
-    <row r="226" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="8"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
     </row>
-    <row r="227" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="8"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
     </row>
-    <row r="228" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="8"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
     </row>
-    <row r="229" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="8"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
     </row>
-    <row r="230" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="8"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
     </row>
-    <row r="231" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="8"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
     </row>
-    <row r="232" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="8"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
     </row>
-    <row r="233" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="8"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
     </row>
-    <row r="234" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="8"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
     </row>
-    <row r="235" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="8"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
     </row>
-    <row r="236" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="8"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
     </row>
-    <row r="237" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="8"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
     </row>
-    <row r="238" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="8"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
     </row>
-    <row r="239" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="8"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
     </row>
-    <row r="240" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="8"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
-      <c r="G240" s="10"/>
-    </row>
-    <row r="241" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="8"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
-      <c r="G241" s="10"/>
-    </row>
-    <row r="242" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="8"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
-      <c r="G242" s="10"/>
-    </row>
-    <row r="243" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="8"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="10"/>
-    </row>
-    <row r="244" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="8"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
-      <c r="F244" s="10"/>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
-      <c r="K244" s="10"/>
-      <c r="L244" s="10"/>
-      <c r="M244" s="10"/>
-      <c r="N244" s="10"/>
-      <c r="O244" s="10"/>
-      <c r="P244" s="10"/>
-      <c r="Q244" s="10"/>
-      <c r="R244" s="10"/>
-      <c r="S244" s="10"/>
-      <c r="T244" s="10"/>
-      <c r="U244" s="10"/>
-      <c r="V244" s="10"/>
-    </row>
-    <row r="245" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="8"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
-      <c r="F245" s="10"/>
-      <c r="H245" s="10"/>
-      <c r="I245" s="10"/>
-      <c r="J245" s="10"/>
-      <c r="K245" s="10"/>
-      <c r="L245" s="10"/>
-      <c r="M245" s="10"/>
-      <c r="N245" s="10"/>
-      <c r="O245" s="10"/>
-      <c r="P245" s="10"/>
-      <c r="Q245" s="10"/>
-      <c r="R245" s="10"/>
-      <c r="S245" s="10"/>
-      <c r="T245" s="10"/>
-      <c r="U245" s="10"/>
-      <c r="V245" s="10"/>
-    </row>
-    <row r="246" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="8"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
-      <c r="F246" s="10"/>
-      <c r="H246" s="10"/>
-      <c r="I246" s="10"/>
-      <c r="J246" s="10"/>
-      <c r="K246" s="10"/>
-      <c r="L246" s="10"/>
-      <c r="M246" s="10"/>
-      <c r="N246" s="10"/>
-      <c r="O246" s="10"/>
-      <c r="P246" s="10"/>
-      <c r="Q246" s="10"/>
-      <c r="R246" s="10"/>
-      <c r="S246" s="10"/>
-      <c r="T246" s="10"/>
-      <c r="U246" s="10"/>
-      <c r="V246" s="10"/>
-    </row>
-    <row r="247" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="8"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
-      <c r="F247" s="10"/>
-      <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
-      <c r="K247" s="10"/>
-      <c r="L247" s="10"/>
-      <c r="M247" s="10"/>
-      <c r="N247" s="10"/>
-      <c r="O247" s="10"/>
-      <c r="P247" s="10"/>
-      <c r="Q247" s="10"/>
-      <c r="R247" s="10"/>
-      <c r="S247" s="10"/>
-      <c r="T247" s="10"/>
-      <c r="U247" s="10"/>
-      <c r="V247" s="10"/>
-    </row>
-    <row r="248" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="8"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
     </row>
-    <row r="249" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="8"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
     </row>
-    <row r="250" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="8"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
     </row>
-    <row r="251" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="8"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
     </row>
-    <row r="252" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="8"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
     </row>
-    <row r="253" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="8"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
     </row>
-    <row r="254" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="8"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
     </row>
-    <row r="255" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="8"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
     </row>
-    <row r="256" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="8"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
     </row>
-    <row r="257" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="8"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
     </row>
-    <row r="258" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="8"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
     </row>
-    <row r="259" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="8"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
     </row>
-    <row r="260" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="8"/>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
-    </row>
-    <row r="261" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G260" s="10"/>
+    </row>
+    <row r="261" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="8"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
-    </row>
-    <row r="262" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G261" s="10"/>
+    </row>
+    <row r="262" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="8"/>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
-    </row>
-    <row r="263" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G262" s="10"/>
+    </row>
+    <row r="263" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="8"/>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
-    </row>
-    <row r="264" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G263" s="10"/>
+      <c r="H263" s="10"/>
+    </row>
+    <row r="264" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="8"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
-    </row>
-    <row r="265" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F264" s="10"/>
+      <c r="H264" s="10"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="10"/>
+      <c r="K264" s="10"/>
+      <c r="L264" s="10"/>
+      <c r="M264" s="10"/>
+      <c r="N264" s="10"/>
+      <c r="O264" s="10"/>
+      <c r="P264" s="10"/>
+      <c r="Q264" s="10"/>
+      <c r="R264" s="10"/>
+      <c r="S264" s="10"/>
+      <c r="T264" s="10"/>
+      <c r="U264" s="10"/>
+      <c r="V264" s="10"/>
+    </row>
+    <row r="265" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="8"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
-    </row>
-    <row r="266" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F265" s="10"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
+      <c r="L265" s="10"/>
+      <c r="M265" s="10"/>
+      <c r="N265" s="10"/>
+      <c r="O265" s="10"/>
+      <c r="P265" s="10"/>
+      <c r="Q265" s="10"/>
+      <c r="R265" s="10"/>
+      <c r="S265" s="10"/>
+      <c r="T265" s="10"/>
+      <c r="U265" s="10"/>
+      <c r="V265" s="10"/>
+    </row>
+    <row r="266" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="8"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
-    </row>
-    <row r="267" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F266" s="10"/>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="10"/>
+      <c r="K266" s="10"/>
+      <c r="L266" s="10"/>
+      <c r="M266" s="10"/>
+      <c r="N266" s="10"/>
+      <c r="O266" s="10"/>
+      <c r="P266" s="10"/>
+      <c r="Q266" s="10"/>
+      <c r="R266" s="10"/>
+      <c r="S266" s="10"/>
+      <c r="T266" s="10"/>
+      <c r="U266" s="10"/>
+      <c r="V266" s="10"/>
+    </row>
+    <row r="267" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="8"/>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
-    </row>
-    <row r="268" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="10"/>
+      <c r="N267" s="10"/>
+      <c r="O267" s="10"/>
+      <c r="P267" s="10"/>
+      <c r="Q267" s="10"/>
+      <c r="R267" s="10"/>
+      <c r="S267" s="10"/>
+      <c r="T267" s="10"/>
+      <c r="U267" s="10"/>
+      <c r="V267" s="10"/>
+    </row>
+    <row r="268" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="8"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
     </row>
-    <row r="269" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="8"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
     </row>
-    <row r="270" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="8"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
     </row>
-    <row r="271" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="8"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
     </row>
-    <row r="272" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="8"/>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -6204,39 +6475,119 @@
       <c r="D911" s="9"/>
       <c r="E911" s="9"/>
     </row>
-    <row r="912" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B912" s="8"/>
+      <c r="D912" s="9"/>
+      <c r="E912" s="9"/>
+    </row>
+    <row r="913" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B913" s="8"/>
+      <c r="D913" s="9"/>
+      <c r="E913" s="9"/>
+    </row>
+    <row r="914" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B914" s="8"/>
+      <c r="D914" s="9"/>
+      <c r="E914" s="9"/>
+    </row>
+    <row r="915" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B915" s="8"/>
+      <c r="D915" s="9"/>
+      <c r="E915" s="9"/>
+    </row>
+    <row r="916" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B916" s="8"/>
+      <c r="D916" s="9"/>
+      <c r="E916" s="9"/>
+    </row>
+    <row r="917" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B917" s="8"/>
+      <c r="D917" s="9"/>
+      <c r="E917" s="9"/>
+    </row>
+    <row r="918" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B918" s="8"/>
+      <c r="D918" s="9"/>
+      <c r="E918" s="9"/>
+    </row>
+    <row r="919" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B919" s="8"/>
+      <c r="D919" s="9"/>
+      <c r="E919" s="9"/>
+    </row>
+    <row r="920" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B920" s="8"/>
+      <c r="D920" s="9"/>
+      <c r="E920" s="9"/>
+    </row>
+    <row r="921" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B921" s="8"/>
+      <c r="D921" s="9"/>
+      <c r="E921" s="9"/>
+    </row>
+    <row r="922" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B922" s="8"/>
+      <c r="D922" s="9"/>
+      <c r="E922" s="9"/>
+    </row>
+    <row r="923" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B923" s="8"/>
+      <c r="D923" s="9"/>
+      <c r="E923" s="9"/>
+    </row>
+    <row r="924" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B924" s="8"/>
+      <c r="D924" s="9"/>
+      <c r="E924" s="9"/>
+    </row>
+    <row r="925" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B925" s="8"/>
+      <c r="D925" s="9"/>
+      <c r="E925" s="9"/>
+    </row>
+    <row r="926" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B926" s="8"/>
+      <c r="D926" s="9"/>
+      <c r="E926" s="9"/>
+    </row>
+    <row r="927" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B927" s="8"/>
+      <c r="D927" s="9"/>
+      <c r="E927" s="9"/>
+    </row>
+    <row r="928" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B928" s="8"/>
+      <c r="D928" s="9"/>
+      <c r="E928" s="9"/>
+    </row>
+    <row r="929" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B929" s="8"/>
+      <c r="D929" s="9"/>
+      <c r="E929" s="9"/>
+    </row>
+    <row r="930" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B930" s="8"/>
+      <c r="D930" s="9"/>
+      <c r="E930" s="9"/>
+    </row>
+    <row r="931" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B931" s="8"/>
+      <c r="D931" s="9"/>
+      <c r="E931" s="9"/>
+    </row>
+    <row r="932" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6331,6 +6682,26 @@
     <row r="1036" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1037" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1038" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1057" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1058" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63BB026-2134-4CD0-B97F-5017BBF6488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439986E-0155-4852-9D6E-FB46DDEEEEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -236,6 +236,69 @@
   </si>
   <si>
     <t xml:space="preserve">Cash Paid To Basit Workshop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Colling Reparing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice for Asif Shahid Mechinic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Bottel For Arshad Sahb Guest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Guard Salry Clear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Water Bottel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjum Sahb Payment C/O ali Butt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment clear For Shop Ali butt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Lock Desi </t>
+  </si>
+  <si>
+    <t>Chai Biscut For Staff</t>
+  </si>
+  <si>
+    <t>Cylinder 2 Kg Gas</t>
+  </si>
+  <si>
+    <t>Machines Kapry Takian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff Kahnna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burf For Fact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bao Usman Petrol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basit Bike Petrol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Packet surf Excel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Guard Salry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bike Petrol Yasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottel for Dana Asif </t>
+  </si>
+  <si>
+    <t>2 Pcs Balti 650 + Petrol 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad Security Guard Advance </t>
   </si>
 </sst>
 </file>
@@ -750,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V1058"/>
+  <dimension ref="B3:V1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1300,7 @@
         <v>480</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" ref="F32:F95" si="1">F31+D32-E32</f>
+        <f t="shared" ref="F32:F116" si="1">F31+D32-E32</f>
         <v>13355</v>
       </c>
     </row>
@@ -2187,191 +2250,380 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="15"/>
-      <c r="C92" s="18"/>
+      <c r="B92" s="15">
+        <v>45873</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
+      <c r="E92" s="18">
+        <v>1300</v>
+      </c>
       <c r="F92" s="18">
         <f t="shared" si="1"/>
-        <v>8760</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="15"/>
-      <c r="C93" s="18"/>
+      <c r="B93" s="15">
+        <v>45873</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
+      <c r="E93" s="18">
+        <v>250</v>
+      </c>
       <c r="F93" s="18">
         <f t="shared" si="1"/>
-        <v>8760</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="15"/>
-      <c r="C94" s="18"/>
+      <c r="B94" s="15">
+        <v>45873</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
+      <c r="E94" s="18">
+        <v>100</v>
+      </c>
       <c r="F94" s="18">
         <f t="shared" si="1"/>
-        <v>8760</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="22"/>
-      <c r="C95" s="18"/>
+      <c r="B95" s="15">
+        <v>45873</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="23">
-        <f t="shared" si="1"/>
-        <v>8760</v>
+      <c r="E95" s="18">
+        <v>7000</v>
+      </c>
+      <c r="F95" s="18">
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="B96" s="15">
+        <v>45873</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18">
+        <v>110</v>
+      </c>
+      <c r="F96" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="B97" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" s="18">
+        <v>20000</v>
+      </c>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
     </row>
     <row r="98" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="B98" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18">
+        <v>250</v>
+      </c>
+      <c r="F98" s="18">
+        <f t="shared" si="1"/>
+        <v>19750</v>
+      </c>
     </row>
     <row r="99" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="B99" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18">
+        <v>700</v>
+      </c>
+      <c r="F99" s="18">
+        <f t="shared" si="1"/>
+        <v>19050</v>
+      </c>
     </row>
     <row r="100" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="B100" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18">
+        <v>250</v>
+      </c>
+      <c r="F100" s="18">
+        <f t="shared" si="1"/>
+        <v>18800</v>
+      </c>
     </row>
     <row r="101" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="B101" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18">
+        <v>540</v>
+      </c>
+      <c r="F101" s="18">
+        <f t="shared" si="1"/>
+        <v>18260</v>
+      </c>
     </row>
     <row r="102" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="B102" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18">
+        <v>3000</v>
+      </c>
+      <c r="F102" s="18">
+        <f t="shared" si="1"/>
+        <v>15260</v>
+      </c>
     </row>
     <row r="103" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="B103" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18">
+        <v>500</v>
+      </c>
+      <c r="F103" s="18">
+        <f t="shared" si="1"/>
+        <v>14760</v>
+      </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+      <c r="B104" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18">
+        <v>150</v>
+      </c>
+      <c r="F104" s="18">
+        <f t="shared" si="1"/>
+        <v>14610</v>
+      </c>
     </row>
     <row r="105" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="B105" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18">
+        <v>200</v>
+      </c>
+      <c r="F105" s="18">
+        <f t="shared" si="1"/>
+        <v>14410</v>
+      </c>
     </row>
     <row r="106" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="B106" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18">
+        <v>200</v>
+      </c>
+      <c r="F106" s="18">
+        <f t="shared" si="1"/>
+        <v>14210</v>
+      </c>
     </row>
     <row r="107" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="3"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="B107" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18">
+        <v>300</v>
+      </c>
+      <c r="F107" s="18">
+        <f t="shared" si="1"/>
+        <v>13910</v>
+      </c>
     </row>
     <row r="108" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+      <c r="B108" s="15">
+        <v>45874</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18">
+        <v>2000</v>
+      </c>
+      <c r="F108" s="18">
+        <f t="shared" si="1"/>
+        <v>11910</v>
+      </c>
     </row>
     <row r="109" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="B109" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18">
+        <v>300</v>
+      </c>
+      <c r="F109" s="18">
+        <f t="shared" si="1"/>
+        <v>11610</v>
+      </c>
     </row>
     <row r="110" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="B110" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18">
+        <v>200</v>
+      </c>
+      <c r="F110" s="18">
+        <f t="shared" si="1"/>
+        <v>11410</v>
+      </c>
     </row>
     <row r="111" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
+      <c r="B111" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18">
+        <v>850</v>
+      </c>
+      <c r="F111" s="18">
+        <f t="shared" si="1"/>
+        <v>10560</v>
+      </c>
     </row>
     <row r="112" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
+      <c r="B112" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18">
+        <v>2000</v>
+      </c>
+      <c r="F112" s="18">
+        <f t="shared" si="1"/>
+        <v>8560</v>
+      </c>
     </row>
     <row r="113" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="3"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18">
+        <f t="shared" si="1"/>
+        <v>8560</v>
+      </c>
     </row>
     <row r="114" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18">
+        <f t="shared" si="1"/>
+        <v>8560</v>
+      </c>
     </row>
     <row r="115" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="3"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18">
+        <f t="shared" si="1"/>
+        <v>8560</v>
+      </c>
     </row>
     <row r="116" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="3"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="23">
+        <f t="shared" si="1"/>
+        <v>8560</v>
+      </c>
     </row>
     <row r="117" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
@@ -2591,6 +2843,7 @@
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="3"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -2618,135 +2871,176 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="4"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="7"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
     </row>
     <row r="154" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="7"/>
-    </row>
-    <row r="155" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="3"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="3"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="3"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="3"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+    </row>
     <row r="159" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="8"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="8"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-    </row>
-    <row r="161" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="8"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-    </row>
-    <row r="162" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="8"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-    </row>
-    <row r="163" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="8"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-    </row>
-    <row r="164" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="8"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-    </row>
-    <row r="165" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="8"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-    </row>
-    <row r="166" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="8"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-    </row>
-    <row r="167" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="8"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-    </row>
-    <row r="168" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="8"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-    </row>
-    <row r="169" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="8"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="8"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-    </row>
-    <row r="171" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="8"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-    </row>
-    <row r="172" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="8"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-    </row>
-    <row r="173" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="8"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-    </row>
-    <row r="174" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="8"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-    </row>
-    <row r="175" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="8"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-    </row>
-    <row r="176" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="8"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-    </row>
-    <row r="177" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="8"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
-    </row>
-    <row r="178" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="8"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-    </row>
-    <row r="179" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="8"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-    </row>
+      <c r="B160" s="3"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="3"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="3"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="3"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="3"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="3"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="3"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="3"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="3"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="3"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="3"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="3"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="7"/>
+    </row>
+    <row r="175" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="7"/>
+    </row>
+    <row r="176" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="8"/>
       <c r="D180" s="9"/>
@@ -3132,233 +3426,233 @@
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
     </row>
-    <row r="257" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="8"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
     </row>
-    <row r="258" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="8"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
     </row>
-    <row r="259" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="8"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
     </row>
-    <row r="260" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="8"/>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
-      <c r="G260" s="10"/>
-    </row>
-    <row r="261" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="8"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
-      <c r="G261" s="10"/>
-    </row>
-    <row r="262" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="8"/>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
-      <c r="G262" s="10"/>
-    </row>
-    <row r="263" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="8"/>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
-      <c r="G263" s="10"/>
-      <c r="H263" s="10"/>
-    </row>
-    <row r="264" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="8"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
-      <c r="F264" s="10"/>
-      <c r="H264" s="10"/>
-      <c r="I264" s="10"/>
-      <c r="J264" s="10"/>
-      <c r="K264" s="10"/>
-      <c r="L264" s="10"/>
-      <c r="M264" s="10"/>
-      <c r="N264" s="10"/>
-      <c r="O264" s="10"/>
-      <c r="P264" s="10"/>
-      <c r="Q264" s="10"/>
-      <c r="R264" s="10"/>
-      <c r="S264" s="10"/>
-      <c r="T264" s="10"/>
-      <c r="U264" s="10"/>
-      <c r="V264" s="10"/>
-    </row>
-    <row r="265" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="8"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
-      <c r="F265" s="10"/>
-      <c r="H265" s="10"/>
-      <c r="I265" s="10"/>
-      <c r="J265" s="10"/>
-      <c r="K265" s="10"/>
-      <c r="L265" s="10"/>
-      <c r="M265" s="10"/>
-      <c r="N265" s="10"/>
-      <c r="O265" s="10"/>
-      <c r="P265" s="10"/>
-      <c r="Q265" s="10"/>
-      <c r="R265" s="10"/>
-      <c r="S265" s="10"/>
-      <c r="T265" s="10"/>
-      <c r="U265" s="10"/>
-      <c r="V265" s="10"/>
-    </row>
-    <row r="266" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="8"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
-      <c r="F266" s="10"/>
-      <c r="H266" s="10"/>
-      <c r="I266" s="10"/>
-      <c r="J266" s="10"/>
-      <c r="K266" s="10"/>
-      <c r="L266" s="10"/>
-      <c r="M266" s="10"/>
-      <c r="N266" s="10"/>
-      <c r="O266" s="10"/>
-      <c r="P266" s="10"/>
-      <c r="Q266" s="10"/>
-      <c r="R266" s="10"/>
-      <c r="S266" s="10"/>
-      <c r="T266" s="10"/>
-      <c r="U266" s="10"/>
-      <c r="V266" s="10"/>
-    </row>
-    <row r="267" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="8"/>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
-      <c r="F267" s="10"/>
-      <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
-      <c r="K267" s="10"/>
-      <c r="L267" s="10"/>
-      <c r="M267" s="10"/>
-      <c r="N267" s="10"/>
-      <c r="O267" s="10"/>
-      <c r="P267" s="10"/>
-      <c r="Q267" s="10"/>
-      <c r="R267" s="10"/>
-      <c r="S267" s="10"/>
-      <c r="T267" s="10"/>
-      <c r="U267" s="10"/>
-      <c r="V267" s="10"/>
-    </row>
-    <row r="268" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="8"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
     </row>
-    <row r="269" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="8"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
     </row>
-    <row r="270" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="8"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
     </row>
-    <row r="271" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="8"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
     </row>
-    <row r="272" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="8"/>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
     </row>
-    <row r="273" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="8"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
     </row>
-    <row r="274" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="8"/>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
     </row>
-    <row r="275" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="8"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
     </row>
-    <row r="276" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="8"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="8"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
     </row>
-    <row r="278" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="8"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
     </row>
-    <row r="279" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="8"/>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
     </row>
-    <row r="280" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="8"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
     </row>
-    <row r="281" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="8"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
-    </row>
-    <row r="282" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G281" s="10"/>
+    </row>
+    <row r="282" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="8"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
-    </row>
-    <row r="283" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G282" s="10"/>
+    </row>
+    <row r="283" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="8"/>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
-    </row>
-    <row r="284" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G283" s="10"/>
+    </row>
+    <row r="284" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="8"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
-    </row>
-    <row r="285" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G284" s="10"/>
+      <c r="H284" s="10"/>
+    </row>
+    <row r="285" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="8"/>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
-    </row>
-    <row r="286" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F285" s="10"/>
+      <c r="H285" s="10"/>
+      <c r="I285" s="10"/>
+      <c r="J285" s="10"/>
+      <c r="K285" s="10"/>
+      <c r="L285" s="10"/>
+      <c r="M285" s="10"/>
+      <c r="N285" s="10"/>
+      <c r="O285" s="10"/>
+      <c r="P285" s="10"/>
+      <c r="Q285" s="10"/>
+      <c r="R285" s="10"/>
+      <c r="S285" s="10"/>
+      <c r="T285" s="10"/>
+      <c r="U285" s="10"/>
+      <c r="V285" s="10"/>
+    </row>
+    <row r="286" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="8"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
-    </row>
-    <row r="287" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F286" s="10"/>
+      <c r="H286" s="10"/>
+      <c r="I286" s="10"/>
+      <c r="J286" s="10"/>
+      <c r="K286" s="10"/>
+      <c r="L286" s="10"/>
+      <c r="M286" s="10"/>
+      <c r="N286" s="10"/>
+      <c r="O286" s="10"/>
+      <c r="P286" s="10"/>
+      <c r="Q286" s="10"/>
+      <c r="R286" s="10"/>
+      <c r="S286" s="10"/>
+      <c r="T286" s="10"/>
+      <c r="U286" s="10"/>
+      <c r="V286" s="10"/>
+    </row>
+    <row r="287" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="8"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
-    </row>
-    <row r="288" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F287" s="10"/>
+      <c r="H287" s="10"/>
+      <c r="I287" s="10"/>
+      <c r="J287" s="10"/>
+      <c r="K287" s="10"/>
+      <c r="L287" s="10"/>
+      <c r="M287" s="10"/>
+      <c r="N287" s="10"/>
+      <c r="O287" s="10"/>
+      <c r="P287" s="10"/>
+      <c r="Q287" s="10"/>
+      <c r="R287" s="10"/>
+      <c r="S287" s="10"/>
+      <c r="T287" s="10"/>
+      <c r="U287" s="10"/>
+      <c r="V287" s="10"/>
+    </row>
+    <row r="288" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="8"/>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
+      <c r="F288" s="10"/>
+      <c r="I288" s="10"/>
+      <c r="J288" s="10"/>
+      <c r="K288" s="10"/>
+      <c r="L288" s="10"/>
+      <c r="M288" s="10"/>
+      <c r="N288" s="10"/>
+      <c r="O288" s="10"/>
+      <c r="P288" s="10"/>
+      <c r="Q288" s="10"/>
+      <c r="R288" s="10"/>
+      <c r="S288" s="10"/>
+      <c r="T288" s="10"/>
+      <c r="U288" s="10"/>
+      <c r="V288" s="10"/>
     </row>
     <row r="289" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="8"/>
@@ -6575,35 +6869,119 @@
       <c r="D931" s="9"/>
       <c r="E931" s="9"/>
     </row>
-    <row r="932" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B932" s="8"/>
+      <c r="D932" s="9"/>
+      <c r="E932" s="9"/>
+    </row>
+    <row r="933" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B933" s="8"/>
+      <c r="D933" s="9"/>
+      <c r="E933" s="9"/>
+    </row>
+    <row r="934" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B934" s="8"/>
+      <c r="D934" s="9"/>
+      <c r="E934" s="9"/>
+    </row>
+    <row r="935" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B935" s="8"/>
+      <c r="D935" s="9"/>
+      <c r="E935" s="9"/>
+    </row>
+    <row r="936" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B936" s="8"/>
+      <c r="D936" s="9"/>
+      <c r="E936" s="9"/>
+    </row>
+    <row r="937" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B937" s="8"/>
+      <c r="D937" s="9"/>
+      <c r="E937" s="9"/>
+    </row>
+    <row r="938" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B938" s="8"/>
+      <c r="D938" s="9"/>
+      <c r="E938" s="9"/>
+    </row>
+    <row r="939" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B939" s="8"/>
+      <c r="D939" s="9"/>
+      <c r="E939" s="9"/>
+    </row>
+    <row r="940" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B940" s="8"/>
+      <c r="D940" s="9"/>
+      <c r="E940" s="9"/>
+    </row>
+    <row r="941" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B941" s="8"/>
+      <c r="D941" s="9"/>
+      <c r="E941" s="9"/>
+    </row>
+    <row r="942" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B942" s="8"/>
+      <c r="D942" s="9"/>
+      <c r="E942" s="9"/>
+    </row>
+    <row r="943" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B943" s="8"/>
+      <c r="D943" s="9"/>
+      <c r="E943" s="9"/>
+    </row>
+    <row r="944" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B944" s="8"/>
+      <c r="D944" s="9"/>
+      <c r="E944" s="9"/>
+    </row>
+    <row r="945" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B945" s="8"/>
+      <c r="D945" s="9"/>
+      <c r="E945" s="9"/>
+    </row>
+    <row r="946" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B946" s="8"/>
+      <c r="D946" s="9"/>
+      <c r="E946" s="9"/>
+    </row>
+    <row r="947" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B947" s="8"/>
+      <c r="D947" s="9"/>
+      <c r="E947" s="9"/>
+    </row>
+    <row r="948" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B948" s="8"/>
+      <c r="D948" s="9"/>
+      <c r="E948" s="9"/>
+    </row>
+    <row r="949" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B949" s="8"/>
+      <c r="D949" s="9"/>
+      <c r="E949" s="9"/>
+    </row>
+    <row r="950" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B950" s="8"/>
+      <c r="D950" s="9"/>
+      <c r="E950" s="9"/>
+    </row>
+    <row r="951" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B951" s="8"/>
+      <c r="D951" s="9"/>
+      <c r="E951" s="9"/>
+    </row>
+    <row r="952" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B952" s="8"/>
+      <c r="D952" s="9"/>
+      <c r="E952" s="9"/>
+    </row>
+    <row r="953" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6702,6 +7080,27 @@
     <row r="1056" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1057" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1058" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1059" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1060" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1061" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1062" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1063" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1064" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1065" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1066" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1067" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1068" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1069" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1070" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1071" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1072" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1073" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1074" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1075" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1076" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1077" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1078" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1079" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439986E-0155-4852-9D6E-FB46DDEEEEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E8DED-33D9-4121-BCA5-0F0E169CBA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -299,6 +299,39 @@
   </si>
   <si>
     <t xml:space="preserve">Ahmad Security Guard Advance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir Petrol For Malik Pur Emb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eentertaimnet for Ahmad Sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basit For Petrol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shower </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freight For Riksha 30 Than </t>
+  </si>
+  <si>
+    <t>Water Bottel Tahir Sahb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Bill </t>
+  </si>
+  <si>
+    <t>Bike Repairing For Fact.</t>
+  </si>
+  <si>
+    <t>Juice For Guest (Tahir And Hassnain)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Recevid From Anjum Sahb Via Basit </t>
+  </si>
+  <si>
+    <t>Purchased Weight Scsale</t>
   </si>
 </sst>
 </file>
@@ -308,11 +341,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,84 +558,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -813,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V1079"/>
+  <dimension ref="B3:V1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1346,7 @@
         <v>480</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" ref="F32:F116" si="1">F31+D32-E32</f>
+        <f t="shared" ref="F32:F132" si="1">F31+D32-E32</f>
         <v>13355</v>
       </c>
     </row>
@@ -2329,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="15">
         <v>45874</v>
       </c>
@@ -2345,7 +2391,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="15">
         <v>45874</v>
       </c>
@@ -2361,7 +2407,7 @@
         <v>19750</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="15">
         <v>45874</v>
       </c>
@@ -2377,7 +2423,7 @@
         <v>19050</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="15">
         <v>45874</v>
       </c>
@@ -2393,7 +2439,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="15">
         <v>45874</v>
       </c>
@@ -2409,7 +2455,7 @@
         <v>18260</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="15">
         <v>45874</v>
       </c>
@@ -2425,7 +2471,7 @@
         <v>15260</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="15">
         <v>45874</v>
       </c>
@@ -2441,7 +2487,7 @@
         <v>14760</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="15">
         <v>45874</v>
       </c>
@@ -2457,7 +2503,7 @@
         <v>14610</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="15">
         <v>45874</v>
       </c>
@@ -2473,7 +2519,7 @@
         <v>14410</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="15">
         <v>45874</v>
       </c>
@@ -2489,7 +2535,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="15">
         <v>45874</v>
       </c>
@@ -2505,7 +2551,7 @@
         <v>13910</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="15">
         <v>45874</v>
       </c>
@@ -2521,7 +2567,7 @@
         <v>11910</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="15">
         <v>45875</v>
       </c>
@@ -2537,7 +2583,7 @@
         <v>11610</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="15">
         <v>45875</v>
       </c>
@@ -2553,7 +2599,7 @@
         <v>11410</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="15">
         <v>45875</v>
       </c>
@@ -2569,7 +2615,7 @@
         <v>10560</v>
       </c>
     </row>
-    <row r="112" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="15">
         <v>45875</v>
       </c>
@@ -2580,162 +2626,325 @@
       <c r="E112" s="18">
         <v>2000</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="27">
         <f t="shared" si="1"/>
         <v>8560</v>
       </c>
+      <c r="I112" s="28"/>
     </row>
     <row r="113" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="15"/>
-      <c r="C113" s="18"/>
+      <c r="B113" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
+      <c r="E113" s="18">
+        <v>100</v>
+      </c>
       <c r="F113" s="18">
         <f t="shared" si="1"/>
-        <v>8560</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="15"/>
-      <c r="C114" s="18"/>
+      <c r="B114" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
+      <c r="E114" s="18">
+        <v>300</v>
+      </c>
       <c r="F114" s="18">
         <f t="shared" si="1"/>
-        <v>8560</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="115" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="15"/>
-      <c r="C115" s="18"/>
+      <c r="B115" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
+      <c r="E115" s="18">
+        <v>200</v>
+      </c>
       <c r="F115" s="18">
         <f t="shared" si="1"/>
-        <v>8560</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="22"/>
-      <c r="C116" s="18"/>
+      <c r="B116" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="23">
-        <f t="shared" si="1"/>
-        <v>8560</v>
+      <c r="E116" s="18">
+        <v>100</v>
+      </c>
+      <c r="F116" s="18">
+        <f t="shared" si="1"/>
+        <v>7860</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="B117" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18">
+        <v>150</v>
+      </c>
+      <c r="F117" s="18">
+        <f t="shared" si="1"/>
+        <v>7710</v>
+      </c>
     </row>
     <row r="118" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="3"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="B118" s="15">
+        <v>45875</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18">
+        <v>100</v>
+      </c>
+      <c r="F118" s="18">
+        <f t="shared" si="1"/>
+        <v>7610</v>
+      </c>
     </row>
     <row r="119" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="B119" s="15">
+        <v>45876</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18">
+        <v>250</v>
+      </c>
+      <c r="F119" s="18">
+        <f t="shared" si="1"/>
+        <v>7360</v>
+      </c>
     </row>
     <row r="120" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
+      <c r="B120" s="15">
+        <v>45876</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18">
+        <v>200</v>
+      </c>
+      <c r="F120" s="18">
+        <f t="shared" si="1"/>
+        <v>7160</v>
+      </c>
     </row>
     <row r="121" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
+      <c r="B121" s="15">
+        <v>45876</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F121" s="18">
+        <f t="shared" si="1"/>
+        <v>6160</v>
+      </c>
     </row>
     <row r="122" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="B122" s="15">
+        <v>45876</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18">
+        <v>100</v>
+      </c>
+      <c r="F122" s="18">
+        <f t="shared" si="1"/>
+        <v>6060</v>
+      </c>
     </row>
     <row r="123" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="B123" s="15">
+        <v>45876</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18">
+        <v>1500</v>
+      </c>
+      <c r="F123" s="18">
+        <f t="shared" si="1"/>
+        <v>4560</v>
+      </c>
     </row>
     <row r="124" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="B124" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18">
+        <v>100</v>
+      </c>
+      <c r="F124" s="18">
+        <f t="shared" si="1"/>
+        <v>4460</v>
+      </c>
     </row>
     <row r="125" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="3"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+      <c r="B125" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18">
+        <v>3300</v>
+      </c>
+      <c r="F125" s="18">
+        <f t="shared" si="1"/>
+        <v>1160</v>
+      </c>
     </row>
     <row r="126" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
+      <c r="B126" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18">
+        <v>100</v>
+      </c>
+      <c r="F126" s="18">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
     </row>
     <row r="127" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
+      <c r="B127" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18">
+        <v>300</v>
+      </c>
+      <c r="F127" s="18">
+        <f t="shared" si="1"/>
+        <v>760</v>
+      </c>
     </row>
     <row r="128" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="3"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
+      <c r="B128" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18">
+        <v>100</v>
+      </c>
+      <c r="F128" s="18">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
     </row>
     <row r="129" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="B129" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18">
+        <v>110</v>
+      </c>
+      <c r="F129" s="18">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
     </row>
     <row r="130" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="B130" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D130" s="18">
+        <v>7000</v>
+      </c>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18">
+        <f t="shared" si="1"/>
+        <v>7550</v>
+      </c>
     </row>
     <row r="131" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="3"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="B131" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18">
+        <v>7000</v>
+      </c>
+      <c r="F131" s="18">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
     </row>
     <row r="132" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="23">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
     </row>
     <row r="133" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
@@ -2990,6 +3199,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="3"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -3017,110 +3227,141 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="4"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="7"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
     </row>
     <row r="175" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="7"/>
-    </row>
-    <row r="176" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="8"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-    </row>
-    <row r="181" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="8"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
-    </row>
-    <row r="182" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="8"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-    </row>
-    <row r="183" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="8"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-    </row>
-    <row r="184" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="8"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-    </row>
-    <row r="185" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="8"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9"/>
-    </row>
-    <row r="186" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="8"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
-    </row>
-    <row r="187" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="8"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-    </row>
-    <row r="188" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="8"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-    </row>
-    <row r="189" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="8"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
-    </row>
-    <row r="190" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="8"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
-    </row>
-    <row r="191" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="8"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
-    </row>
-    <row r="192" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="8"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-    </row>
-    <row r="193" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="8"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
-    </row>
-    <row r="194" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="8"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
-    </row>
-    <row r="195" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="8"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-    </row>
+      <c r="B175" s="3"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="3"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="3"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="3"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="3"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="3"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="3"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="3"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="3"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="3"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="3"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="3"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="7"/>
+    </row>
+    <row r="191" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="7"/>
+    </row>
+    <row r="192" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="8"/>
       <c r="D196" s="9"/>
@@ -3506,233 +3747,233 @@
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
     </row>
-    <row r="273" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="8"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
     </row>
-    <row r="274" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="8"/>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
     </row>
-    <row r="275" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="8"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
     </row>
-    <row r="276" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="8"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="8"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
     </row>
-    <row r="278" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="8"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
     </row>
-    <row r="279" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="8"/>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
     </row>
-    <row r="280" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="8"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
     </row>
-    <row r="281" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="8"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
-      <c r="G281" s="10"/>
-    </row>
-    <row r="282" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="8"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
-      <c r="G282" s="10"/>
-    </row>
-    <row r="283" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="8"/>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
-      <c r="G283" s="10"/>
-    </row>
-    <row r="284" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="8"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
-      <c r="G284" s="10"/>
-      <c r="H284" s="10"/>
-    </row>
-    <row r="285" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="8"/>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
-      <c r="F285" s="10"/>
-      <c r="H285" s="10"/>
-      <c r="I285" s="10"/>
-      <c r="J285" s="10"/>
-      <c r="K285" s="10"/>
-      <c r="L285" s="10"/>
-      <c r="M285" s="10"/>
-      <c r="N285" s="10"/>
-      <c r="O285" s="10"/>
-      <c r="P285" s="10"/>
-      <c r="Q285" s="10"/>
-      <c r="R285" s="10"/>
-      <c r="S285" s="10"/>
-      <c r="T285" s="10"/>
-      <c r="U285" s="10"/>
-      <c r="V285" s="10"/>
-    </row>
-    <row r="286" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="8"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
-      <c r="F286" s="10"/>
-      <c r="H286" s="10"/>
-      <c r="I286" s="10"/>
-      <c r="J286" s="10"/>
-      <c r="K286" s="10"/>
-      <c r="L286" s="10"/>
-      <c r="M286" s="10"/>
-      <c r="N286" s="10"/>
-      <c r="O286" s="10"/>
-      <c r="P286" s="10"/>
-      <c r="Q286" s="10"/>
-      <c r="R286" s="10"/>
-      <c r="S286" s="10"/>
-      <c r="T286" s="10"/>
-      <c r="U286" s="10"/>
-      <c r="V286" s="10"/>
-    </row>
-    <row r="287" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="8"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
-      <c r="F287" s="10"/>
-      <c r="H287" s="10"/>
-      <c r="I287" s="10"/>
-      <c r="J287" s="10"/>
-      <c r="K287" s="10"/>
-      <c r="L287" s="10"/>
-      <c r="M287" s="10"/>
-      <c r="N287" s="10"/>
-      <c r="O287" s="10"/>
-      <c r="P287" s="10"/>
-      <c r="Q287" s="10"/>
-      <c r="R287" s="10"/>
-      <c r="S287" s="10"/>
-      <c r="T287" s="10"/>
-      <c r="U287" s="10"/>
-      <c r="V287" s="10"/>
-    </row>
-    <row r="288" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="8"/>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
-      <c r="F288" s="10"/>
-      <c r="I288" s="10"/>
-      <c r="J288" s="10"/>
-      <c r="K288" s="10"/>
-      <c r="L288" s="10"/>
-      <c r="M288" s="10"/>
-      <c r="N288" s="10"/>
-      <c r="O288" s="10"/>
-      <c r="P288" s="10"/>
-      <c r="Q288" s="10"/>
-      <c r="R288" s="10"/>
-      <c r="S288" s="10"/>
-      <c r="T288" s="10"/>
-      <c r="U288" s="10"/>
-      <c r="V288" s="10"/>
-    </row>
-    <row r="289" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="8"/>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
     </row>
-    <row r="290" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="8"/>
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
     </row>
-    <row r="291" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="8"/>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
     </row>
-    <row r="292" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="8"/>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
     </row>
-    <row r="293" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="8"/>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
     </row>
-    <row r="294" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="8"/>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
     </row>
-    <row r="295" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="8"/>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
     </row>
-    <row r="296" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="8"/>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
     </row>
-    <row r="297" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="8"/>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
-    </row>
-    <row r="298" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G297" s="10"/>
+    </row>
+    <row r="298" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="8"/>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
-    </row>
-    <row r="299" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G298" s="10"/>
+    </row>
+    <row r="299" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="8"/>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
-    </row>
-    <row r="300" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G299" s="10"/>
+    </row>
+    <row r="300" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="8"/>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
-    </row>
-    <row r="301" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G300" s="10"/>
+      <c r="H300" s="10"/>
+    </row>
+    <row r="301" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="8"/>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
-    </row>
-    <row r="302" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F301" s="10"/>
+      <c r="H301" s="10"/>
+      <c r="I301" s="10"/>
+      <c r="J301" s="10"/>
+      <c r="K301" s="10"/>
+      <c r="L301" s="10"/>
+      <c r="M301" s="10"/>
+      <c r="N301" s="10"/>
+      <c r="O301" s="10"/>
+      <c r="P301" s="10"/>
+      <c r="Q301" s="10"/>
+      <c r="R301" s="10"/>
+      <c r="S301" s="10"/>
+      <c r="T301" s="10"/>
+      <c r="U301" s="10"/>
+      <c r="V301" s="10"/>
+    </row>
+    <row r="302" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="8"/>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
-    </row>
-    <row r="303" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F302" s="10"/>
+      <c r="H302" s="10"/>
+      <c r="I302" s="10"/>
+      <c r="J302" s="10"/>
+      <c r="K302" s="10"/>
+      <c r="L302" s="10"/>
+      <c r="M302" s="10"/>
+      <c r="N302" s="10"/>
+      <c r="O302" s="10"/>
+      <c r="P302" s="10"/>
+      <c r="Q302" s="10"/>
+      <c r="R302" s="10"/>
+      <c r="S302" s="10"/>
+      <c r="T302" s="10"/>
+      <c r="U302" s="10"/>
+      <c r="V302" s="10"/>
+    </row>
+    <row r="303" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="8"/>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
-    </row>
-    <row r="304" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F303" s="10"/>
+      <c r="H303" s="10"/>
+      <c r="I303" s="10"/>
+      <c r="J303" s="10"/>
+      <c r="K303" s="10"/>
+      <c r="L303" s="10"/>
+      <c r="M303" s="10"/>
+      <c r="N303" s="10"/>
+      <c r="O303" s="10"/>
+      <c r="P303" s="10"/>
+      <c r="Q303" s="10"/>
+      <c r="R303" s="10"/>
+      <c r="S303" s="10"/>
+      <c r="T303" s="10"/>
+      <c r="U303" s="10"/>
+      <c r="V303" s="10"/>
+    </row>
+    <row r="304" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="8"/>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
+      <c r="F304" s="10"/>
+      <c r="I304" s="10"/>
+      <c r="J304" s="10"/>
+      <c r="K304" s="10"/>
+      <c r="L304" s="10"/>
+      <c r="M304" s="10"/>
+      <c r="N304" s="10"/>
+      <c r="O304" s="10"/>
+      <c r="P304" s="10"/>
+      <c r="Q304" s="10"/>
+      <c r="R304" s="10"/>
+      <c r="S304" s="10"/>
+      <c r="T304" s="10"/>
+      <c r="U304" s="10"/>
+      <c r="V304" s="10"/>
     </row>
     <row r="305" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="8"/>
@@ -6974,30 +7215,94 @@
       <c r="D952" s="9"/>
       <c r="E952" s="9"/>
     </row>
-    <row r="953" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B953" s="8"/>
+      <c r="D953" s="9"/>
+      <c r="E953" s="9"/>
+    </row>
+    <row r="954" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B954" s="8"/>
+      <c r="D954" s="9"/>
+      <c r="E954" s="9"/>
+    </row>
+    <row r="955" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B955" s="8"/>
+      <c r="D955" s="9"/>
+      <c r="E955" s="9"/>
+    </row>
+    <row r="956" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B956" s="8"/>
+      <c r="D956" s="9"/>
+      <c r="E956" s="9"/>
+    </row>
+    <row r="957" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B957" s="8"/>
+      <c r="D957" s="9"/>
+      <c r="E957" s="9"/>
+    </row>
+    <row r="958" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B958" s="8"/>
+      <c r="D958" s="9"/>
+      <c r="E958" s="9"/>
+    </row>
+    <row r="959" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B959" s="8"/>
+      <c r="D959" s="9"/>
+      <c r="E959" s="9"/>
+    </row>
+    <row r="960" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B960" s="8"/>
+      <c r="D960" s="9"/>
+      <c r="E960" s="9"/>
+    </row>
+    <row r="961" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B961" s="8"/>
+      <c r="D961" s="9"/>
+      <c r="E961" s="9"/>
+    </row>
+    <row r="962" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B962" s="8"/>
+      <c r="D962" s="9"/>
+      <c r="E962" s="9"/>
+    </row>
+    <row r="963" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B963" s="8"/>
+      <c r="D963" s="9"/>
+      <c r="E963" s="9"/>
+    </row>
+    <row r="964" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B964" s="8"/>
+      <c r="D964" s="9"/>
+      <c r="E964" s="9"/>
+    </row>
+    <row r="965" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B965" s="8"/>
+      <c r="D965" s="9"/>
+      <c r="E965" s="9"/>
+    </row>
+    <row r="966" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B966" s="8"/>
+      <c r="D966" s="9"/>
+      <c r="E966" s="9"/>
+    </row>
+    <row r="967" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B967" s="8"/>
+      <c r="D967" s="9"/>
+      <c r="E967" s="9"/>
+    </row>
+    <row r="968" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B968" s="8"/>
+      <c r="D968" s="9"/>
+      <c r="E968" s="9"/>
+    </row>
+    <row r="969" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7101,6 +7406,22 @@
     <row r="1077" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1078" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1079" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1080" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1081" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1082" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1083" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1084" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1085" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1086" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1087" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1088" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1089" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1090" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1091" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1092" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1093" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1094" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1095" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E8DED-33D9-4121-BCA5-0F0E169CBA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF214A1-D524-4691-B8C7-49619447FF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -332,6 +332,66 @@
   </si>
   <si>
     <t>Purchased Weight Scsale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Recevid From Anjum Sahb Via Abu Bakar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandage Labor C/O Yasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice For Tahir And Hasnain </t>
+  </si>
+  <si>
+    <t>Bottel For Mirza Munir Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottel For Tahir Sahb + Bao usman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Recevid via Anjum sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol Yasir C/o Basit </t>
+  </si>
+  <si>
+    <t>Juice for Guest Asif dana + Bao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight Scale Freight </t>
+  </si>
+  <si>
+    <t>Basit pending (shafaat )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chai Biscut Tahir sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Bottel For Staff Tahir sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA Baban Freight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA Baban Petrol Yasir Bike </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Bottel For Asif Dana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasir Conductor </t>
+  </si>
+  <si>
+    <t>Freight (20 Than Imran Qasir Lace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottel Majeed Sahb Fact checker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Thal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasir Elecrtion </t>
   </si>
 </sst>
 </file>
@@ -428,18 +488,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -558,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,25 +677,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -859,16 +907,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V1095"/>
+  <dimension ref="B3:V1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
@@ -974,7 +1022,7 @@
         <f t="shared" ref="F9:F31" si="0">F8+D9-E9</f>
         <v>149700</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
@@ -1007,8 +1055,8 @@
         <f t="shared" si="0"/>
         <v>139710</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="I11" s="22"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
@@ -1025,8 +1073,8 @@
         <f t="shared" si="0"/>
         <v>139410</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="I12" s="22"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
@@ -1043,8 +1091,8 @@
         <f t="shared" si="0"/>
         <v>131400</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="K13" s="25"/>
+      <c r="I13" s="22"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
@@ -2626,11 +2674,11 @@
       <c r="E112" s="18">
         <v>2000</v>
       </c>
-      <c r="F112" s="27">
+      <c r="F112" s="24">
         <f t="shared" si="1"/>
         <v>8560</v>
       </c>
-      <c r="I112" s="28"/>
+      <c r="I112" s="25"/>
     </row>
     <row r="113" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="15">
@@ -2937,273 +2985,538 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="22"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
+      <c r="B132" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D132" s="18">
+        <v>15000</v>
+      </c>
       <c r="E132" s="18"/>
-      <c r="F132" s="23">
-        <f t="shared" si="1"/>
+      <c r="F132" s="18">
+        <f t="shared" si="1"/>
+        <v>15550</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18">
+        <v>15000</v>
+      </c>
+      <c r="F133" s="24">
+        <f t="shared" ref="F133:F169" si="2">F132+D133-E133</f>
         <v>550</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
     <row r="134" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="3"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="B134" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" s="18">
+        <v>19183</v>
+      </c>
+      <c r="E134" s="18">
+        <v>300</v>
+      </c>
+      <c r="F134" s="18">
+        <f t="shared" si="2"/>
+        <v>19433</v>
+      </c>
     </row>
     <row r="135" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="B135" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18">
+        <v>300</v>
+      </c>
+      <c r="F135" s="18">
+        <f t="shared" si="2"/>
+        <v>19133</v>
+      </c>
     </row>
     <row r="136" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
+      <c r="B136" s="15">
+        <v>45878</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18">
+        <f>300+210</f>
+        <v>510</v>
+      </c>
+      <c r="F136" s="18">
+        <f t="shared" si="2"/>
+        <v>18623</v>
+      </c>
     </row>
     <row r="137" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="3"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
+      <c r="B137" s="15">
+        <v>45879</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18">
+        <v>100</v>
+      </c>
+      <c r="F137" s="18">
+        <f t="shared" si="2"/>
+        <v>18523</v>
+      </c>
     </row>
     <row r="138" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
-      <c r="C138" s="2"/>
+      <c r="B138" s="15">
+        <v>45879</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+      <c r="E138" s="2">
+        <v>200</v>
+      </c>
+      <c r="F138" s="18">
+        <f t="shared" si="2"/>
+        <v>18323</v>
+      </c>
     </row>
     <row r="139" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
-      <c r="C139" s="2"/>
+      <c r="B139" s="15">
+        <v>45879</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="E139" s="2">
+        <v>100</v>
+      </c>
+      <c r="F139" s="18">
+        <f t="shared" si="2"/>
+        <v>18223</v>
+      </c>
     </row>
     <row r="140" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
-      <c r="C140" s="2"/>
+      <c r="B140" s="15">
+        <v>45879</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
+      <c r="E140" s="2">
+        <v>200</v>
+      </c>
+      <c r="F140" s="18">
+        <f t="shared" si="2"/>
+        <v>18023</v>
+      </c>
     </row>
     <row r="141" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="3"/>
-      <c r="C141" s="2"/>
+      <c r="B141" s="15">
+        <v>45879</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
+      <c r="E141" s="2">
+        <v>200</v>
+      </c>
+      <c r="F141" s="18">
+        <f t="shared" si="2"/>
+        <v>17823</v>
+      </c>
     </row>
     <row r="142" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
-      <c r="C142" s="2"/>
+      <c r="B142" s="15">
+        <v>45879</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
+      <c r="E142" s="2">
+        <v>100</v>
+      </c>
+      <c r="F142" s="18">
+        <f t="shared" si="2"/>
+        <v>17723</v>
+      </c>
     </row>
     <row r="143" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
-      <c r="C143" s="2"/>
+      <c r="B143" s="15">
+        <v>45879</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
+      <c r="E143" s="2">
+        <v>200</v>
+      </c>
+      <c r="F143" s="18">
+        <f t="shared" si="2"/>
+        <v>17523</v>
+      </c>
     </row>
     <row r="144" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
-      <c r="C144" s="2"/>
+      <c r="B144" s="15">
+        <v>45879</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
+      <c r="E144" s="2">
+        <v>240</v>
+      </c>
+      <c r="F144" s="18">
+        <f t="shared" si="2"/>
+        <v>17283</v>
+      </c>
     </row>
     <row r="145" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="3"/>
-      <c r="C145" s="2"/>
+      <c r="B145" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
+      <c r="E145" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F145" s="18">
+        <f t="shared" si="2"/>
+        <v>15983</v>
+      </c>
     </row>
     <row r="146" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="3"/>
-      <c r="C146" s="2"/>
+      <c r="B146" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
+      <c r="E146" s="2">
+        <v>100</v>
+      </c>
+      <c r="F146" s="18">
+        <f t="shared" si="2"/>
+        <v>15883</v>
+      </c>
     </row>
     <row r="147" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="3"/>
-      <c r="C147" s="2"/>
+      <c r="B147" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
+      <c r="E147" s="2">
+        <v>200</v>
+      </c>
+      <c r="F147" s="18">
+        <f t="shared" si="2"/>
+        <v>15683</v>
+      </c>
     </row>
     <row r="148" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="3"/>
-      <c r="C148" s="2"/>
+      <c r="B148" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
+      <c r="E148" s="2">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="F148" s="18">
+        <f t="shared" si="2"/>
+        <v>15583</v>
+      </c>
     </row>
     <row r="149" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
-      <c r="C149" s="2"/>
+      <c r="B149" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
+      <c r="E149" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F149" s="18">
+        <f t="shared" si="2"/>
+        <v>14583</v>
+      </c>
     </row>
     <row r="150" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
-      <c r="C150" s="2"/>
+      <c r="B150" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+      <c r="E150" s="2">
+        <v>100</v>
+      </c>
+      <c r="F150" s="18">
+        <f t="shared" si="2"/>
+        <v>14483</v>
+      </c>
     </row>
     <row r="151" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="3"/>
-      <c r="C151" s="2"/>
+      <c r="B151" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
+      <c r="E151" s="2">
+        <v>150</v>
+      </c>
+      <c r="F151" s="18">
+        <f t="shared" si="2"/>
+        <v>14333</v>
+      </c>
     </row>
     <row r="152" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="3"/>
-      <c r="C152" s="2"/>
+      <c r="B152" s="15">
+        <v>45880</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
+      <c r="E152" s="2">
+        <v>100</v>
+      </c>
+      <c r="F152" s="18">
+        <f t="shared" si="2"/>
+        <v>14233</v>
+      </c>
     </row>
     <row r="153" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="3"/>
-      <c r="C153" s="2"/>
+      <c r="B153" s="15">
+        <v>45881</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
+      <c r="E153" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F153" s="18">
+        <f t="shared" si="2"/>
+        <v>11233</v>
+      </c>
     </row>
     <row r="154" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="3"/>
-      <c r="C154" s="2"/>
+      <c r="B154" s="15">
+        <v>45881</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
+      <c r="E154" s="2">
+        <v>500</v>
+      </c>
+      <c r="F154" s="18">
+        <f t="shared" si="2"/>
+        <v>10733</v>
+      </c>
     </row>
     <row r="155" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
-      <c r="C155" s="2"/>
+      <c r="B155" s="15">
+        <v>45881</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
+      <c r="E155" s="2">
+        <v>100</v>
+      </c>
+      <c r="F155" s="18">
+        <f t="shared" si="2"/>
+        <v>10633</v>
+      </c>
     </row>
     <row r="156" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="3"/>
-      <c r="C156" s="2"/>
+      <c r="B156" s="15">
+        <v>45881</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
+      <c r="E156" s="2">
+        <v>100</v>
+      </c>
+      <c r="F156" s="18">
+        <f t="shared" si="2"/>
+        <v>10533</v>
+      </c>
     </row>
     <row r="157" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
-      <c r="C157" s="2"/>
+      <c r="B157" s="15">
+        <v>45881</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
+      <c r="E157" s="2">
+        <v>200</v>
+      </c>
+      <c r="F157" s="18">
+        <f t="shared" si="2"/>
+        <v>10333</v>
+      </c>
     </row>
     <row r="158" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="3"/>
-      <c r="C158" s="2"/>
+      <c r="B158" s="15">
+        <v>45882</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
+      <c r="E158" s="2">
+        <v>210</v>
+      </c>
+      <c r="F158" s="18">
+        <f t="shared" si="2"/>
+        <v>10123</v>
+      </c>
     </row>
     <row r="159" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="3"/>
-      <c r="C159" s="2"/>
+      <c r="B159" s="15">
+        <v>45882</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
+      <c r="E159" s="2">
+        <v>200</v>
+      </c>
+      <c r="F159" s="18">
+        <f t="shared" si="2"/>
+        <v>9923</v>
+      </c>
     </row>
     <row r="160" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
+      <c r="F160" s="18">
+        <f t="shared" si="2"/>
+        <v>9923</v>
+      </c>
     </row>
     <row r="161" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
+      <c r="F161" s="18">
+        <f t="shared" si="2"/>
+        <v>9923</v>
+      </c>
     </row>
     <row r="162" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
+      <c r="F162" s="18">
+        <f t="shared" si="2"/>
+        <v>9923</v>
+      </c>
     </row>
     <row r="163" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
+      <c r="F163" s="24">
+        <f t="shared" si="2"/>
+        <v>9923</v>
+      </c>
     </row>
     <row r="164" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
+      <c r="F164" s="18"/>
     </row>
     <row r="165" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
+      <c r="F165" s="18"/>
     </row>
     <row r="166" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
+      <c r="F166" s="18"/>
     </row>
     <row r="167" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
+      <c r="F167" s="18"/>
     </row>
     <row r="168" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="F168" s="18"/>
     </row>
     <row r="169" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
+      <c r="F169" s="18"/>
     </row>
     <row r="170" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
@@ -3311,6 +3624,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="3"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -3338,91 +3652,100 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="4"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="7"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
     </row>
     <row r="191" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="7"/>
-    </row>
-    <row r="192" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="8"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
-    </row>
-    <row r="197" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="8"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-    </row>
-    <row r="198" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="8"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
-    </row>
-    <row r="199" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="8"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
-    </row>
-    <row r="200" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="8"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
-    </row>
-    <row r="201" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="3"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="3"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="3"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="4"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="7"/>
+    </row>
+    <row r="196" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="7"/>
+    </row>
+    <row r="197" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="8"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
     </row>
-    <row r="202" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
     </row>
-    <row r="203" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="8"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
     </row>
-    <row r="204" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="8"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
     </row>
-    <row r="205" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="8"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
     </row>
-    <row r="208" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="8"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -3827,230 +4150,230 @@
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
     </row>
-    <row r="289" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="8"/>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
     </row>
-    <row r="290" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="8"/>
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
     </row>
-    <row r="291" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="8"/>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
     </row>
-    <row r="292" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="8"/>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
     </row>
-    <row r="293" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="8"/>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
     </row>
-    <row r="294" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="8"/>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
     </row>
-    <row r="295" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="8"/>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
     </row>
-    <row r="296" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="8"/>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
     </row>
-    <row r="297" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="8"/>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
-      <c r="G297" s="10"/>
-    </row>
-    <row r="298" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="8"/>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
-      <c r="G298" s="10"/>
-    </row>
-    <row r="299" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="8"/>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
-      <c r="G299" s="10"/>
-    </row>
-    <row r="300" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="8"/>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
-      <c r="G300" s="10"/>
-      <c r="H300" s="10"/>
-    </row>
-    <row r="301" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="8"/>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
-      <c r="F301" s="10"/>
-      <c r="H301" s="10"/>
-      <c r="I301" s="10"/>
-      <c r="J301" s="10"/>
-      <c r="K301" s="10"/>
-      <c r="L301" s="10"/>
-      <c r="M301" s="10"/>
-      <c r="N301" s="10"/>
-      <c r="O301" s="10"/>
-      <c r="P301" s="10"/>
-      <c r="Q301" s="10"/>
-      <c r="R301" s="10"/>
-      <c r="S301" s="10"/>
-      <c r="T301" s="10"/>
-      <c r="U301" s="10"/>
-      <c r="V301" s="10"/>
-    </row>
-    <row r="302" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="8"/>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
-      <c r="F302" s="10"/>
-      <c r="H302" s="10"/>
-      <c r="I302" s="10"/>
-      <c r="J302" s="10"/>
-      <c r="K302" s="10"/>
-      <c r="L302" s="10"/>
-      <c r="M302" s="10"/>
-      <c r="N302" s="10"/>
-      <c r="O302" s="10"/>
-      <c r="P302" s="10"/>
-      <c r="Q302" s="10"/>
-      <c r="R302" s="10"/>
-      <c r="S302" s="10"/>
-      <c r="T302" s="10"/>
-      <c r="U302" s="10"/>
-      <c r="V302" s="10"/>
-    </row>
-    <row r="303" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G302" s="10"/>
+    </row>
+    <row r="303" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="8"/>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
-      <c r="F303" s="10"/>
-      <c r="H303" s="10"/>
-      <c r="I303" s="10"/>
-      <c r="J303" s="10"/>
-      <c r="K303" s="10"/>
-      <c r="L303" s="10"/>
-      <c r="M303" s="10"/>
-      <c r="N303" s="10"/>
-      <c r="O303" s="10"/>
-      <c r="P303" s="10"/>
-      <c r="Q303" s="10"/>
-      <c r="R303" s="10"/>
-      <c r="S303" s="10"/>
-      <c r="T303" s="10"/>
-      <c r="U303" s="10"/>
-      <c r="V303" s="10"/>
-    </row>
-    <row r="304" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G303" s="10"/>
+    </row>
+    <row r="304" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="8"/>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
-      <c r="F304" s="10"/>
-      <c r="I304" s="10"/>
-      <c r="J304" s="10"/>
-      <c r="K304" s="10"/>
-      <c r="L304" s="10"/>
-      <c r="M304" s="10"/>
-      <c r="N304" s="10"/>
-      <c r="O304" s="10"/>
-      <c r="P304" s="10"/>
-      <c r="Q304" s="10"/>
-      <c r="R304" s="10"/>
-      <c r="S304" s="10"/>
-      <c r="T304" s="10"/>
-      <c r="U304" s="10"/>
-      <c r="V304" s="10"/>
-    </row>
-    <row r="305" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G304" s="10"/>
+    </row>
+    <row r="305" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="8"/>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
-    </row>
-    <row r="306" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G305" s="10"/>
+      <c r="H305" s="10"/>
+    </row>
+    <row r="306" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="8"/>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
-    </row>
-    <row r="307" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F306" s="10"/>
+      <c r="H306" s="10"/>
+      <c r="I306" s="10"/>
+      <c r="J306" s="10"/>
+      <c r="K306" s="10"/>
+      <c r="L306" s="10"/>
+      <c r="M306" s="10"/>
+      <c r="N306" s="10"/>
+      <c r="O306" s="10"/>
+      <c r="P306" s="10"/>
+      <c r="Q306" s="10"/>
+      <c r="R306" s="10"/>
+      <c r="S306" s="10"/>
+      <c r="T306" s="10"/>
+      <c r="U306" s="10"/>
+      <c r="V306" s="10"/>
+    </row>
+    <row r="307" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="8"/>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
-    </row>
-    <row r="308" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F307" s="10"/>
+      <c r="H307" s="10"/>
+      <c r="I307" s="10"/>
+      <c r="J307" s="10"/>
+      <c r="K307" s="10"/>
+      <c r="L307" s="10"/>
+      <c r="M307" s="10"/>
+      <c r="N307" s="10"/>
+      <c r="O307" s="10"/>
+      <c r="P307" s="10"/>
+      <c r="Q307" s="10"/>
+      <c r="R307" s="10"/>
+      <c r="S307" s="10"/>
+      <c r="T307" s="10"/>
+      <c r="U307" s="10"/>
+      <c r="V307" s="10"/>
+    </row>
+    <row r="308" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="8"/>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
-    </row>
-    <row r="309" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F308" s="10"/>
+      <c r="H308" s="10"/>
+      <c r="I308" s="10"/>
+      <c r="J308" s="10"/>
+      <c r="K308" s="10"/>
+      <c r="L308" s="10"/>
+      <c r="M308" s="10"/>
+      <c r="N308" s="10"/>
+      <c r="O308" s="10"/>
+      <c r="P308" s="10"/>
+      <c r="Q308" s="10"/>
+      <c r="R308" s="10"/>
+      <c r="S308" s="10"/>
+      <c r="T308" s="10"/>
+      <c r="U308" s="10"/>
+      <c r="V308" s="10"/>
+    </row>
+    <row r="309" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="8"/>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
-    </row>
-    <row r="310" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F309" s="10"/>
+      <c r="I309" s="10"/>
+      <c r="J309" s="10"/>
+      <c r="K309" s="10"/>
+      <c r="L309" s="10"/>
+      <c r="M309" s="10"/>
+      <c r="N309" s="10"/>
+      <c r="O309" s="10"/>
+      <c r="P309" s="10"/>
+      <c r="Q309" s="10"/>
+      <c r="R309" s="10"/>
+      <c r="S309" s="10"/>
+      <c r="T309" s="10"/>
+      <c r="U309" s="10"/>
+      <c r="V309" s="10"/>
+    </row>
+    <row r="310" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="8"/>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
     </row>
-    <row r="311" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="8"/>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
     </row>
-    <row r="312" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="8"/>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
     </row>
-    <row r="313" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="8"/>
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
     </row>
-    <row r="314" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="8"/>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
     </row>
-    <row r="315" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="8"/>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
     </row>
-    <row r="316" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="8"/>
       <c r="D316" s="9"/>
       <c r="E316" s="9"/>
     </row>
-    <row r="317" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="8"/>
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
     </row>
-    <row r="318" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="8"/>
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
     </row>
-    <row r="319" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="8"/>
       <c r="D319" s="9"/>
       <c r="E319" s="9"/>
     </row>
-    <row r="320" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="8"/>
       <c r="D320" s="9"/>
       <c r="E320" s="9"/>
@@ -7295,11 +7618,31 @@
       <c r="D968" s="9"/>
       <c r="E968" s="9"/>
     </row>
-    <row r="969" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B969" s="8"/>
+      <c r="D969" s="9"/>
+      <c r="E969" s="9"/>
+    </row>
+    <row r="970" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B970" s="8"/>
+      <c r="D970" s="9"/>
+      <c r="E970" s="9"/>
+    </row>
+    <row r="971" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B971" s="8"/>
+      <c r="D971" s="9"/>
+      <c r="E971" s="9"/>
+    </row>
+    <row r="972" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B972" s="8"/>
+      <c r="D972" s="9"/>
+      <c r="E972" s="9"/>
+    </row>
+    <row r="973" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B973" s="8"/>
+      <c r="D973" s="9"/>
+      <c r="E973" s="9"/>
+    </row>
     <row r="974" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="975" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="976" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7422,6 +7765,11 @@
     <row r="1093" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1094" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1095" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1096" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1097" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1098" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF214A1-D524-4691-B8C7-49619447FF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15782806-599F-4CC2-BC54-7A4BF7D74F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:V1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3012,7 +3012,7 @@
         <v>15000</v>
       </c>
       <c r="F133" s="24">
-        <f t="shared" ref="F133:F169" si="2">F132+D133-E133</f>
+        <f t="shared" ref="F133:F163" si="2">F132+D133-E133</f>
         <v>550</v>
       </c>
     </row>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15782806-599F-4CC2-BC54-7A4BF7D74F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05354C9E-8E3B-4328-8051-546513012AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -392,6 +392,72 @@
   </si>
   <si>
     <t xml:space="preserve">Nasir Elecrtion </t>
+  </si>
+  <si>
+    <t>Wages (Mirza Munir Workshop)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilty Yasir Kohistan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilty Yasir Kohistan Petrol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Asif Dana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir Bilty Kohsitan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir Petrol for Purcahsing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chai Tahir Sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chai Shahbaz Sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairy For Ali Butt Deisngrer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol For Neddels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiya Thread unloading Charges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotton Thread Box Unloading Charges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chai Biscut Bao Qasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chai For Basit and Tahir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haji Bhola Freight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">White oil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 + 2 Shaper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol For Machine Parts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance To Asmatullah Guard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basit Petrol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir Petrol </t>
   </si>
 </sst>
 </file>
@@ -401,11 +467,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,6 +559,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -612,84 +692,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -907,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V1100"/>
+  <dimension ref="A3:V1133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3012,7 +3098,7 @@
         <v>15000</v>
       </c>
       <c r="F133" s="24">
-        <f t="shared" ref="F133:F163" si="2">F132+D133-E133</f>
+        <f t="shared" ref="F133:F195" si="2">F132+D133-E133</f>
         <v>550</v>
       </c>
     </row>
@@ -3285,11 +3371,12 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2">
-        <v>100</v>
+        <f>100+150</f>
+        <v>250</v>
       </c>
       <c r="F150" s="18">
         <f t="shared" si="2"/>
-        <v>14483</v>
+        <v>14333</v>
       </c>
     </row>
     <row r="151" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3305,7 +3392,7 @@
       </c>
       <c r="F151" s="18">
         <f t="shared" si="2"/>
-        <v>14333</v>
+        <v>14183</v>
       </c>
     </row>
     <row r="152" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3321,7 +3408,7 @@
       </c>
       <c r="F152" s="18">
         <f t="shared" si="2"/>
-        <v>14233</v>
+        <v>14083</v>
       </c>
     </row>
     <row r="153" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3337,7 +3424,7 @@
       </c>
       <c r="F153" s="18">
         <f t="shared" si="2"/>
-        <v>11233</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="154" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,7 +3440,7 @@
       </c>
       <c r="F154" s="18">
         <f t="shared" si="2"/>
-        <v>10733</v>
+        <v>10583</v>
       </c>
     </row>
     <row r="155" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,7 +3456,7 @@
       </c>
       <c r="F155" s="18">
         <f t="shared" si="2"/>
-        <v>10633</v>
+        <v>10483</v>
       </c>
     </row>
     <row r="156" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3385,7 +3472,7 @@
       </c>
       <c r="F156" s="18">
         <f t="shared" si="2"/>
-        <v>10533</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3401,7 +3488,7 @@
       </c>
       <c r="F157" s="18">
         <f t="shared" si="2"/>
-        <v>10333</v>
+        <v>10183</v>
       </c>
     </row>
     <row r="158" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3415,9 +3502,9 @@
       <c r="E158" s="2">
         <v>210</v>
       </c>
-      <c r="F158" s="18">
+      <c r="F158" s="24">
         <f t="shared" si="2"/>
-        <v>10123</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="159" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3433,479 +3520,835 @@
       </c>
       <c r="F159" s="18">
         <f t="shared" si="2"/>
-        <v>9923</v>
+        <v>9773</v>
       </c>
     </row>
     <row r="160" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="3"/>
-      <c r="C160" s="2"/>
+      <c r="B160" s="15">
+        <v>45882</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
+      <c r="E160" s="2">
+        <v>160</v>
+      </c>
       <c r="F160" s="18">
         <f t="shared" si="2"/>
-        <v>9923</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="3"/>
-      <c r="C161" s="2"/>
+        <v>9613</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="15">
+        <v>45882</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
+      <c r="E161" s="2">
+        <v>800</v>
+      </c>
       <c r="F161" s="18">
         <f t="shared" si="2"/>
-        <v>9923</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="3"/>
-      <c r="C162" s="2"/>
+        <v>8813</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="15">
+        <v>45882</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
+      <c r="E162" s="2">
+        <v>200</v>
+      </c>
       <c r="F162" s="18">
         <f t="shared" si="2"/>
-        <v>9923</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="3"/>
-      <c r="C163" s="2"/>
+        <v>8613</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="15">
+        <v>45882</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="24">
+      <c r="E163" s="2">
+        <v>200</v>
+      </c>
+      <c r="F163" s="18">
         <f t="shared" si="2"/>
-        <v>9923</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="3"/>
-      <c r="C164" s="2"/>
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="15">
+        <v>45882</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="18"/>
-    </row>
-    <row r="165" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="3"/>
-      <c r="C165" s="2"/>
+      <c r="E164" s="2">
+        <v>250</v>
+      </c>
+      <c r="F164" s="18">
+        <f t="shared" si="2"/>
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="28"/>
+      <c r="B165" s="15">
+        <v>45882</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="18"/>
-    </row>
-    <row r="166" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="3"/>
-      <c r="C166" s="2"/>
+      <c r="E165" s="2">
+        <v>100</v>
+      </c>
+      <c r="F165" s="18">
+        <f t="shared" si="2"/>
+        <v>8063</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="15">
+        <v>45882</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="18"/>
-    </row>
-    <row r="167" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="3"/>
-      <c r="C167" s="2"/>
+      <c r="E166" s="2">
+        <v>950</v>
+      </c>
+      <c r="F166" s="18">
+        <f t="shared" si="2"/>
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="15">
+        <v>45885</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="18"/>
-    </row>
-    <row r="168" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="3"/>
-      <c r="C168" s="2"/>
+      <c r="E167" s="2">
+        <v>250</v>
+      </c>
+      <c r="F167" s="18">
+        <f t="shared" si="2"/>
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="15">
+        <v>45885</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="18"/>
-    </row>
-    <row r="169" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="3"/>
-      <c r="C169" s="2"/>
+      <c r="E168" s="2">
+        <v>950</v>
+      </c>
+      <c r="F168" s="18">
+        <f t="shared" si="2"/>
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="15">
+        <v>45885</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="18"/>
-    </row>
-    <row r="170" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="3"/>
-      <c r="C170" s="2"/>
+      <c r="E169" s="2">
+        <v>250</v>
+      </c>
+      <c r="F169" s="18">
+        <f t="shared" si="2"/>
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="15">
+        <v>45885</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="3"/>
-      <c r="C171" s="2"/>
+      <c r="E170" s="2">
+        <v>160</v>
+      </c>
+      <c r="F170" s="18">
+        <f t="shared" si="2"/>
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="15">
+        <v>45885</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="3"/>
-      <c r="C172" s="2"/>
+      <c r="E171" s="2">
+        <v>100</v>
+      </c>
+      <c r="F171" s="18">
+        <f t="shared" si="2"/>
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="3"/>
-      <c r="C173" s="2"/>
+      <c r="E172" s="2">
+        <v>600</v>
+      </c>
+      <c r="F172" s="18">
+        <f t="shared" si="2"/>
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="3"/>
-      <c r="C174" s="2"/>
+      <c r="E173" s="2">
+        <v>200</v>
+      </c>
+      <c r="F173" s="18">
+        <f t="shared" si="2"/>
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="3"/>
-      <c r="C175" s="2"/>
+      <c r="E174" s="2">
+        <v>150</v>
+      </c>
+      <c r="F174" s="18">
+        <f t="shared" si="2"/>
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="3"/>
-      <c r="C176" s="2"/>
+      <c r="E175" s="2">
+        <v>400</v>
+      </c>
+      <c r="F175" s="18">
+        <f t="shared" si="2"/>
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
+      <c r="E176" s="2">
+        <f>1090+300</f>
+        <v>1390</v>
+      </c>
+      <c r="F176" s="18">
+        <f t="shared" si="2"/>
+        <v>2663</v>
+      </c>
     </row>
     <row r="177" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="3"/>
-      <c r="C177" s="2"/>
+      <c r="B177" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+      <c r="E177" s="2">
+        <v>100</v>
+      </c>
+      <c r="F177" s="18">
+        <f t="shared" si="2"/>
+        <v>2563</v>
+      </c>
     </row>
     <row r="178" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="3"/>
-      <c r="C178" s="2"/>
+      <c r="B178" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
+      <c r="E178" s="2">
+        <v>100</v>
+      </c>
+      <c r="F178" s="18">
+        <f t="shared" si="2"/>
+        <v>2463</v>
+      </c>
     </row>
     <row r="179" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="3"/>
-      <c r="C179" s="2"/>
+      <c r="B179" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
+      <c r="E179" s="2">
+        <v>200</v>
+      </c>
+      <c r="F179" s="18">
+        <f t="shared" si="2"/>
+        <v>2263</v>
+      </c>
     </row>
     <row r="180" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="3"/>
-      <c r="C180" s="2"/>
+      <c r="B180" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
+      <c r="E180" s="2">
+        <v>200</v>
+      </c>
+      <c r="F180" s="18">
+        <f t="shared" si="2"/>
+        <v>2063</v>
+      </c>
     </row>
     <row r="181" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="3"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="B181" s="15">
+        <v>45886</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D181" s="27">
+        <v>10000</v>
+      </c>
       <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
+      <c r="F181" s="18">
+        <f t="shared" si="2"/>
+        <v>12063</v>
+      </c>
     </row>
     <row r="182" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="3"/>
-      <c r="C182" s="2"/>
+      <c r="B182" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
+      <c r="E182" s="2">
+        <v>100</v>
+      </c>
+      <c r="F182" s="18">
+        <f t="shared" si="2"/>
+        <v>11963</v>
+      </c>
     </row>
     <row r="183" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="3"/>
-      <c r="C183" s="2"/>
+      <c r="B183" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
+      <c r="E183" s="2">
+        <v>200</v>
+      </c>
+      <c r="F183" s="18">
+        <f t="shared" si="2"/>
+        <v>11763</v>
+      </c>
     </row>
     <row r="184" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="3"/>
-      <c r="C184" s="2"/>
+      <c r="B184" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
+      <c r="E184" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F184" s="18">
+        <f t="shared" si="2"/>
+        <v>10763</v>
+      </c>
     </row>
     <row r="185" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="3"/>
-      <c r="C185" s="2"/>
+      <c r="B185" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
+      <c r="E185" s="2">
+        <v>500</v>
+      </c>
+      <c r="F185" s="18">
+        <f t="shared" si="2"/>
+        <v>10263</v>
+      </c>
     </row>
     <row r="186" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="3"/>
-      <c r="C186" s="2"/>
+      <c r="B186" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
+      <c r="E186" s="2">
+        <v>560</v>
+      </c>
+      <c r="F186" s="18">
+        <f t="shared" si="2"/>
+        <v>9703</v>
+      </c>
     </row>
     <row r="187" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="3"/>
-      <c r="C187" s="2"/>
+      <c r="B187" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
+      <c r="E187" s="2">
+        <v>60</v>
+      </c>
+      <c r="F187" s="18">
+        <f t="shared" si="2"/>
+        <v>9643</v>
+      </c>
     </row>
     <row r="188" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="3"/>
-      <c r="C188" s="2"/>
+      <c r="B188" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
+      <c r="E188" s="2">
+        <v>200</v>
+      </c>
+      <c r="F188" s="18">
+        <f t="shared" si="2"/>
+        <v>9443</v>
+      </c>
     </row>
     <row r="189" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="3"/>
-      <c r="C189" s="2"/>
+      <c r="B189" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
+      <c r="E189" s="2">
+        <v>100</v>
+      </c>
+      <c r="F189" s="18">
+        <f t="shared" si="2"/>
+        <v>9343</v>
+      </c>
     </row>
     <row r="190" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C190" s="2"/>
+      <c r="B190" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
+      <c r="E190" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F190" s="18">
+        <f t="shared" si="2"/>
+        <v>8343</v>
+      </c>
     </row>
     <row r="191" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="3"/>
-      <c r="C191" s="2"/>
+      <c r="B191" s="15">
+        <v>45887</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
+      <c r="E191" s="2">
+        <v>200</v>
+      </c>
+      <c r="F191" s="18">
+        <f t="shared" si="2"/>
+        <v>8143</v>
+      </c>
     </row>
     <row r="192" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="3"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
+      <c r="F192" s="18">
+        <f t="shared" si="2"/>
+        <v>8143</v>
+      </c>
     </row>
     <row r="193" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="3"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
+      <c r="F193" s="18">
+        <f t="shared" si="2"/>
+        <v>8143</v>
+      </c>
     </row>
     <row r="194" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="4"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="2"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="18">
+        <f t="shared" si="2"/>
+        <v>8143</v>
+      </c>
     </row>
     <row r="195" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="7"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="24">
+        <f t="shared" si="2"/>
+        <v>8143</v>
+      </c>
     </row>
     <row r="196" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="7"/>
-    </row>
-    <row r="197" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="24"/>
+    </row>
+    <row r="197" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="15"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="18"/>
+    </row>
+    <row r="198" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="3"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="18"/>
+    </row>
+    <row r="199" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="3"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="18"/>
+    </row>
+    <row r="200" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="3"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="18"/>
+    </row>
     <row r="201" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="8"/>
-      <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="18"/>
     </row>
     <row r="202" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="8"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="9"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="18"/>
     </row>
     <row r="203" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="8"/>
-      <c r="D203" s="9"/>
-      <c r="E203" s="9"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
     </row>
     <row r="204" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="8"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="9"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
     </row>
     <row r="205" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="8"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="9"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
     </row>
     <row r="206" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="8"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="9"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
     </row>
     <row r="207" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="8"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
     </row>
     <row r="208" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="8"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-    </row>
-    <row r="209" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="8"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
-    </row>
-    <row r="210" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="8"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
-    </row>
-    <row r="211" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="8"/>
-      <c r="D211" s="9"/>
-      <c r="E211" s="9"/>
-    </row>
-    <row r="212" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="8"/>
-      <c r="D212" s="9"/>
-      <c r="E212" s="9"/>
-    </row>
-    <row r="213" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="8"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
-    </row>
-    <row r="214" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="8"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
-    </row>
-    <row r="215" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="8"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
-    </row>
-    <row r="216" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="8"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
-    </row>
-    <row r="217" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="8"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
-    </row>
-    <row r="218" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="8"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
-    </row>
-    <row r="219" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="8"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
-    </row>
-    <row r="220" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="8"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-    </row>
-    <row r="221" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="8"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-    </row>
-    <row r="222" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="8"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-    </row>
-    <row r="223" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="8"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-    </row>
-    <row r="224" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="8"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
-    </row>
-    <row r="225" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="8"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
-    </row>
-    <row r="226" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="8"/>
-      <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
-    </row>
-    <row r="227" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="8"/>
-      <c r="D227" s="9"/>
-      <c r="E227" s="9"/>
-    </row>
-    <row r="228" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="8"/>
-      <c r="D228" s="9"/>
-      <c r="E228" s="9"/>
-    </row>
-    <row r="229" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="8"/>
-      <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
-    </row>
-    <row r="230" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="8"/>
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
-    </row>
-    <row r="231" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="8"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
-    </row>
-    <row r="232" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="8"/>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
-    </row>
-    <row r="233" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="8"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
-    </row>
-    <row r="234" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="3"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="3"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="3"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="3"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="3"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="3"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="3"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="3"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="3"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="3"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="3"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="3"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="3"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="3"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="3"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="3"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="3"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="3"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="4"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="7"/>
+    </row>
+    <row r="229" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="7"/>
+    </row>
+    <row r="230" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="8"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
     </row>
-    <row r="235" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="8"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
     </row>
-    <row r="236" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="8"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
     </row>
-    <row r="237" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="8"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
     </row>
-    <row r="238" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="8"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
     </row>
-    <row r="239" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="8"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
     </row>
-    <row r="240" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="8"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -4150,390 +4593,390 @@
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
     </row>
-    <row r="289" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="8"/>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
     </row>
-    <row r="290" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="8"/>
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
     </row>
-    <row r="291" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="8"/>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
     </row>
-    <row r="292" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="8"/>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
     </row>
-    <row r="293" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="8"/>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
     </row>
-    <row r="294" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="8"/>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
     </row>
-    <row r="295" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="8"/>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
     </row>
-    <row r="296" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="8"/>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
     </row>
-    <row r="297" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="8"/>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
     </row>
-    <row r="298" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="8"/>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
     </row>
-    <row r="299" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="8"/>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
     </row>
-    <row r="300" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="8"/>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
     </row>
-    <row r="301" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="8"/>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
     </row>
-    <row r="302" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="8"/>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
-      <c r="G302" s="10"/>
-    </row>
-    <row r="303" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="8"/>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
-      <c r="G303" s="10"/>
-    </row>
-    <row r="304" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="8"/>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
-      <c r="G304" s="10"/>
-    </row>
-    <row r="305" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="8"/>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
-      <c r="G305" s="10"/>
-      <c r="H305" s="10"/>
-    </row>
-    <row r="306" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="8"/>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
-      <c r="F306" s="10"/>
-      <c r="H306" s="10"/>
-      <c r="I306" s="10"/>
-      <c r="J306" s="10"/>
-      <c r="K306" s="10"/>
-      <c r="L306" s="10"/>
-      <c r="M306" s="10"/>
-      <c r="N306" s="10"/>
-      <c r="O306" s="10"/>
-      <c r="P306" s="10"/>
-      <c r="Q306" s="10"/>
-      <c r="R306" s="10"/>
-      <c r="S306" s="10"/>
-      <c r="T306" s="10"/>
-      <c r="U306" s="10"/>
-      <c r="V306" s="10"/>
-    </row>
-    <row r="307" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="8"/>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
-      <c r="F307" s="10"/>
-      <c r="H307" s="10"/>
-      <c r="I307" s="10"/>
-      <c r="J307" s="10"/>
-      <c r="K307" s="10"/>
-      <c r="L307" s="10"/>
-      <c r="M307" s="10"/>
-      <c r="N307" s="10"/>
-      <c r="O307" s="10"/>
-      <c r="P307" s="10"/>
-      <c r="Q307" s="10"/>
-      <c r="R307" s="10"/>
-      <c r="S307" s="10"/>
-      <c r="T307" s="10"/>
-      <c r="U307" s="10"/>
-      <c r="V307" s="10"/>
-    </row>
-    <row r="308" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="8"/>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
-      <c r="F308" s="10"/>
-      <c r="H308" s="10"/>
-      <c r="I308" s="10"/>
-      <c r="J308" s="10"/>
-      <c r="K308" s="10"/>
-      <c r="L308" s="10"/>
-      <c r="M308" s="10"/>
-      <c r="N308" s="10"/>
-      <c r="O308" s="10"/>
-      <c r="P308" s="10"/>
-      <c r="Q308" s="10"/>
-      <c r="R308" s="10"/>
-      <c r="S308" s="10"/>
-      <c r="T308" s="10"/>
-      <c r="U308" s="10"/>
-      <c r="V308" s="10"/>
-    </row>
-    <row r="309" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="8"/>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
-      <c r="F309" s="10"/>
-      <c r="I309" s="10"/>
-      <c r="J309" s="10"/>
-      <c r="K309" s="10"/>
-      <c r="L309" s="10"/>
-      <c r="M309" s="10"/>
-      <c r="N309" s="10"/>
-      <c r="O309" s="10"/>
-      <c r="P309" s="10"/>
-      <c r="Q309" s="10"/>
-      <c r="R309" s="10"/>
-      <c r="S309" s="10"/>
-      <c r="T309" s="10"/>
-      <c r="U309" s="10"/>
-      <c r="V309" s="10"/>
-    </row>
-    <row r="310" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="8"/>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
     </row>
-    <row r="311" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="8"/>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
     </row>
-    <row r="312" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="8"/>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
     </row>
-    <row r="313" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="8"/>
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
     </row>
-    <row r="314" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="8"/>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
     </row>
-    <row r="315" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="8"/>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
     </row>
-    <row r="316" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="8"/>
       <c r="D316" s="9"/>
       <c r="E316" s="9"/>
     </row>
-    <row r="317" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="8"/>
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
     </row>
-    <row r="318" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="8"/>
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
     </row>
-    <row r="319" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="8"/>
       <c r="D319" s="9"/>
       <c r="E319" s="9"/>
     </row>
-    <row r="320" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="8"/>
       <c r="D320" s="9"/>
       <c r="E320" s="9"/>
     </row>
-    <row r="321" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="8"/>
       <c r="D321" s="9"/>
       <c r="E321" s="9"/>
     </row>
-    <row r="322" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="8"/>
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
     </row>
-    <row r="323" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="8"/>
       <c r="D323" s="9"/>
       <c r="E323" s="9"/>
     </row>
-    <row r="324" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="8"/>
       <c r="D324" s="9"/>
       <c r="E324" s="9"/>
     </row>
-    <row r="325" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="8"/>
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
     </row>
-    <row r="326" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="8"/>
       <c r="D326" s="9"/>
       <c r="E326" s="9"/>
     </row>
-    <row r="327" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="8"/>
       <c r="D327" s="9"/>
       <c r="E327" s="9"/>
     </row>
-    <row r="328" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="8"/>
       <c r="D328" s="9"/>
       <c r="E328" s="9"/>
     </row>
-    <row r="329" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="8"/>
       <c r="D329" s="9"/>
       <c r="E329" s="9"/>
     </row>
-    <row r="330" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="8"/>
       <c r="D330" s="9"/>
       <c r="E330" s="9"/>
     </row>
-    <row r="331" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="8"/>
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
     </row>
-    <row r="332" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="8"/>
       <c r="D332" s="9"/>
       <c r="E332" s="9"/>
     </row>
-    <row r="333" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="8"/>
       <c r="D333" s="9"/>
       <c r="E333" s="9"/>
     </row>
-    <row r="334" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="8"/>
       <c r="D334" s="9"/>
       <c r="E334" s="9"/>
     </row>
-    <row r="335" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="8"/>
       <c r="D335" s="9"/>
       <c r="E335" s="9"/>
-    </row>
-    <row r="336" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G335" s="10"/>
+    </row>
+    <row r="336" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="8"/>
       <c r="D336" s="9"/>
       <c r="E336" s="9"/>
-    </row>
-    <row r="337" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G336" s="10"/>
+    </row>
+    <row r="337" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="8"/>
       <c r="D337" s="9"/>
       <c r="E337" s="9"/>
-    </row>
-    <row r="338" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G337" s="10"/>
+    </row>
+    <row r="338" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="8"/>
       <c r="D338" s="9"/>
       <c r="E338" s="9"/>
-    </row>
-    <row r="339" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G338" s="10"/>
+      <c r="H338" s="10"/>
+    </row>
+    <row r="339" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="8"/>
       <c r="D339" s="9"/>
       <c r="E339" s="9"/>
-    </row>
-    <row r="340" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F339" s="10"/>
+      <c r="H339" s="10"/>
+      <c r="I339" s="10"/>
+      <c r="J339" s="10"/>
+      <c r="K339" s="10"/>
+      <c r="L339" s="10"/>
+      <c r="M339" s="10"/>
+      <c r="N339" s="10"/>
+      <c r="O339" s="10"/>
+      <c r="P339" s="10"/>
+      <c r="Q339" s="10"/>
+      <c r="R339" s="10"/>
+      <c r="S339" s="10"/>
+      <c r="T339" s="10"/>
+      <c r="U339" s="10"/>
+      <c r="V339" s="10"/>
+    </row>
+    <row r="340" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="8"/>
       <c r="D340" s="9"/>
       <c r="E340" s="9"/>
-    </row>
-    <row r="341" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F340" s="10"/>
+      <c r="H340" s="10"/>
+      <c r="I340" s="10"/>
+      <c r="J340" s="10"/>
+      <c r="K340" s="10"/>
+      <c r="L340" s="10"/>
+      <c r="M340" s="10"/>
+      <c r="N340" s="10"/>
+      <c r="O340" s="10"/>
+      <c r="P340" s="10"/>
+      <c r="Q340" s="10"/>
+      <c r="R340" s="10"/>
+      <c r="S340" s="10"/>
+      <c r="T340" s="10"/>
+      <c r="U340" s="10"/>
+      <c r="V340" s="10"/>
+    </row>
+    <row r="341" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="8"/>
       <c r="D341" s="9"/>
       <c r="E341" s="9"/>
-    </row>
-    <row r="342" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F341" s="10"/>
+      <c r="H341" s="10"/>
+      <c r="I341" s="10"/>
+      <c r="J341" s="10"/>
+      <c r="K341" s="10"/>
+      <c r="L341" s="10"/>
+      <c r="M341" s="10"/>
+      <c r="N341" s="10"/>
+      <c r="O341" s="10"/>
+      <c r="P341" s="10"/>
+      <c r="Q341" s="10"/>
+      <c r="R341" s="10"/>
+      <c r="S341" s="10"/>
+      <c r="T341" s="10"/>
+      <c r="U341" s="10"/>
+      <c r="V341" s="10"/>
+    </row>
+    <row r="342" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="8"/>
       <c r="D342" s="9"/>
       <c r="E342" s="9"/>
-    </row>
-    <row r="343" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F342" s="10"/>
+      <c r="I342" s="10"/>
+      <c r="J342" s="10"/>
+      <c r="K342" s="10"/>
+      <c r="L342" s="10"/>
+      <c r="M342" s="10"/>
+      <c r="N342" s="10"/>
+      <c r="O342" s="10"/>
+      <c r="P342" s="10"/>
+      <c r="Q342" s="10"/>
+      <c r="R342" s="10"/>
+      <c r="S342" s="10"/>
+      <c r="T342" s="10"/>
+      <c r="U342" s="10"/>
+      <c r="V342" s="10"/>
+    </row>
+    <row r="343" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="8"/>
       <c r="D343" s="9"/>
       <c r="E343" s="9"/>
     </row>
-    <row r="344" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="8"/>
       <c r="D344" s="9"/>
       <c r="E344" s="9"/>
     </row>
-    <row r="345" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="8"/>
       <c r="D345" s="9"/>
       <c r="E345" s="9"/>
     </row>
-    <row r="346" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="8"/>
       <c r="D346" s="9"/>
       <c r="E346" s="9"/>
     </row>
-    <row r="347" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="8"/>
       <c r="D347" s="9"/>
       <c r="E347" s="9"/>
     </row>
-    <row r="348" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="8"/>
       <c r="D348" s="9"/>
       <c r="E348" s="9"/>
     </row>
-    <row r="349" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="8"/>
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
     </row>
-    <row r="350" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="8"/>
       <c r="D350" s="9"/>
       <c r="E350" s="9"/>
     </row>
-    <row r="351" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="8"/>
       <c r="D351" s="9"/>
       <c r="E351" s="9"/>
     </row>
-    <row r="352" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="8"/>
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
@@ -7643,41 +8086,173 @@
       <c r="D973" s="9"/>
       <c r="E973" s="9"/>
     </row>
-    <row r="974" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B974" s="8"/>
+      <c r="D974" s="9"/>
+      <c r="E974" s="9"/>
+    </row>
+    <row r="975" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B975" s="8"/>
+      <c r="D975" s="9"/>
+      <c r="E975" s="9"/>
+    </row>
+    <row r="976" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B976" s="8"/>
+      <c r="D976" s="9"/>
+      <c r="E976" s="9"/>
+    </row>
+    <row r="977" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B977" s="8"/>
+      <c r="D977" s="9"/>
+      <c r="E977" s="9"/>
+    </row>
+    <row r="978" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B978" s="8"/>
+      <c r="D978" s="9"/>
+      <c r="E978" s="9"/>
+    </row>
+    <row r="979" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B979" s="8"/>
+      <c r="D979" s="9"/>
+      <c r="E979" s="9"/>
+    </row>
+    <row r="980" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B980" s="8"/>
+      <c r="D980" s="9"/>
+      <c r="E980" s="9"/>
+    </row>
+    <row r="981" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B981" s="8"/>
+      <c r="D981" s="9"/>
+      <c r="E981" s="9"/>
+    </row>
+    <row r="982" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B982" s="8"/>
+      <c r="D982" s="9"/>
+      <c r="E982" s="9"/>
+    </row>
+    <row r="983" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B983" s="8"/>
+      <c r="D983" s="9"/>
+      <c r="E983" s="9"/>
+    </row>
+    <row r="984" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B984" s="8"/>
+      <c r="D984" s="9"/>
+      <c r="E984" s="9"/>
+    </row>
+    <row r="985" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B985" s="8"/>
+      <c r="D985" s="9"/>
+      <c r="E985" s="9"/>
+    </row>
+    <row r="986" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B986" s="8"/>
+      <c r="D986" s="9"/>
+      <c r="E986" s="9"/>
+    </row>
+    <row r="987" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B987" s="8"/>
+      <c r="D987" s="9"/>
+      <c r="E987" s="9"/>
+    </row>
+    <row r="988" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B988" s="8"/>
+      <c r="D988" s="9"/>
+      <c r="E988" s="9"/>
+    </row>
+    <row r="989" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B989" s="8"/>
+      <c r="D989" s="9"/>
+      <c r="E989" s="9"/>
+    </row>
+    <row r="990" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B990" s="8"/>
+      <c r="D990" s="9"/>
+      <c r="E990" s="9"/>
+    </row>
+    <row r="991" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B991" s="8"/>
+      <c r="D991" s="9"/>
+      <c r="E991" s="9"/>
+    </row>
+    <row r="992" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B992" s="8"/>
+      <c r="D992" s="9"/>
+      <c r="E992" s="9"/>
+    </row>
+    <row r="993" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B993" s="8"/>
+      <c r="D993" s="9"/>
+      <c r="E993" s="9"/>
+    </row>
+    <row r="994" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B994" s="8"/>
+      <c r="D994" s="9"/>
+      <c r="E994" s="9"/>
+    </row>
+    <row r="995" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B995" s="8"/>
+      <c r="D995" s="9"/>
+      <c r="E995" s="9"/>
+    </row>
+    <row r="996" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B996" s="8"/>
+      <c r="D996" s="9"/>
+      <c r="E996" s="9"/>
+    </row>
+    <row r="997" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B997" s="8"/>
+      <c r="D997" s="9"/>
+      <c r="E997" s="9"/>
+    </row>
+    <row r="998" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B998" s="8"/>
+      <c r="D998" s="9"/>
+      <c r="E998" s="9"/>
+    </row>
+    <row r="999" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B999" s="8"/>
+      <c r="D999" s="9"/>
+      <c r="E999" s="9"/>
+    </row>
+    <row r="1000" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1000" s="8"/>
+      <c r="D1000" s="9"/>
+      <c r="E1000" s="9"/>
+    </row>
+    <row r="1001" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1001" s="8"/>
+      <c r="D1001" s="9"/>
+      <c r="E1001" s="9"/>
+    </row>
+    <row r="1002" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1002" s="8"/>
+      <c r="D1002" s="9"/>
+      <c r="E1002" s="9"/>
+    </row>
+    <row r="1003" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1003" s="8"/>
+      <c r="D1003" s="9"/>
+      <c r="E1003" s="9"/>
+    </row>
+    <row r="1004" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1004" s="8"/>
+      <c r="D1004" s="9"/>
+      <c r="E1004" s="9"/>
+    </row>
+    <row r="1005" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1005" s="8"/>
+      <c r="D1005" s="9"/>
+      <c r="E1005" s="9"/>
+    </row>
+    <row r="1006" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1006" s="8"/>
+      <c r="D1006" s="9"/>
+      <c r="E1006" s="9"/>
+    </row>
+    <row r="1007" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7770,6 +8345,39 @@
     <row r="1098" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05354C9E-8E3B-4328-8051-546513012AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FED673-1076-436D-97C3-B2B3C9E3AA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -458,6 +458,63 @@
   </si>
   <si>
     <t xml:space="preserve">Yasir Petrol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff Juice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basit Bearing change Petrol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bao Usman Advance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shakeel Advance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receving Book </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjum sahb Home Payment (Petrol Ali) AA Baban </t>
+  </si>
+  <si>
+    <t>Freight AA Baban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol Anjum Sahb Home Neddels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol Bearing Mansorabad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venirr Clipper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitoil Bottel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol 5 Liter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cane For Petrol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol Bao Usman </t>
+  </si>
+  <si>
+    <t>Sheetel Racket Wealding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samundhri Road Petrol Railyway Bazar Ali Butt - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTI Copessotor Bike Ali Butt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basit Petrol Return </t>
   </si>
 </sst>
 </file>
@@ -769,13 +826,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -993,17 +1050,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V1133"/>
+  <dimension ref="A3:V1158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1"/>
     <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="17.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
@@ -1013,20 +1070,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:11" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
@@ -3098,7 +3155,7 @@
         <v>15000</v>
       </c>
       <c r="F133" s="24">
-        <f t="shared" ref="F133:F195" si="2">F132+D133-E133</f>
+        <f t="shared" ref="F133:F220" si="2">F132+D133-E133</f>
         <v>550</v>
       </c>
     </row>
@@ -3604,7 +3661,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="28"/>
+      <c r="A165" s="27"/>
       <c r="B165" s="15">
         <v>45882</v>
       </c>
@@ -3789,12 +3846,12 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2">
-        <f>1090+300</f>
-        <v>1390</v>
+        <f>1090+300+3</f>
+        <v>1393</v>
       </c>
       <c r="F176" s="18">
         <f t="shared" si="2"/>
-        <v>2663</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="177" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3810,7 +3867,7 @@
       </c>
       <c r="F177" s="18">
         <f t="shared" si="2"/>
-        <v>2563</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="178" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3826,7 +3883,7 @@
       </c>
       <c r="F178" s="18">
         <f t="shared" si="2"/>
-        <v>2463</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="179" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3842,7 +3899,7 @@
       </c>
       <c r="F179" s="18">
         <f t="shared" si="2"/>
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="180" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3858,7 +3915,7 @@
       </c>
       <c r="F180" s="18">
         <f t="shared" si="2"/>
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="181" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,13 +3925,13 @@
       <c r="C181" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D181" s="27">
+      <c r="D181" s="26">
         <v>10000</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="18">
         <f t="shared" si="2"/>
-        <v>12063</v>
+        <v>12060</v>
       </c>
     </row>
     <row r="182" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3890,7 +3947,7 @@
       </c>
       <c r="F182" s="18">
         <f t="shared" si="2"/>
-        <v>11963</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="183" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3906,7 +3963,7 @@
       </c>
       <c r="F183" s="18">
         <f t="shared" si="2"/>
-        <v>11763</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="184" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3922,7 +3979,7 @@
       </c>
       <c r="F184" s="18">
         <f t="shared" si="2"/>
-        <v>10763</v>
+        <v>10760</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,7 +3995,7 @@
       </c>
       <c r="F185" s="18">
         <f t="shared" si="2"/>
-        <v>10263</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="186" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3954,7 +4011,7 @@
       </c>
       <c r="F186" s="18">
         <f t="shared" si="2"/>
-        <v>9703</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="187" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3970,7 +4027,7 @@
       </c>
       <c r="F187" s="18">
         <f t="shared" si="2"/>
-        <v>9643</v>
+        <v>9640</v>
       </c>
     </row>
     <row r="188" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3986,7 +4043,7 @@
       </c>
       <c r="F188" s="18">
         <f t="shared" si="2"/>
-        <v>9443</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="189" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4002,7 +4059,7 @@
       </c>
       <c r="F189" s="18">
         <f t="shared" si="2"/>
-        <v>9343</v>
+        <v>9340</v>
       </c>
     </row>
     <row r="190" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4075,7 @@
       </c>
       <c r="F190" s="18">
         <f t="shared" si="2"/>
-        <v>8343</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="191" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4032,417 +4089,698 @@
       <c r="E191" s="2">
         <v>200</v>
       </c>
-      <c r="F191" s="18">
+      <c r="F191" s="24">
         <f t="shared" si="2"/>
-        <v>8143</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="192" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="15"/>
-      <c r="C192" s="2"/>
+      <c r="B192" s="15">
+        <v>45888</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
+      <c r="E192" s="2">
+        <v>100</v>
+      </c>
       <c r="F192" s="18">
         <f t="shared" si="2"/>
-        <v>8143</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="193" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="15"/>
-      <c r="C193" s="2"/>
+      <c r="B193" s="15">
+        <v>45888</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
+      <c r="E193" s="2">
+        <v>340</v>
+      </c>
       <c r="F193" s="18">
         <f t="shared" si="2"/>
-        <v>8143</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="194" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="15"/>
-      <c r="C194" s="2"/>
+      <c r="B194" s="15">
+        <v>45888</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
+      <c r="E194" s="2">
+        <v>250</v>
+      </c>
       <c r="F194" s="18">
         <f t="shared" si="2"/>
-        <v>8143</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="195" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="15"/>
-      <c r="C195" s="2"/>
+      <c r="B195" s="15">
+        <v>45888</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="24">
+      <c r="E195" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F195" s="18">
         <f t="shared" si="2"/>
-        <v>8143</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="196" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="15"/>
-      <c r="C196" s="2"/>
+      <c r="B196" s="15">
+        <v>45888</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="24"/>
+      <c r="E196" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F196" s="18">
+        <f t="shared" si="2"/>
+        <v>4450</v>
+      </c>
     </row>
     <row r="197" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="15"/>
-      <c r="C197" s="2"/>
+      <c r="B197" s="15">
+        <v>45889</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="18"/>
+      <c r="E197" s="2">
+        <v>150</v>
+      </c>
+      <c r="F197" s="18">
+        <f t="shared" si="2"/>
+        <v>4300</v>
+      </c>
     </row>
     <row r="198" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="3"/>
-      <c r="C198" s="2"/>
+      <c r="B198" s="15">
+        <v>45889</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="18"/>
+      <c r="E198" s="2">
+        <v>200</v>
+      </c>
+      <c r="F198" s="18">
+        <f t="shared" si="2"/>
+        <v>4100</v>
+      </c>
     </row>
     <row r="199" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="3"/>
-      <c r="C199" s="2"/>
+      <c r="B199" s="15">
+        <v>45889</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="18"/>
+      <c r="E199" s="2">
+        <v>100</v>
+      </c>
+      <c r="F199" s="18">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
     </row>
     <row r="200" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="3"/>
-      <c r="C200" s="2"/>
+      <c r="B200" s="15">
+        <v>45889</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="18"/>
+      <c r="E200" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F200" s="18">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
     </row>
     <row r="201" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="3"/>
-      <c r="C201" s="2"/>
+      <c r="B201" s="15">
+        <v>45890</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="18"/>
+      <c r="E201" s="2">
+        <v>100</v>
+      </c>
+      <c r="F201" s="18">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
     </row>
     <row r="202" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="3"/>
-      <c r="C202" s="2"/>
+      <c r="B202" s="15">
+        <v>45890</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="18"/>
+      <c r="E202" s="2">
+        <v>200</v>
+      </c>
+      <c r="F202" s="18">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
     </row>
     <row r="203" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="3"/>
-      <c r="C203" s="2"/>
+      <c r="B203" s="15">
+        <v>45890</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
+      <c r="E203" s="2">
+        <v>270</v>
+      </c>
+      <c r="F203" s="18">
+        <f t="shared" si="2"/>
+        <v>2430</v>
+      </c>
     </row>
     <row r="204" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="3"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
+      <c r="B204" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D204" s="2">
+        <v>10000</v>
+      </c>
       <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
+      <c r="F204" s="18">
+        <f t="shared" si="2"/>
+        <v>12430</v>
+      </c>
     </row>
     <row r="205" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="3"/>
-      <c r="C205" s="2"/>
+      <c r="B205" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
+      <c r="E205" s="2">
+        <v>100</v>
+      </c>
+      <c r="F205" s="18">
+        <f t="shared" si="2"/>
+        <v>12330</v>
+      </c>
     </row>
     <row r="206" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="3"/>
-      <c r="C206" s="2"/>
+      <c r="B206" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
+      <c r="E206" s="2">
+        <v>150</v>
+      </c>
+      <c r="F206" s="18">
+        <f t="shared" si="2"/>
+        <v>12180</v>
+      </c>
     </row>
     <row r="207" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="3"/>
-      <c r="C207" s="2"/>
+      <c r="B207" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
+      <c r="E207" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F207" s="18">
+        <f t="shared" si="2"/>
+        <v>8980</v>
+      </c>
     </row>
     <row r="208" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="3"/>
-      <c r="C208" s="2"/>
+      <c r="B208" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
+      <c r="E208" s="2">
+        <v>560</v>
+      </c>
+      <c r="F208" s="18">
+        <f t="shared" si="2"/>
+        <v>8420</v>
+      </c>
     </row>
     <row r="209" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="3"/>
-      <c r="C209" s="2"/>
+      <c r="B209" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
+      <c r="E209" s="2">
+        <v>1327</v>
+      </c>
+      <c r="F209" s="18">
+        <f t="shared" si="2"/>
+        <v>7093</v>
+      </c>
     </row>
     <row r="210" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="3"/>
-      <c r="C210" s="2"/>
+      <c r="B210" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
+      <c r="E210" s="2">
+        <v>300</v>
+      </c>
+      <c r="F210" s="18">
+        <f t="shared" si="2"/>
+        <v>6793</v>
+      </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="3"/>
-      <c r="C211" s="2"/>
+      <c r="B211" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
+      <c r="E211" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F211" s="18">
+        <f t="shared" si="2"/>
+        <v>5593</v>
+      </c>
     </row>
     <row r="212" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="3"/>
-      <c r="C212" s="2"/>
+      <c r="B212" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
+      <c r="E212" s="2">
+        <v>150</v>
+      </c>
+      <c r="F212" s="18">
+        <f t="shared" si="2"/>
+        <v>5443</v>
+      </c>
     </row>
     <row r="213" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="3"/>
-      <c r="C213" s="2"/>
+      <c r="B213" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
+      <c r="E213" s="2">
+        <v>265</v>
+      </c>
+      <c r="F213" s="18">
+        <f t="shared" si="2"/>
+        <v>5178</v>
+      </c>
     </row>
     <row r="214" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="3"/>
-      <c r="C214" s="2"/>
+      <c r="B214" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
+      <c r="E214" s="2">
+        <v>350</v>
+      </c>
+      <c r="F214" s="18">
+        <f t="shared" si="2"/>
+        <v>4828</v>
+      </c>
     </row>
     <row r="215" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="3"/>
-      <c r="C215" s="2"/>
+      <c r="B215" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
+      <c r="E215" s="2">
+        <v>100</v>
+      </c>
+      <c r="F215" s="18">
+        <f t="shared" si="2"/>
+        <v>4728</v>
+      </c>
     </row>
     <row r="216" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="3"/>
-      <c r="C216" s="2"/>
+      <c r="B216" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
+      <c r="E216" s="2">
+        <v>200</v>
+      </c>
+      <c r="F216" s="18">
+        <f t="shared" si="2"/>
+        <v>4528</v>
+      </c>
     </row>
     <row r="217" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="3"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="B217" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D217" s="2">
+        <v>50</v>
+      </c>
       <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
+      <c r="F217" s="18">
+        <f t="shared" si="2"/>
+        <v>4578</v>
+      </c>
     </row>
     <row r="218" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="3"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
+      <c r="F218" s="18">
+        <f t="shared" si="2"/>
+        <v>4578</v>
+      </c>
     </row>
     <row r="219" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="3"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
+      <c r="F219" s="18">
+        <f t="shared" si="2"/>
+        <v>4578</v>
+      </c>
     </row>
     <row r="220" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="3"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
+      <c r="F220" s="24">
+        <f t="shared" si="2"/>
+        <v>4578</v>
+      </c>
     </row>
     <row r="221" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="3"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
+      <c r="F221" s="24"/>
     </row>
     <row r="222" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="3"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
+      <c r="F222" s="18"/>
     </row>
     <row r="223" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="3"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
+      <c r="F223" s="18"/>
     </row>
     <row r="224" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
+      <c r="F224" s="18"/>
     </row>
     <row r="225" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
+      <c r="F225" s="18"/>
     </row>
     <row r="226" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
+      <c r="F226" s="18"/>
     </row>
     <row r="227" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="4"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="2"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="18"/>
     </row>
     <row r="228" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
-      <c r="F228" s="7"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
     </row>
     <row r="229" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
-      <c r="F229" s="7"/>
-    </row>
-    <row r="230" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="3"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="3"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="3"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="3"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+    </row>
     <row r="234" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="8"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
     </row>
     <row r="235" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="8"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
     </row>
     <row r="236" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="8"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
     </row>
     <row r="237" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="8"/>
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
     </row>
     <row r="238" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="8"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
     </row>
     <row r="239" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="8"/>
-      <c r="D239" s="9"/>
-      <c r="E239" s="9"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
     </row>
     <row r="240" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="8"/>
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
-    </row>
-    <row r="241" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="8"/>
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
-    </row>
-    <row r="242" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="8"/>
-      <c r="D242" s="9"/>
-      <c r="E242" s="9"/>
-    </row>
-    <row r="243" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="8"/>
-      <c r="D243" s="9"/>
-      <c r="E243" s="9"/>
-    </row>
-    <row r="244" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="8"/>
-      <c r="D244" s="9"/>
-      <c r="E244" s="9"/>
-    </row>
-    <row r="245" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="8"/>
-      <c r="D245" s="9"/>
-      <c r="E245" s="9"/>
-    </row>
-    <row r="246" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="8"/>
-      <c r="D246" s="9"/>
-      <c r="E246" s="9"/>
-    </row>
-    <row r="247" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="8"/>
-      <c r="D247" s="9"/>
-      <c r="E247" s="9"/>
-    </row>
-    <row r="248" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="8"/>
-      <c r="D248" s="9"/>
-      <c r="E248" s="9"/>
-    </row>
-    <row r="249" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="8"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="9"/>
-    </row>
-    <row r="250" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="8"/>
-      <c r="D250" s="9"/>
-      <c r="E250" s="9"/>
-    </row>
-    <row r="251" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="8"/>
-      <c r="D251" s="9"/>
-      <c r="E251" s="9"/>
-    </row>
-    <row r="252" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="8"/>
-      <c r="D252" s="9"/>
-      <c r="E252" s="9"/>
-    </row>
-    <row r="253" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="8"/>
-      <c r="D253" s="9"/>
-      <c r="E253" s="9"/>
-    </row>
-    <row r="254" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="8"/>
-      <c r="D254" s="9"/>
-      <c r="E254" s="9"/>
-    </row>
-    <row r="255" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="8"/>
-      <c r="D255" s="9"/>
-      <c r="E255" s="9"/>
-    </row>
-    <row r="256" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="8"/>
-      <c r="D256" s="9"/>
-      <c r="E256" s="9"/>
-    </row>
-    <row r="257" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="8"/>
-      <c r="D257" s="9"/>
-      <c r="E257" s="9"/>
-    </row>
-    <row r="258" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="8"/>
-      <c r="D258" s="9"/>
-      <c r="E258" s="9"/>
-    </row>
+      <c r="B240" s="3"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="3"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="3"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="3"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="3"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="3"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="3"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="3"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="3"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="3"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="3"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="4"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="7"/>
+    </row>
+    <row r="254" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="7"/>
+    </row>
+    <row r="255" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="259" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="8"/>
       <c r="D259" s="9"/>
@@ -4753,310 +5091,310 @@
       <c r="D320" s="9"/>
       <c r="E320" s="9"/>
     </row>
-    <row r="321" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="8"/>
       <c r="D321" s="9"/>
       <c r="E321" s="9"/>
     </row>
-    <row r="322" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="8"/>
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
     </row>
-    <row r="323" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="8"/>
       <c r="D323" s="9"/>
       <c r="E323" s="9"/>
     </row>
-    <row r="324" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="8"/>
       <c r="D324" s="9"/>
       <c r="E324" s="9"/>
     </row>
-    <row r="325" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="8"/>
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
     </row>
-    <row r="326" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="8"/>
       <c r="D326" s="9"/>
       <c r="E326" s="9"/>
     </row>
-    <row r="327" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="8"/>
       <c r="D327" s="9"/>
       <c r="E327" s="9"/>
     </row>
-    <row r="328" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="8"/>
       <c r="D328" s="9"/>
       <c r="E328" s="9"/>
     </row>
-    <row r="329" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="8"/>
       <c r="D329" s="9"/>
       <c r="E329" s="9"/>
     </row>
-    <row r="330" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="8"/>
       <c r="D330" s="9"/>
       <c r="E330" s="9"/>
     </row>
-    <row r="331" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="8"/>
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
     </row>
-    <row r="332" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="8"/>
       <c r="D332" s="9"/>
       <c r="E332" s="9"/>
     </row>
-    <row r="333" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="8"/>
       <c r="D333" s="9"/>
       <c r="E333" s="9"/>
     </row>
-    <row r="334" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="8"/>
       <c r="D334" s="9"/>
       <c r="E334" s="9"/>
     </row>
-    <row r="335" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="8"/>
       <c r="D335" s="9"/>
       <c r="E335" s="9"/>
-      <c r="G335" s="10"/>
-    </row>
-    <row r="336" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="8"/>
       <c r="D336" s="9"/>
       <c r="E336" s="9"/>
-      <c r="G336" s="10"/>
-    </row>
-    <row r="337" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="8"/>
       <c r="D337" s="9"/>
       <c r="E337" s="9"/>
-      <c r="G337" s="10"/>
-    </row>
-    <row r="338" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="8"/>
       <c r="D338" s="9"/>
       <c r="E338" s="9"/>
-      <c r="G338" s="10"/>
-      <c r="H338" s="10"/>
-    </row>
-    <row r="339" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="8"/>
       <c r="D339" s="9"/>
       <c r="E339" s="9"/>
-      <c r="F339" s="10"/>
-      <c r="H339" s="10"/>
-      <c r="I339" s="10"/>
-      <c r="J339" s="10"/>
-      <c r="K339" s="10"/>
-      <c r="L339" s="10"/>
-      <c r="M339" s="10"/>
-      <c r="N339" s="10"/>
-      <c r="O339" s="10"/>
-      <c r="P339" s="10"/>
-      <c r="Q339" s="10"/>
-      <c r="R339" s="10"/>
-      <c r="S339" s="10"/>
-      <c r="T339" s="10"/>
-      <c r="U339" s="10"/>
-      <c r="V339" s="10"/>
-    </row>
-    <row r="340" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="8"/>
       <c r="D340" s="9"/>
       <c r="E340" s="9"/>
-      <c r="F340" s="10"/>
-      <c r="H340" s="10"/>
-      <c r="I340" s="10"/>
-      <c r="J340" s="10"/>
-      <c r="K340" s="10"/>
-      <c r="L340" s="10"/>
-      <c r="M340" s="10"/>
-      <c r="N340" s="10"/>
-      <c r="O340" s="10"/>
-      <c r="P340" s="10"/>
-      <c r="Q340" s="10"/>
-      <c r="R340" s="10"/>
-      <c r="S340" s="10"/>
-      <c r="T340" s="10"/>
-      <c r="U340" s="10"/>
-      <c r="V340" s="10"/>
-    </row>
-    <row r="341" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="8"/>
       <c r="D341" s="9"/>
       <c r="E341" s="9"/>
-      <c r="F341" s="10"/>
-      <c r="H341" s="10"/>
-      <c r="I341" s="10"/>
-      <c r="J341" s="10"/>
-      <c r="K341" s="10"/>
-      <c r="L341" s="10"/>
-      <c r="M341" s="10"/>
-      <c r="N341" s="10"/>
-      <c r="O341" s="10"/>
-      <c r="P341" s="10"/>
-      <c r="Q341" s="10"/>
-      <c r="R341" s="10"/>
-      <c r="S341" s="10"/>
-      <c r="T341" s="10"/>
-      <c r="U341" s="10"/>
-      <c r="V341" s="10"/>
-    </row>
-    <row r="342" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="8"/>
       <c r="D342" s="9"/>
       <c r="E342" s="9"/>
-      <c r="F342" s="10"/>
-      <c r="I342" s="10"/>
-      <c r="J342" s="10"/>
-      <c r="K342" s="10"/>
-      <c r="L342" s="10"/>
-      <c r="M342" s="10"/>
-      <c r="N342" s="10"/>
-      <c r="O342" s="10"/>
-      <c r="P342" s="10"/>
-      <c r="Q342" s="10"/>
-      <c r="R342" s="10"/>
-      <c r="S342" s="10"/>
-      <c r="T342" s="10"/>
-      <c r="U342" s="10"/>
-      <c r="V342" s="10"/>
-    </row>
-    <row r="343" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="8"/>
       <c r="D343" s="9"/>
       <c r="E343" s="9"/>
     </row>
-    <row r="344" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="8"/>
       <c r="D344" s="9"/>
       <c r="E344" s="9"/>
     </row>
-    <row r="345" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="8"/>
       <c r="D345" s="9"/>
       <c r="E345" s="9"/>
     </row>
-    <row r="346" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="8"/>
       <c r="D346" s="9"/>
       <c r="E346" s="9"/>
     </row>
-    <row r="347" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="8"/>
       <c r="D347" s="9"/>
       <c r="E347" s="9"/>
     </row>
-    <row r="348" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="8"/>
       <c r="D348" s="9"/>
       <c r="E348" s="9"/>
     </row>
-    <row r="349" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="8"/>
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
     </row>
-    <row r="350" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="8"/>
       <c r="D350" s="9"/>
       <c r="E350" s="9"/>
     </row>
-    <row r="351" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="8"/>
       <c r="D351" s="9"/>
       <c r="E351" s="9"/>
     </row>
-    <row r="352" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="8"/>
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
     </row>
-    <row r="353" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="8"/>
       <c r="D353" s="9"/>
       <c r="E353" s="9"/>
     </row>
-    <row r="354" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="8"/>
       <c r="D354" s="9"/>
       <c r="E354" s="9"/>
     </row>
-    <row r="355" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="8"/>
       <c r="D355" s="9"/>
       <c r="E355" s="9"/>
     </row>
-    <row r="356" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="8"/>
       <c r="D356" s="9"/>
       <c r="E356" s="9"/>
     </row>
-    <row r="357" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="8"/>
       <c r="D357" s="9"/>
       <c r="E357" s="9"/>
     </row>
-    <row r="358" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="8"/>
       <c r="D358" s="9"/>
       <c r="E358" s="9"/>
     </row>
-    <row r="359" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="8"/>
       <c r="D359" s="9"/>
       <c r="E359" s="9"/>
     </row>
-    <row r="360" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="8"/>
       <c r="D360" s="9"/>
       <c r="E360" s="9"/>
-    </row>
-    <row r="361" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G360" s="10"/>
+    </row>
+    <row r="361" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="8"/>
       <c r="D361" s="9"/>
       <c r="E361" s="9"/>
-    </row>
-    <row r="362" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G361" s="10"/>
+    </row>
+    <row r="362" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="8"/>
       <c r="D362" s="9"/>
       <c r="E362" s="9"/>
-    </row>
-    <row r="363" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G362" s="10"/>
+    </row>
+    <row r="363" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="8"/>
       <c r="D363" s="9"/>
       <c r="E363" s="9"/>
-    </row>
-    <row r="364" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G363" s="10"/>
+      <c r="H363" s="10"/>
+    </row>
+    <row r="364" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="8"/>
       <c r="D364" s="9"/>
       <c r="E364" s="9"/>
-    </row>
-    <row r="365" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F364" s="10"/>
+      <c r="H364" s="10"/>
+      <c r="I364" s="10"/>
+      <c r="J364" s="10"/>
+      <c r="K364" s="10"/>
+      <c r="L364" s="10"/>
+      <c r="M364" s="10"/>
+      <c r="N364" s="10"/>
+      <c r="O364" s="10"/>
+      <c r="P364" s="10"/>
+      <c r="Q364" s="10"/>
+      <c r="R364" s="10"/>
+      <c r="S364" s="10"/>
+      <c r="T364" s="10"/>
+      <c r="U364" s="10"/>
+      <c r="V364" s="10"/>
+    </row>
+    <row r="365" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="8"/>
       <c r="D365" s="9"/>
       <c r="E365" s="9"/>
-    </row>
-    <row r="366" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F365" s="10"/>
+      <c r="H365" s="10"/>
+      <c r="I365" s="10"/>
+      <c r="J365" s="10"/>
+      <c r="K365" s="10"/>
+      <c r="L365" s="10"/>
+      <c r="M365" s="10"/>
+      <c r="N365" s="10"/>
+      <c r="O365" s="10"/>
+      <c r="P365" s="10"/>
+      <c r="Q365" s="10"/>
+      <c r="R365" s="10"/>
+      <c r="S365" s="10"/>
+      <c r="T365" s="10"/>
+      <c r="U365" s="10"/>
+      <c r="V365" s="10"/>
+    </row>
+    <row r="366" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="8"/>
       <c r="D366" s="9"/>
       <c r="E366" s="9"/>
-    </row>
-    <row r="367" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F366" s="10"/>
+      <c r="H366" s="10"/>
+      <c r="I366" s="10"/>
+      <c r="J366" s="10"/>
+      <c r="K366" s="10"/>
+      <c r="L366" s="10"/>
+      <c r="M366" s="10"/>
+      <c r="N366" s="10"/>
+      <c r="O366" s="10"/>
+      <c r="P366" s="10"/>
+      <c r="Q366" s="10"/>
+      <c r="R366" s="10"/>
+      <c r="S366" s="10"/>
+      <c r="T366" s="10"/>
+      <c r="U366" s="10"/>
+      <c r="V366" s="10"/>
+    </row>
+    <row r="367" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="8"/>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
-    </row>
-    <row r="368" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F367" s="10"/>
+      <c r="I367" s="10"/>
+      <c r="J367" s="10"/>
+      <c r="K367" s="10"/>
+      <c r="L367" s="10"/>
+      <c r="M367" s="10"/>
+      <c r="N367" s="10"/>
+      <c r="O367" s="10"/>
+      <c r="P367" s="10"/>
+      <c r="Q367" s="10"/>
+      <c r="R367" s="10"/>
+      <c r="S367" s="10"/>
+      <c r="T367" s="10"/>
+      <c r="U367" s="10"/>
+      <c r="V367" s="10"/>
+    </row>
+    <row r="368" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="8"/>
       <c r="D368" s="9"/>
       <c r="E368" s="9"/>
@@ -8251,40 +8589,140 @@
       <c r="D1006" s="9"/>
       <c r="E1006" s="9"/>
     </row>
-    <row r="1007" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1034" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1035" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1036" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1037" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1038" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1039" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1040" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1007" s="8"/>
+      <c r="D1007" s="9"/>
+      <c r="E1007" s="9"/>
+    </row>
+    <row r="1008" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1008" s="8"/>
+      <c r="D1008" s="9"/>
+      <c r="E1008" s="9"/>
+    </row>
+    <row r="1009" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1009" s="8"/>
+      <c r="D1009" s="9"/>
+      <c r="E1009" s="9"/>
+    </row>
+    <row r="1010" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1010" s="8"/>
+      <c r="D1010" s="9"/>
+      <c r="E1010" s="9"/>
+    </row>
+    <row r="1011" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1011" s="8"/>
+      <c r="D1011" s="9"/>
+      <c r="E1011" s="9"/>
+    </row>
+    <row r="1012" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1012" s="8"/>
+      <c r="D1012" s="9"/>
+      <c r="E1012" s="9"/>
+    </row>
+    <row r="1013" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1013" s="8"/>
+      <c r="D1013" s="9"/>
+      <c r="E1013" s="9"/>
+    </row>
+    <row r="1014" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1014" s="8"/>
+      <c r="D1014" s="9"/>
+      <c r="E1014" s="9"/>
+    </row>
+    <row r="1015" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1015" s="8"/>
+      <c r="D1015" s="9"/>
+      <c r="E1015" s="9"/>
+    </row>
+    <row r="1016" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1016" s="8"/>
+      <c r="D1016" s="9"/>
+      <c r="E1016" s="9"/>
+    </row>
+    <row r="1017" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1017" s="8"/>
+      <c r="D1017" s="9"/>
+      <c r="E1017" s="9"/>
+    </row>
+    <row r="1018" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1018" s="8"/>
+      <c r="D1018" s="9"/>
+      <c r="E1018" s="9"/>
+    </row>
+    <row r="1019" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1019" s="8"/>
+      <c r="D1019" s="9"/>
+      <c r="E1019" s="9"/>
+    </row>
+    <row r="1020" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1020" s="8"/>
+      <c r="D1020" s="9"/>
+      <c r="E1020" s="9"/>
+    </row>
+    <row r="1021" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1021" s="8"/>
+      <c r="D1021" s="9"/>
+      <c r="E1021" s="9"/>
+    </row>
+    <row r="1022" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1022" s="8"/>
+      <c r="D1022" s="9"/>
+      <c r="E1022" s="9"/>
+    </row>
+    <row r="1023" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1023" s="8"/>
+      <c r="D1023" s="9"/>
+      <c r="E1023" s="9"/>
+    </row>
+    <row r="1024" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1024" s="8"/>
+      <c r="D1024" s="9"/>
+      <c r="E1024" s="9"/>
+    </row>
+    <row r="1025" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1025" s="8"/>
+      <c r="D1025" s="9"/>
+      <c r="E1025" s="9"/>
+    </row>
+    <row r="1026" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1026" s="8"/>
+      <c r="D1026" s="9"/>
+      <c r="E1026" s="9"/>
+    </row>
+    <row r="1027" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1027" s="8"/>
+      <c r="D1027" s="9"/>
+      <c r="E1027" s="9"/>
+    </row>
+    <row r="1028" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1028" s="8"/>
+      <c r="D1028" s="9"/>
+      <c r="E1028" s="9"/>
+    </row>
+    <row r="1029" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1029" s="8"/>
+      <c r="D1029" s="9"/>
+      <c r="E1029" s="9"/>
+    </row>
+    <row r="1030" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1030" s="8"/>
+      <c r="D1030" s="9"/>
+      <c r="E1030" s="9"/>
+    </row>
+    <row r="1031" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1031" s="8"/>
+      <c r="D1031" s="9"/>
+      <c r="E1031" s="9"/>
+    </row>
+    <row r="1032" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1041" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1042" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1043" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8378,6 +8816,31 @@
     <row r="1131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FED673-1076-436D-97C3-B2B3C9E3AA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E736DD6-50D0-48E3-9080-08D4132F6916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -515,6 +515,60 @@
   </si>
   <si>
     <t xml:space="preserve">Basit Petrol Return </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moboil For Machine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Bottel + Biscut Bao Ali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Bearing Petrol </t>
+  </si>
+  <si>
+    <t>Chai Staff Mechnical Dept.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chai For Bao Ali Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Shoper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol For Market Workshop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Cheri Pin Reparing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol Bike Fact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chai Bao Asghar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice For Shahbaz Sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Parts C/O Basit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Window For Parts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Window Reparing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance To Cheema Sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chai Biscut Guest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Bike Reparing </t>
+  </si>
+  <si>
+    <t>Petrol Bike (Sargodha Road)</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V1158"/>
+  <dimension ref="A3:V1183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I228" sqref="I228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3155,7 +3209,7 @@
         <v>15000</v>
       </c>
       <c r="F133" s="24">
-        <f t="shared" ref="F133:F220" si="2">F132+D133-E133</f>
+        <f t="shared" ref="F133:F242" si="2">F132+D133-E133</f>
         <v>550</v>
       </c>
     </row>
@@ -4505,428 +4559,703 @@
         <v>50</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="F217" s="18">
+      <c r="F217" s="24">
         <f t="shared" si="2"/>
         <v>4578</v>
       </c>
     </row>
     <row r="218" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="15"/>
-      <c r="C218" s="2"/>
+      <c r="B218" s="15">
+        <v>45892</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
+      <c r="E218" s="2">
+        <v>1000</v>
+      </c>
       <c r="F218" s="18">
         <f t="shared" si="2"/>
-        <v>4578</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="219" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="15"/>
-      <c r="C219" s="2"/>
+      <c r="B219" s="15">
+        <v>45893</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
+      <c r="E219" s="2">
+        <v>250</v>
+      </c>
       <c r="F219" s="18">
         <f t="shared" si="2"/>
-        <v>4578</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="220" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="15"/>
-      <c r="C220" s="2"/>
+      <c r="B220" s="15">
+        <v>45893</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="24">
-        <f t="shared" si="2"/>
-        <v>4578</v>
+      <c r="E220" s="2">
+        <v>200</v>
+      </c>
+      <c r="F220" s="18">
+        <f t="shared" si="2"/>
+        <v>3128</v>
       </c>
     </row>
     <row r="221" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="15"/>
-      <c r="C221" s="2"/>
+      <c r="B221" s="15">
+        <v>45893</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="24"/>
+      <c r="E221" s="2">
+        <v>100</v>
+      </c>
+      <c r="F221" s="18">
+        <f t="shared" si="2"/>
+        <v>3028</v>
+      </c>
     </row>
     <row r="222" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="15"/>
-      <c r="C222" s="2"/>
+      <c r="B222" s="15">
+        <v>45893</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="18"/>
+      <c r="E222" s="2">
+        <v>220</v>
+      </c>
+      <c r="F222" s="18">
+        <f t="shared" si="2"/>
+        <v>2808</v>
+      </c>
     </row>
     <row r="223" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="3"/>
-      <c r="C223" s="2"/>
+      <c r="B223" s="15">
+        <v>45893</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="18"/>
+      <c r="E223" s="2">
+        <v>100</v>
+      </c>
+      <c r="F223" s="18">
+        <f t="shared" si="2"/>
+        <v>2708</v>
+      </c>
     </row>
     <row r="224" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="3"/>
-      <c r="C224" s="2"/>
+      <c r="B224" s="15">
+        <v>45893</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="18"/>
+      <c r="E224" s="2">
+        <v>100</v>
+      </c>
+      <c r="F224" s="18">
+        <f t="shared" si="2"/>
+        <v>2608</v>
+      </c>
     </row>
     <row r="225" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="3"/>
-      <c r="C225" s="2"/>
+      <c r="B225" s="15">
+        <v>45893</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="18"/>
+      <c r="E225" s="2">
+        <v>500</v>
+      </c>
+      <c r="F225" s="18">
+        <f t="shared" si="2"/>
+        <v>2108</v>
+      </c>
     </row>
     <row r="226" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="3"/>
-      <c r="C226" s="2"/>
+      <c r="B226" s="15">
+        <v>45893</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="18"/>
+      <c r="E226" s="2">
+        <v>200</v>
+      </c>
+      <c r="F226" s="18">
+        <f t="shared" si="2"/>
+        <v>1908</v>
+      </c>
     </row>
     <row r="227" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="3"/>
-      <c r="C227" s="2"/>
+      <c r="B227" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="18"/>
+      <c r="E227" s="2">
+        <v>500</v>
+      </c>
+      <c r="F227" s="18">
+        <f t="shared" si="2"/>
+        <v>1408</v>
+      </c>
     </row>
     <row r="228" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="3"/>
-      <c r="C228" s="2"/>
+      <c r="B228" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
+      <c r="E228" s="2">
+        <v>250</v>
+      </c>
+      <c r="F228" s="18">
+        <f t="shared" si="2"/>
+        <v>1158</v>
+      </c>
     </row>
     <row r="229" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="3"/>
-      <c r="C229" s="2"/>
+      <c r="B229" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
+      <c r="E229" s="2">
+        <v>150</v>
+      </c>
+      <c r="F229" s="18">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
     </row>
     <row r="230" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="3"/>
-      <c r="C230" s="2"/>
+      <c r="B230" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
+      <c r="E230" s="2">
+        <v>480</v>
+      </c>
+      <c r="F230" s="18">
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
     </row>
     <row r="231" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="3"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
+      <c r="B231" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D231" s="2">
+        <v>10000</v>
+      </c>
       <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
+      <c r="F231" s="18">
+        <f t="shared" si="2"/>
+        <v>10528</v>
+      </c>
     </row>
     <row r="232" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="3"/>
-      <c r="C232" s="2"/>
+      <c r="B232" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
+      <c r="E232" s="2">
+        <v>600</v>
+      </c>
+      <c r="F232" s="18">
+        <f t="shared" si="2"/>
+        <v>9928</v>
+      </c>
     </row>
     <row r="233" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="3"/>
-      <c r="C233" s="2"/>
+      <c r="B233" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
+      <c r="E233" s="2">
+        <v>250</v>
+      </c>
+      <c r="F233" s="18">
+        <f t="shared" si="2"/>
+        <v>9678</v>
+      </c>
     </row>
     <row r="234" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="3"/>
-      <c r="C234" s="2"/>
+      <c r="B234" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
+      <c r="E234" s="2">
+        <v>60</v>
+      </c>
+      <c r="F234" s="18">
+        <f t="shared" si="2"/>
+        <v>9618</v>
+      </c>
     </row>
     <row r="235" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="3"/>
-      <c r="C235" s="2"/>
+      <c r="B235" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
+      <c r="E235" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F235" s="18">
+        <f t="shared" si="2"/>
+        <v>8318</v>
+      </c>
     </row>
     <row r="236" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="3"/>
-      <c r="C236" s="2"/>
+      <c r="B236" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
+      <c r="E236" s="2">
+        <v>100</v>
+      </c>
+      <c r="F236" s="18">
+        <f t="shared" si="2"/>
+        <v>8218</v>
+      </c>
     </row>
     <row r="237" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="3"/>
-      <c r="C237" s="2"/>
+      <c r="B237" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
+      <c r="E237" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F237" s="18">
+        <f t="shared" si="2"/>
+        <v>3218</v>
+      </c>
     </row>
     <row r="238" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="3"/>
-      <c r="C238" s="2"/>
+      <c r="B238" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
+      <c r="E238" s="2">
+        <v>200</v>
+      </c>
+      <c r="F238" s="18">
+        <f t="shared" si="2"/>
+        <v>3018</v>
+      </c>
     </row>
     <row r="239" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="3"/>
-      <c r="C239" s="2"/>
+      <c r="B239" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
+      <c r="E239" s="2">
+        <v>200</v>
+      </c>
+      <c r="F239" s="18">
+        <f t="shared" si="2"/>
+        <v>2818</v>
+      </c>
     </row>
     <row r="240" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="3"/>
-      <c r="C240" s="2"/>
+      <c r="B240" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
+      <c r="E240" s="2">
+        <v>2150</v>
+      </c>
+      <c r="F240" s="18">
+        <f t="shared" si="2"/>
+        <v>668</v>
+      </c>
     </row>
     <row r="241" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="3"/>
-      <c r="C241" s="2"/>
+      <c r="B241" s="15">
+        <v>45894</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
+      <c r="E241" s="2">
+        <v>250</v>
+      </c>
+      <c r="F241" s="18">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
     </row>
     <row r="242" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="3"/>
-      <c r="C242" s="2"/>
+      <c r="B242" s="15">
+        <v>45896</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
+      <c r="E242" s="2">
+        <v>100</v>
+      </c>
+      <c r="F242" s="18">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="3"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
+      <c r="F243" s="18">
+        <f t="shared" ref="F243:F244" si="3">F242+D243-E243</f>
+        <v>318</v>
+      </c>
     </row>
     <row r="244" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="3"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
+      <c r="F244" s="18">
+        <f t="shared" si="3"/>
+        <v>318</v>
+      </c>
     </row>
     <row r="245" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="3"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
+      <c r="F245" s="24">
+        <f>F242+D245-E245</f>
+        <v>318</v>
+      </c>
     </row>
     <row r="246" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="3"/>
+      <c r="B246" s="15"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
+      <c r="F246" s="24"/>
     </row>
     <row r="247" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="3"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
+      <c r="F247" s="18"/>
     </row>
     <row r="248" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="3"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
+      <c r="F248" s="18"/>
     </row>
     <row r="249" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
+      <c r="F249" s="18"/>
     </row>
     <row r="250" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
+      <c r="F250" s="18"/>
     </row>
     <row r="251" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
+      <c r="F251" s="18"/>
     </row>
     <row r="252" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="4"/>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
-      <c r="F252" s="2"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="18"/>
     </row>
     <row r="253" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="7"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
     </row>
     <row r="254" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
-      <c r="F254" s="7"/>
-    </row>
-    <row r="255" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="8"/>
-      <c r="D259" s="9"/>
-      <c r="E259" s="9"/>
-    </row>
-    <row r="260" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="8"/>
-      <c r="D260" s="9"/>
-      <c r="E260" s="9"/>
-    </row>
-    <row r="261" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="8"/>
-      <c r="D261" s="9"/>
-      <c r="E261" s="9"/>
-    </row>
-    <row r="262" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="8"/>
-      <c r="D262" s="9"/>
-      <c r="E262" s="9"/>
-    </row>
-    <row r="263" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="8"/>
-      <c r="D263" s="9"/>
-      <c r="E263" s="9"/>
-    </row>
-    <row r="264" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="8"/>
-      <c r="D264" s="9"/>
-      <c r="E264" s="9"/>
-    </row>
-    <row r="265" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="8"/>
-      <c r="D265" s="9"/>
-      <c r="E265" s="9"/>
-    </row>
-    <row r="266" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="8"/>
-      <c r="D266" s="9"/>
-      <c r="E266" s="9"/>
-    </row>
-    <row r="267" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="8"/>
-      <c r="D267" s="9"/>
-      <c r="E267" s="9"/>
-    </row>
-    <row r="268" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="8"/>
-      <c r="D268" s="9"/>
-      <c r="E268" s="9"/>
-    </row>
-    <row r="269" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="8"/>
-      <c r="D269" s="9"/>
-      <c r="E269" s="9"/>
-    </row>
-    <row r="270" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="8"/>
-      <c r="D270" s="9"/>
-      <c r="E270" s="9"/>
-    </row>
-    <row r="271" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="8"/>
-      <c r="D271" s="9"/>
-      <c r="E271" s="9"/>
-    </row>
-    <row r="272" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="8"/>
-      <c r="D272" s="9"/>
-      <c r="E272" s="9"/>
-    </row>
-    <row r="273" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="8"/>
-      <c r="D273" s="9"/>
-      <c r="E273" s="9"/>
-    </row>
-    <row r="274" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="8"/>
-      <c r="D274" s="9"/>
-      <c r="E274" s="9"/>
-    </row>
-    <row r="275" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="8"/>
-      <c r="D275" s="9"/>
-      <c r="E275" s="9"/>
-    </row>
-    <row r="276" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="8"/>
-      <c r="D276" s="9"/>
-      <c r="E276" s="9"/>
-    </row>
-    <row r="277" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="8"/>
-      <c r="D277" s="9"/>
-      <c r="E277" s="9"/>
-    </row>
-    <row r="278" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="8"/>
-      <c r="D278" s="9"/>
-      <c r="E278" s="9"/>
-    </row>
-    <row r="279" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="8"/>
-      <c r="D279" s="9"/>
-      <c r="E279" s="9"/>
-    </row>
-    <row r="280" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="8"/>
-      <c r="D280" s="9"/>
-      <c r="E280" s="9"/>
-    </row>
-    <row r="281" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="8"/>
-      <c r="D281" s="9"/>
-      <c r="E281" s="9"/>
-    </row>
-    <row r="282" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="8"/>
-      <c r="D282" s="9"/>
-      <c r="E282" s="9"/>
-    </row>
-    <row r="283" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="8"/>
-      <c r="D283" s="9"/>
-      <c r="E283" s="9"/>
-    </row>
-    <row r="284" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="3"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="3"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="3"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="3"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="3"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="3"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="3"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="3"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="3"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="3"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="3"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="3"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="3"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="3"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="3"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="3"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="3"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="3"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="3"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="3"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="3"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="3"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="7"/>
+    </row>
+    <row r="279" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="7"/>
+    </row>
+    <row r="280" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="8"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
     </row>
-    <row r="285" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="8"/>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
     </row>
-    <row r="286" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="8"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
     </row>
-    <row r="287" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="8"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
     </row>
-    <row r="288" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="8"/>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -5251,150 +5580,82 @@
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
     </row>
-    <row r="353" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="8"/>
       <c r="D353" s="9"/>
       <c r="E353" s="9"/>
     </row>
-    <row r="354" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="8"/>
       <c r="D354" s="9"/>
       <c r="E354" s="9"/>
     </row>
-    <row r="355" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="8"/>
       <c r="D355" s="9"/>
       <c r="E355" s="9"/>
     </row>
-    <row r="356" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="8"/>
       <c r="D356" s="9"/>
       <c r="E356" s="9"/>
     </row>
-    <row r="357" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="8"/>
       <c r="D357" s="9"/>
       <c r="E357" s="9"/>
     </row>
-    <row r="358" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="8"/>
       <c r="D358" s="9"/>
       <c r="E358" s="9"/>
     </row>
-    <row r="359" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="8"/>
       <c r="D359" s="9"/>
       <c r="E359" s="9"/>
     </row>
-    <row r="360" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="8"/>
       <c r="D360" s="9"/>
       <c r="E360" s="9"/>
-      <c r="G360" s="10"/>
-    </row>
-    <row r="361" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="8"/>
       <c r="D361" s="9"/>
       <c r="E361" s="9"/>
-      <c r="G361" s="10"/>
-    </row>
-    <row r="362" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="8"/>
       <c r="D362" s="9"/>
       <c r="E362" s="9"/>
-      <c r="G362" s="10"/>
-    </row>
-    <row r="363" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="8"/>
       <c r="D363" s="9"/>
       <c r="E363" s="9"/>
-      <c r="G363" s="10"/>
-      <c r="H363" s="10"/>
-    </row>
-    <row r="364" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="8"/>
       <c r="D364" s="9"/>
       <c r="E364" s="9"/>
-      <c r="F364" s="10"/>
-      <c r="H364" s="10"/>
-      <c r="I364" s="10"/>
-      <c r="J364" s="10"/>
-      <c r="K364" s="10"/>
-      <c r="L364" s="10"/>
-      <c r="M364" s="10"/>
-      <c r="N364" s="10"/>
-      <c r="O364" s="10"/>
-      <c r="P364" s="10"/>
-      <c r="Q364" s="10"/>
-      <c r="R364" s="10"/>
-      <c r="S364" s="10"/>
-      <c r="T364" s="10"/>
-      <c r="U364" s="10"/>
-      <c r="V364" s="10"/>
-    </row>
-    <row r="365" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="8"/>
       <c r="D365" s="9"/>
       <c r="E365" s="9"/>
-      <c r="F365" s="10"/>
-      <c r="H365" s="10"/>
-      <c r="I365" s="10"/>
-      <c r="J365" s="10"/>
-      <c r="K365" s="10"/>
-      <c r="L365" s="10"/>
-      <c r="M365" s="10"/>
-      <c r="N365" s="10"/>
-      <c r="O365" s="10"/>
-      <c r="P365" s="10"/>
-      <c r="Q365" s="10"/>
-      <c r="R365" s="10"/>
-      <c r="S365" s="10"/>
-      <c r="T365" s="10"/>
-      <c r="U365" s="10"/>
-      <c r="V365" s="10"/>
-    </row>
-    <row r="366" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="8"/>
       <c r="D366" s="9"/>
       <c r="E366" s="9"/>
-      <c r="F366" s="10"/>
-      <c r="H366" s="10"/>
-      <c r="I366" s="10"/>
-      <c r="J366" s="10"/>
-      <c r="K366" s="10"/>
-      <c r="L366" s="10"/>
-      <c r="M366" s="10"/>
-      <c r="N366" s="10"/>
-      <c r="O366" s="10"/>
-      <c r="P366" s="10"/>
-      <c r="Q366" s="10"/>
-      <c r="R366" s="10"/>
-      <c r="S366" s="10"/>
-      <c r="T366" s="10"/>
-      <c r="U366" s="10"/>
-      <c r="V366" s="10"/>
-    </row>
-    <row r="367" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="8"/>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
-      <c r="F367" s="10"/>
-      <c r="I367" s="10"/>
-      <c r="J367" s="10"/>
-      <c r="K367" s="10"/>
-      <c r="L367" s="10"/>
-      <c r="M367" s="10"/>
-      <c r="N367" s="10"/>
-      <c r="O367" s="10"/>
-      <c r="P367" s="10"/>
-      <c r="Q367" s="10"/>
-      <c r="R367" s="10"/>
-      <c r="S367" s="10"/>
-      <c r="T367" s="10"/>
-      <c r="U367" s="10"/>
-      <c r="V367" s="10"/>
-    </row>
-    <row r="368" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="8"/>
       <c r="D368" s="9"/>
       <c r="E368" s="9"/>
@@ -5479,82 +5740,150 @@
       <c r="D384" s="9"/>
       <c r="E384" s="9"/>
     </row>
-    <row r="385" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="8"/>
       <c r="D385" s="9"/>
       <c r="E385" s="9"/>
-    </row>
-    <row r="386" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G385" s="10"/>
+    </row>
+    <row r="386" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="8"/>
       <c r="D386" s="9"/>
       <c r="E386" s="9"/>
-    </row>
-    <row r="387" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G386" s="10"/>
+    </row>
+    <row r="387" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="8"/>
       <c r="D387" s="9"/>
       <c r="E387" s="9"/>
-    </row>
-    <row r="388" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G387" s="10"/>
+    </row>
+    <row r="388" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="8"/>
       <c r="D388" s="9"/>
       <c r="E388" s="9"/>
-    </row>
-    <row r="389" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G388" s="10"/>
+      <c r="H388" s="10"/>
+    </row>
+    <row r="389" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="8"/>
       <c r="D389" s="9"/>
       <c r="E389" s="9"/>
-    </row>
-    <row r="390" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F389" s="10"/>
+      <c r="H389" s="10"/>
+      <c r="I389" s="10"/>
+      <c r="J389" s="10"/>
+      <c r="K389" s="10"/>
+      <c r="L389" s="10"/>
+      <c r="M389" s="10"/>
+      <c r="N389" s="10"/>
+      <c r="O389" s="10"/>
+      <c r="P389" s="10"/>
+      <c r="Q389" s="10"/>
+      <c r="R389" s="10"/>
+      <c r="S389" s="10"/>
+      <c r="T389" s="10"/>
+      <c r="U389" s="10"/>
+      <c r="V389" s="10"/>
+    </row>
+    <row r="390" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="8"/>
       <c r="D390" s="9"/>
       <c r="E390" s="9"/>
-    </row>
-    <row r="391" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F390" s="10"/>
+      <c r="H390" s="10"/>
+      <c r="I390" s="10"/>
+      <c r="J390" s="10"/>
+      <c r="K390" s="10"/>
+      <c r="L390" s="10"/>
+      <c r="M390" s="10"/>
+      <c r="N390" s="10"/>
+      <c r="O390" s="10"/>
+      <c r="P390" s="10"/>
+      <c r="Q390" s="10"/>
+      <c r="R390" s="10"/>
+      <c r="S390" s="10"/>
+      <c r="T390" s="10"/>
+      <c r="U390" s="10"/>
+      <c r="V390" s="10"/>
+    </row>
+    <row r="391" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="8"/>
       <c r="D391" s="9"/>
       <c r="E391" s="9"/>
-    </row>
-    <row r="392" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F391" s="10"/>
+      <c r="H391" s="10"/>
+      <c r="I391" s="10"/>
+      <c r="J391" s="10"/>
+      <c r="K391" s="10"/>
+      <c r="L391" s="10"/>
+      <c r="M391" s="10"/>
+      <c r="N391" s="10"/>
+      <c r="O391" s="10"/>
+      <c r="P391" s="10"/>
+      <c r="Q391" s="10"/>
+      <c r="R391" s="10"/>
+      <c r="S391" s="10"/>
+      <c r="T391" s="10"/>
+      <c r="U391" s="10"/>
+      <c r="V391" s="10"/>
+    </row>
+    <row r="392" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="8"/>
       <c r="D392" s="9"/>
       <c r="E392" s="9"/>
-    </row>
-    <row r="393" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F392" s="10"/>
+      <c r="I392" s="10"/>
+      <c r="J392" s="10"/>
+      <c r="K392" s="10"/>
+      <c r="L392" s="10"/>
+      <c r="M392" s="10"/>
+      <c r="N392" s="10"/>
+      <c r="O392" s="10"/>
+      <c r="P392" s="10"/>
+      <c r="Q392" s="10"/>
+      <c r="R392" s="10"/>
+      <c r="S392" s="10"/>
+      <c r="T392" s="10"/>
+      <c r="U392" s="10"/>
+      <c r="V392" s="10"/>
+    </row>
+    <row r="393" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="8"/>
       <c r="D393" s="9"/>
       <c r="E393" s="9"/>
     </row>
-    <row r="394" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="8"/>
       <c r="D394" s="9"/>
       <c r="E394" s="9"/>
     </row>
-    <row r="395" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="8"/>
       <c r="D395" s="9"/>
       <c r="E395" s="9"/>
     </row>
-    <row r="396" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="8"/>
       <c r="D396" s="9"/>
       <c r="E396" s="9"/>
     </row>
-    <row r="397" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="8"/>
       <c r="D397" s="9"/>
       <c r="E397" s="9"/>
     </row>
-    <row r="398" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="8"/>
       <c r="D398" s="9"/>
       <c r="E398" s="9"/>
     </row>
-    <row r="399" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="8"/>
       <c r="D399" s="9"/>
       <c r="E399" s="9"/>
     </row>
-    <row r="400" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="8"/>
       <c r="D400" s="9"/>
       <c r="E400" s="9"/>
@@ -8714,31 +9043,131 @@
       <c r="D1031" s="9"/>
       <c r="E1031" s="9"/>
     </row>
-    <row r="1032" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1033" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1034" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1035" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1036" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1037" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1038" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1039" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1040" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1041" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1042" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1043" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1044" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1045" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1046" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1047" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1049" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1050" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1051" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1052" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1053" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1054" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1055" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1056" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1032" s="8"/>
+      <c r="D1032" s="9"/>
+      <c r="E1032" s="9"/>
+    </row>
+    <row r="1033" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1033" s="8"/>
+      <c r="D1033" s="9"/>
+      <c r="E1033" s="9"/>
+    </row>
+    <row r="1034" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1034" s="8"/>
+      <c r="D1034" s="9"/>
+      <c r="E1034" s="9"/>
+    </row>
+    <row r="1035" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1035" s="8"/>
+      <c r="D1035" s="9"/>
+      <c r="E1035" s="9"/>
+    </row>
+    <row r="1036" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1036" s="8"/>
+      <c r="D1036" s="9"/>
+      <c r="E1036" s="9"/>
+    </row>
+    <row r="1037" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1037" s="8"/>
+      <c r="D1037" s="9"/>
+      <c r="E1037" s="9"/>
+    </row>
+    <row r="1038" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1038" s="8"/>
+      <c r="D1038" s="9"/>
+      <c r="E1038" s="9"/>
+    </row>
+    <row r="1039" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1039" s="8"/>
+      <c r="D1039" s="9"/>
+      <c r="E1039" s="9"/>
+    </row>
+    <row r="1040" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1040" s="8"/>
+      <c r="D1040" s="9"/>
+      <c r="E1040" s="9"/>
+    </row>
+    <row r="1041" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1041" s="8"/>
+      <c r="D1041" s="9"/>
+      <c r="E1041" s="9"/>
+    </row>
+    <row r="1042" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1042" s="8"/>
+      <c r="D1042" s="9"/>
+      <c r="E1042" s="9"/>
+    </row>
+    <row r="1043" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1043" s="8"/>
+      <c r="D1043" s="9"/>
+      <c r="E1043" s="9"/>
+    </row>
+    <row r="1044" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1044" s="8"/>
+      <c r="D1044" s="9"/>
+      <c r="E1044" s="9"/>
+    </row>
+    <row r="1045" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1045" s="8"/>
+      <c r="D1045" s="9"/>
+      <c r="E1045" s="9"/>
+    </row>
+    <row r="1046" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1046" s="8"/>
+      <c r="D1046" s="9"/>
+      <c r="E1046" s="9"/>
+    </row>
+    <row r="1047" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1047" s="8"/>
+      <c r="D1047" s="9"/>
+      <c r="E1047" s="9"/>
+    </row>
+    <row r="1048" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1048" s="8"/>
+      <c r="D1048" s="9"/>
+      <c r="E1048" s="9"/>
+    </row>
+    <row r="1049" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1049" s="8"/>
+      <c r="D1049" s="9"/>
+      <c r="E1049" s="9"/>
+    </row>
+    <row r="1050" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1050" s="8"/>
+      <c r="D1050" s="9"/>
+      <c r="E1050" s="9"/>
+    </row>
+    <row r="1051" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1051" s="8"/>
+      <c r="D1051" s="9"/>
+      <c r="E1051" s="9"/>
+    </row>
+    <row r="1052" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1052" s="8"/>
+      <c r="D1052" s="9"/>
+      <c r="E1052" s="9"/>
+    </row>
+    <row r="1053" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1053" s="8"/>
+      <c r="D1053" s="9"/>
+      <c r="E1053" s="9"/>
+    </row>
+    <row r="1054" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1054" s="8"/>
+      <c r="D1054" s="9"/>
+      <c r="E1054" s="9"/>
+    </row>
+    <row r="1055" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1055" s="8"/>
+      <c r="D1055" s="9"/>
+      <c r="E1055" s="9"/>
+    </row>
+    <row r="1056" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1056" s="8"/>
+      <c r="D1056" s="9"/>
+      <c r="E1056" s="9"/>
+    </row>
     <row r="1057" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1058" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1059" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8841,6 +9270,31 @@
     <row r="1156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F4"/>

--- a/Cash Book/Daily Cash Book Running.xlsx
+++ b/Cash Book/Daily Cash Book Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E736DD6-50D0-48E3-9080-08D4132F6916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC6394-6525-49DD-9CED-560E57292EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -569,6 +569,54 @@
   </si>
   <si>
     <t>Petrol Bike (Sargodha Road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol For Fact Use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Ahmad Sahb </t>
+  </si>
+  <si>
+    <t>Machine Parts (3 Bearing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Lock 24 Nut Machine </t>
+  </si>
+  <si>
+    <t>4 # Elki 4 Pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Pcs Clp Box </t>
+  </si>
+  <si>
+    <t>100 Pcs Bit 25 Pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Pcs Seal Nut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 Pcs Bit Nut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Pcs Warsal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 WhiteOil </t>
+  </si>
+  <si>
+    <t>Ali Bike Petrol 5 Pullia</t>
+  </si>
+  <si>
+    <t>Lari Adda Ali Bike Petrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsmatUllah Guard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrol Usman Bike </t>
+  </si>
+  <si>
+    <t>Chai Biscut Bao Ali</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V1183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I228" sqref="I228"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4959,229 +5007,448 @@
       <c r="E242" s="2">
         <v>100</v>
       </c>
-      <c r="F242" s="18">
+      <c r="F242" s="24">
         <f t="shared" si="2"/>
         <v>318</v>
       </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="15"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
+      <c r="B243" s="15">
+        <v>45896</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D243" s="2">
+        <v>25000</v>
+      </c>
       <c r="E243" s="2"/>
       <c r="F243" s="18">
-        <f t="shared" ref="F243:F244" si="3">F242+D243-E243</f>
-        <v>318</v>
+        <f t="shared" ref="F243:F272" si="3">F242+D243-E243</f>
+        <v>25318</v>
       </c>
     </row>
     <row r="244" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="15"/>
-      <c r="C244" s="2"/>
+      <c r="B244" s="15">
+        <v>45896</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
+      <c r="E244" s="2">
+        <v>150</v>
+      </c>
       <c r="F244" s="18">
         <f t="shared" si="3"/>
-        <v>318</v>
+        <v>25168</v>
       </c>
     </row>
     <row r="245" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="15"/>
-      <c r="C245" s="2"/>
+      <c r="B245" s="15">
+        <v>45896</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="24">
-        <f>F242+D245-E245</f>
-        <v>318</v>
+      <c r="E245" s="2">
+        <v>250</v>
+      </c>
+      <c r="F245" s="18">
+        <f t="shared" si="3"/>
+        <v>24918</v>
       </c>
     </row>
     <row r="246" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="15"/>
-      <c r="C246" s="2"/>
+      <c r="B246" s="15">
+        <v>45896</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="24"/>
+      <c r="E246" s="2">
+        <v>100</v>
+      </c>
+      <c r="F246" s="18">
+        <f t="shared" si="3"/>
+        <v>24818</v>
+      </c>
     </row>
     <row r="247" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="15"/>
-      <c r="C247" s="2"/>
+      <c r="B247" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="18"/>
+      <c r="E247" s="2">
+        <v>2850</v>
+      </c>
+      <c r="F247" s="18">
+        <f t="shared" si="3"/>
+        <v>21968</v>
+      </c>
     </row>
     <row r="248" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="3"/>
-      <c r="C248" s="2"/>
+      <c r="B248" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="18"/>
+      <c r="E248" s="2">
+        <v>550</v>
+      </c>
+      <c r="F248" s="18">
+        <f t="shared" si="3"/>
+        <v>21418</v>
+      </c>
     </row>
     <row r="249" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="3"/>
-      <c r="C249" s="2"/>
+      <c r="B249" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="18"/>
+      <c r="E249" s="2">
+        <v>320</v>
+      </c>
+      <c r="F249" s="18">
+        <f t="shared" si="3"/>
+        <v>21098</v>
+      </c>
     </row>
     <row r="250" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="3"/>
-      <c r="C250" s="2"/>
+      <c r="B250" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="18"/>
+      <c r="E250" s="2">
+        <v>8000</v>
+      </c>
+      <c r="F250" s="18">
+        <f t="shared" si="3"/>
+        <v>13098</v>
+      </c>
     </row>
     <row r="251" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="3"/>
-      <c r="C251" s="2"/>
+      <c r="B251" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="18"/>
+      <c r="E251" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F251" s="18">
+        <f t="shared" si="3"/>
+        <v>10598</v>
+      </c>
     </row>
     <row r="252" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="3"/>
-      <c r="C252" s="2"/>
+      <c r="B252" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="18"/>
+      <c r="E252" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F252" s="18">
+        <f t="shared" si="3"/>
+        <v>7598</v>
+      </c>
     </row>
     <row r="253" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="3"/>
-      <c r="C253" s="2"/>
+      <c r="B253" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
+      <c r="E253" s="2">
+        <v>680</v>
+      </c>
+      <c r="F253" s="18">
+        <f t="shared" si="3"/>
+        <v>6918</v>
+      </c>
     </row>
     <row r="254" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="3"/>
-      <c r="C254" s="2"/>
+      <c r="B254" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
+      <c r="E254" s="2">
+        <v>240</v>
+      </c>
+      <c r="F254" s="18">
+        <f t="shared" si="3"/>
+        <v>6678</v>
+      </c>
     </row>
     <row r="255" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="3"/>
-      <c r="C255" s="2"/>
+      <c r="B255" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
+      <c r="E255" s="2">
+        <v>560</v>
+      </c>
+      <c r="F255" s="18">
+        <f t="shared" si="3"/>
+        <v>6118</v>
+      </c>
     </row>
     <row r="256" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="3"/>
-      <c r="C256" s="2"/>
+      <c r="B256" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
+      <c r="E256" s="2">
+        <v>150</v>
+      </c>
+      <c r="F256" s="18">
+        <f t="shared" si="3"/>
+        <v>5968</v>
+      </c>
     </row>
     <row r="257" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="3"/>
-      <c r="C257" s="2"/>
+      <c r="B257" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
+      <c r="E257" s="2">
+        <v>265</v>
+      </c>
+      <c r="F257" s="18">
+        <f t="shared" si="3"/>
+        <v>5703</v>
+      </c>
     </row>
     <row r="258" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="3"/>
-      <c r="C258" s="2"/>
+      <c r="B258" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
+      <c r="E258" s="2">
+        <v>210</v>
+      </c>
+      <c r="F258" s="18">
+        <f t="shared" si="3"/>
+        <v>5493</v>
+      </c>
     </row>
     <row r="259" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="3"/>
-      <c r="C259" s="2"/>
+      <c r="B259" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
+      <c r="E259" s="2">
+        <v>250</v>
+      </c>
+      <c r="F259" s="18">
+        <f t="shared" si="3"/>
+        <v>5243</v>
+      </c>
     </row>
     <row r="260" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="3"/>
-      <c r="C260" s="2"/>
+      <c r="B260" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
+      <c r="E260" s="2">
+        <v>100</v>
+      </c>
+      <c r="F260" s="18">
+        <f t="shared" si="3"/>
+        <v>5143</v>
+      </c>
     </row>
     <row r="261" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="3"/>
-      <c r="C261" s="2"/>
+      <c r="B261" s="15">
+        <v>45897</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
+      <c r="E261" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F261" s="18">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="262" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="3"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
+      <c r="B262" s="15">
+        <v>45898</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D262" s="2">
+        <v>10000</v>
+      </c>
       <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
+      <c r="F262" s="18">
+        <f t="shared" si="3"/>
+        <v>10143</v>
+      </c>
     </row>
     <row r="263" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="3"/>
-      <c r="C263" s="2"/>
+      <c r="B263" s="15">
+        <v>45898</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
+      <c r="E263" s="2">
+        <v>200</v>
+      </c>
+      <c r="F263" s="18">
+        <f t="shared" si="3"/>
+        <v>9943</v>
+      </c>
     </row>
     <row r="264" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="3"/>
-      <c r="C264" s="2"/>
+      <c r="B264" s="15">
+        <v>45898</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
+      <c r="E264" s="2">
+        <v>100</v>
+      </c>
+      <c r="F264" s="18">
+        <f t="shared" si="3"/>
+        <v>9843</v>
+      </c>
     </row>
     <row r="265" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="3"/>
-      <c r="C265" s="2"/>
+      <c r="B265" s="15">
+        <v>45898</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
+      <c r="E265" s="2">
+        <v>180</v>
+      </c>
+      <c r="F265" s="18">
+        <f t="shared" si="3"/>
+        <v>9663</v>
+      </c>
     </row>
     <row r="266" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
+      <c r="F266" s="18">
+        <f t="shared" si="3"/>
+        <v>9663</v>
+      </c>
     </row>
     <row r="267" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="3"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
+      <c r="F267" s="18">
+        <f t="shared" si="3"/>
+        <v>9663</v>
+      </c>
     </row>
     <row r="268" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="3"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
+      <c r="F268" s="18">
+        <f t="shared" si="3"/>
+        <v>9663</v>
+      </c>
     </row>
     <row r="269" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
+      <c r="F269" s="18">
+        <f t="shared" si="3"/>
+        <v>9663</v>
+      </c>
     </row>
     <row r="270" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
+      <c r="F270" s="18">
+        <f t="shared" si="3"/>
+        <v>9663</v>
+      </c>
     </row>
     <row r="271" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="3"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
+      <c r="F271" s="18">
+        <f t="shared" si="3"/>
+        <v>9663</v>
+      </c>
     </row>
     <row r="272" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
+      <c r="F272" s="24">
+        <f t="shared" si="3"/>
+        <v>9663</v>
+      </c>
     </row>
     <row r="273" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
